--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H350"/>
+  <dimension ref="A1:H362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10007,6 +10007,346 @@
         <v>298.4766666666667</v>
       </c>
       <c r="H350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:33+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>297.81</v>
+      </c>
+      <c r="C351" t="n">
+        <v>285.51</v>
+      </c>
+      <c r="D351" t="n">
+        <v>277.6628571428571</v>
+      </c>
+      <c r="E351" t="n">
+        <v>271.0928571428572</v>
+      </c>
+      <c r="F351" t="n">
+        <v>276.99</v>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17 22:32:46+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="n">
+        <v>288.51</v>
+      </c>
+      <c r="D352" t="n">
+        <v>278.6871428571428</v>
+      </c>
+      <c r="E352" t="n">
+        <v>271.3571428571428</v>
+      </c>
+      <c r="F352" t="n">
+        <v>270.45</v>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>302.52</v>
+      </c>
+      <c r="C353" t="n">
+        <v>288.83</v>
+      </c>
+      <c r="D353" t="n">
+        <v>277.2428571428572</v>
+      </c>
+      <c r="E353" t="n">
+        <v>267.1828571428572</v>
+      </c>
+      <c r="F353" t="n">
+        <v>273.03</v>
+      </c>
+      <c r="G353" t="n">
+        <v>293.0866666666667</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:32:56+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>304.9</v>
+      </c>
+      <c r="C354" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="D354" t="n">
+        <v>275.1242857142857</v>
+      </c>
+      <c r="E354" t="n">
+        <v>270.8342857142857</v>
+      </c>
+      <c r="F354" t="n">
+        <v>284.91</v>
+      </c>
+      <c r="G354" t="n">
+        <v>290.71</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>311.96</v>
+      </c>
+      <c r="C355" t="n">
+        <v>296.17</v>
+      </c>
+      <c r="D355" t="n">
+        <v>287.65</v>
+      </c>
+      <c r="E355" t="n">
+        <v>284.26</v>
+      </c>
+      <c r="F355" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>318.63</v>
+      </c>
+      <c r="C356" t="n">
+        <v>285.77</v>
+      </c>
+      <c r="D356" t="n">
+        <v>275.6471428571429</v>
+      </c>
+      <c r="E356" t="n">
+        <v>270.1771428571428</v>
+      </c>
+      <c r="F356" t="n">
+        <v>280.66</v>
+      </c>
+      <c r="G356" t="n">
+        <v>322.7166666666667</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:32:53+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>325.16</v>
+      </c>
+      <c r="C357" t="n">
+        <v>296.66</v>
+      </c>
+      <c r="D357" t="n">
+        <v>285.9614285714285</v>
+      </c>
+      <c r="E357" t="n">
+        <v>281.9214285714286</v>
+      </c>
+      <c r="F357" t="n">
+        <v>281.49</v>
+      </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>322.71</v>
+      </c>
+      <c r="C358" t="n">
+        <v>306.72</v>
+      </c>
+      <c r="D358" t="n">
+        <v>300.83</v>
+      </c>
+      <c r="E358" t="n">
+        <v>298.53</v>
+      </c>
+      <c r="F358" t="n">
+        <v>293.61</v>
+      </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:32:48+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>316.62</v>
+      </c>
+      <c r="C359" t="n">
+        <v>290.68</v>
+      </c>
+      <c r="D359" t="n">
+        <v>280.9114285714285</v>
+      </c>
+      <c r="E359" t="n">
+        <v>280.5614285714286</v>
+      </c>
+      <c r="F359" t="n">
+        <v>283.53</v>
+      </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-26 22:32:54+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>321.7</v>
+      </c>
+      <c r="C360" t="n">
+        <v>294.26</v>
+      </c>
+      <c r="D360" t="n">
+        <v>289.21</v>
+      </c>
+      <c r="E360" t="n">
+        <v>284.24</v>
+      </c>
+      <c r="F360" t="n">
+        <v>276.66</v>
+      </c>
+      <c r="G360" t="n">
+        <v>294.0833333333333</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:32:49+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>323.31</v>
+      </c>
+      <c r="C361" t="n">
+        <v>292.78</v>
+      </c>
+      <c r="D361" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="E361" t="n">
+        <v>279.47</v>
+      </c>
+      <c r="F361" t="n">
+        <v>279.38</v>
+      </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:32:47+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>326.34</v>
+      </c>
+      <c r="C362" t="n">
+        <v>314.16</v>
+      </c>
+      <c r="D362" t="n">
+        <v>318.7971428571428</v>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="n">
+        <v>303.9533333333333</v>
+      </c>
+      <c r="H362" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10023,7 +10363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14771,6 +15111,126 @@
       </c>
       <c r="B474" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2024-12-17 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-01-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -14939,28 +15399,28 @@
         <v>0.046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2532654094506767</v>
+        <v>0.2895032555757341</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02886729599473148</v>
+        <v>0.03831614535670524</v>
       </c>
       <c r="M2" t="n">
-        <v>8.754353409149989</v>
+        <v>8.804463173604947</v>
       </c>
       <c r="N2" t="n">
-        <v>119.3411715325227</v>
+        <v>119.3960854304367</v>
       </c>
       <c r="O2" t="n">
-        <v>10.92433849404726</v>
+        <v>10.9268515790431</v>
       </c>
       <c r="P2" t="n">
-        <v>303.2242183631612</v>
+        <v>302.8651791455791</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15016,28 +15476,28 @@
         <v>0.0435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2175623871947617</v>
+        <v>0.2295980025772233</v>
       </c>
       <c r="J3" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01892712901755134</v>
+        <v>0.02200071250354196</v>
       </c>
       <c r="M3" t="n">
-        <v>9.246996650816122</v>
+        <v>9.141319005207905</v>
       </c>
       <c r="N3" t="n">
-        <v>134.540335824877</v>
+        <v>132.3759977619741</v>
       </c>
       <c r="O3" t="n">
-        <v>11.59915237527626</v>
+        <v>11.50547685939067</v>
       </c>
       <c r="P3" t="n">
-        <v>286.2514517749963</v>
+        <v>286.1310184308866</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15093,28 +15553,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.328268442780884</v>
+        <v>0.3353753946095293</v>
       </c>
       <c r="J4" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K4" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03815455067730333</v>
+        <v>0.04099053067828851</v>
       </c>
       <c r="M4" t="n">
-        <v>9.820433984949538</v>
+        <v>9.779503916145282</v>
       </c>
       <c r="N4" t="n">
-        <v>150.6277194190228</v>
+        <v>150.5293144281113</v>
       </c>
       <c r="O4" t="n">
-        <v>12.27304849737924</v>
+        <v>12.26903885510643</v>
       </c>
       <c r="P4" t="n">
-        <v>276.5301741876221</v>
+        <v>276.458694556207</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15170,28 +15630,28 @@
         <v>0.0397</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3453729733817844</v>
+        <v>0.3262864765461862</v>
       </c>
       <c r="J5" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04264646228123981</v>
+        <v>0.03999070352387679</v>
       </c>
       <c r="M5" t="n">
-        <v>9.773374269497484</v>
+        <v>9.675692960909847</v>
       </c>
       <c r="N5" t="n">
-        <v>151.158776468835</v>
+        <v>148.5956730955827</v>
       </c>
       <c r="O5" t="n">
-        <v>12.2946645529203</v>
+        <v>12.18998248955193</v>
       </c>
       <c r="P5" t="n">
-        <v>272.3455934675484</v>
+        <v>272.5283916867976</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15247,28 +15707,28 @@
         <v>0.0598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2026257780949637</v>
+        <v>0.2185795037541876</v>
       </c>
       <c r="J6" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K6" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0114832067669367</v>
+        <v>0.0141276214757432</v>
       </c>
       <c r="M6" t="n">
-        <v>9.907565475587583</v>
+        <v>9.730844208671899</v>
       </c>
       <c r="N6" t="n">
-        <v>205.6914874275652</v>
+        <v>199.6014538400276</v>
       </c>
       <c r="O6" t="n">
-        <v>14.34194852269263</v>
+        <v>14.12803786235115</v>
       </c>
       <c r="P6" t="n">
-        <v>273.2902155292541</v>
+        <v>273.1395249809033</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15324,28 +15784,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.271361430706587</v>
+        <v>-7.215972628857184</v>
       </c>
       <c r="J7" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K7" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2259772097336513</v>
+        <v>0.2311005993977249</v>
       </c>
       <c r="M7" t="n">
-        <v>80.44527544743646</v>
+        <v>78.95490747763306</v>
       </c>
       <c r="N7" t="n">
-        <v>9852.551188660571</v>
+        <v>9615.857588094679</v>
       </c>
       <c r="O7" t="n">
-        <v>99.26001807707155</v>
+        <v>98.06047923651342</v>
       </c>
       <c r="P7" t="n">
-        <v>472.9162760008103</v>
+        <v>472.3664005824277</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -15382,7 +15842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H350"/>
+  <dimension ref="A1:H362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28218,6 +28678,470 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:33+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-44.815686517263,167.39170334383806</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-44.81544920086432,167.3925435188223</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-44.81517688958994,167.39335650189082</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-44.81489453972715,167.39416168626926</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-44.8145142164802,167.39489073431406</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17 22:32:46+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-44.81542562559745,167.39252519825925</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-44.81516884034716,167.39335024666826</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-44.81489246287216,167.39416007228527</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-44.81456561006833,167.39493067413224</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-44.8156495039652,167.3916745808575</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-44.81542311090218,167.3925232440667</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-44.81518019011619,167.3933590667943</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-44.81492526595271,167.39418556452082</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-44.814545335534845,167.39491491804907</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-44.81405374038724,167.39555749313948</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:32:56+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-44.815630800852894,167.39166004671094</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-44.8154752122395,167.39256373252678</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-44.815196838688436,167.39337200473003</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-44.81489657167716,167.39416326535638</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-44.81445197835911,167.39484236691908</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-44.814072417011836,167.39557200749104</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-44.815575320183754,167.39161693286707</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-44.81536543007242,167.39247841982012</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-44.81509840665497,167.39329551136098</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-44.81479106742237,167.3940812751059</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-44.814415908531714,167.39481433586093</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-44.81552290429928,167.39157620073914</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-44.81544715767462,167.39254193103957</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-44.81519272987031,167.39336881168518</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-44.814901735748904,167.39416727850647</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-44.81448537634271,167.3948683216325</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-44.81382089802951,167.3953765428838</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:32:53+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-44.815471588587464,167.3915363236271</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-44.81536157944433,167.39247542746884</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-44.81511167612162,167.39330582329464</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-44.814809444789425,167.39409555663875</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-44.81447885391333,167.39486325282738</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-44.815490841803715,167.39155128516958</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-44.81528252367898,167.39241399274957</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-44.81499483294216,167.39321502260012</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-44.81467892840688,167.39399412915444</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-44.81438361070792,167.39478923618375</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:32:48+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-44.815538699791865,167.39158847533096</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-44.815408572819656,167.39251194639428</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-44.81515136102824,167.39333666315719</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-44.81482013217637,167.39410386209133</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-44.81446282288133,167.394850794564</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-26 22:32:54+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-44.81549877884344,167.39155745299195</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-44.81538043966294,167.39249008388688</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-44.815086147553146,167.39328598460398</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-44.81479122458983,167.3940813972448</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-44.81451680973491,167.39489274962435</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-44.81404590825392,167.39555140647857</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:32:49+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-44.81548612673048,167.3915476211175</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-44.815392070130365,167.39249912201598</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-44.81513887740342,167.39332696190044</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-44.81482870902857,167.39411052739362</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-44.81449543502865,167.3948761385871</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:32:47+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-44.81546231560928,167.39152911766314</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-44.815224056973335,167.39236855803117</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-44.814853639875366,167.39310529974838</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-44.81396834654557,167.39549113030026</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -15244,7 +15244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15335,35 +15335,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15422,27 +15427,28 @@
       <c r="P2" t="n">
         <v>302.8651791455791</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (167.39352207875567 -44.8180268308383, 167.3881261898665 -44.81108290758294)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>167.3935220787557</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-44.8180268308383</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>167.3881261898665</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-44.81108290758294</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>167.3908241343111</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-44.81455486921062</v>
       </c>
     </row>
@@ -15499,27 +15505,28 @@
       <c r="P3" t="n">
         <v>286.1310184308866</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (167.39428715246058 -44.8176928486686, 167.38889121550562 -44.81074893420541)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>167.3942871524606</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-44.8176928486686</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>167.3888912155056</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-44.81074893420541</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>167.3915891839831</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-44.814220891437</v>
       </c>
     </row>
@@ -15576,27 +15583,28 @@
       <c r="P4" t="n">
         <v>276.458694556207</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (167.3950522261649 -44.81735886456446, 167.38965624114596 -44.81041495889398)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>167.3950522261649</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-44.81735886456446</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>167.389656241146</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-44.81041495889398</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>167.3923542336554</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-44.81388691172922</v>
       </c>
     </row>
@@ -15653,27 +15661,28 @@
       <c r="P5" t="n">
         <v>272.5283916867976</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (167.39581729986855 -44.817024878525814, 167.39042126678754 -44.810080981648625)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>167.3958172998686</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-44.81702487852581</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>167.3904212667875</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-44.81008098164862</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>167.393119283328</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-44.81355293008722</v>
       </c>
     </row>
@@ -15730,27 +15739,28 @@
       <c r="P6" t="n">
         <v>273.1395249809033</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (167.3965823735716 -44.81669089055271, 167.39118629243035 -44.80974700246935)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>167.3965823735716</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-44.81669089055271</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>167.3911862924303</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-44.80974700246935</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>167.393884333001</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-44.81321894651103</v>
       </c>
     </row>
@@ -15807,27 +15817,28 @@
       <c r="P7" t="n">
         <v>472.3664005824277</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (167.39734744727394 -44.81635690064517, 167.39195131807452 -44.80941302135613)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>167.3973474472739</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-44.81635690064517</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>167.3919513180745</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-44.80941302135613</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>167.3946493826742</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-44.81288496100065</v>
       </c>
     </row>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10342,13 +10342,173 @@
         <v>318.7971428571428</v>
       </c>
       <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr"/>
+      <c r="F362" t="n">
+        <v>324.87</v>
+      </c>
       <c r="G362" t="n">
         <v>303.9533333333333</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>330.84</v>
+      </c>
+      <c r="C363" t="n">
+        <v>300.49</v>
+      </c>
+      <c r="D363" t="n">
+        <v>302.6657142857143</v>
+      </c>
+      <c r="E363" t="n">
+        <v>294.6857142857143</v>
+      </c>
+      <c r="F363" t="n">
+        <v>290.33</v>
+      </c>
+      <c r="G363" t="n">
+        <v>310.2166666666667</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:32:26+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>310.93</v>
+      </c>
+      <c r="C364" t="n">
+        <v>296.07</v>
+      </c>
+      <c r="D364" t="n">
+        <v>287.5585714285714</v>
+      </c>
+      <c r="E364" t="n">
+        <v>282.0585714285714</v>
+      </c>
+      <c r="F364" t="n">
+        <v>276.37</v>
+      </c>
+      <c r="G364" t="n">
+        <v>289.9166666666667</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>333.86</v>
+      </c>
+      <c r="C365" t="n">
+        <v>303.33</v>
+      </c>
+      <c r="D365" t="n">
+        <v>301.4128571428571</v>
+      </c>
+      <c r="E365" t="n">
+        <v>298.8828571428572</v>
+      </c>
+      <c r="F365" t="n">
+        <v>283.57</v>
+      </c>
+      <c r="G365" t="n">
+        <v>304.8366666666667</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:26+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="n">
+        <v>286.6966666666667</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-02 22:32:28+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>319.08</v>
+      </c>
+      <c r="C367" t="n">
+        <v>296.27</v>
+      </c>
+      <c r="D367" t="n">
+        <v>290.6714285714286</v>
+      </c>
+      <c r="E367" t="n">
+        <v>44.96142857142857</v>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:58+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>318.61</v>
+      </c>
+      <c r="C368" t="n">
+        <v>297.69</v>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10363,7 +10523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B486"/>
+  <dimension ref="A1:B492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15231,6 +15391,66 @@
       </c>
       <c r="B486" t="n">
         <v>1.01</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-05-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -15404,28 +15624,28 @@
         <v>0.046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2895032555757341</v>
+        <v>0.3227865795813128</v>
       </c>
       <c r="J2" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K2" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03831614535670524</v>
+        <v>0.04708916078764691</v>
       </c>
       <c r="M2" t="n">
-        <v>8.804463173604947</v>
+        <v>8.858544370642475</v>
       </c>
       <c r="N2" t="n">
-        <v>119.3960854304367</v>
+        <v>120.9800099788121</v>
       </c>
       <c r="O2" t="n">
-        <v>10.9268515790431</v>
+        <v>10.99909132514192</v>
       </c>
       <c r="P2" t="n">
-        <v>302.8651791455791</v>
+        <v>302.5327437812875</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15482,28 +15702,28 @@
         <v>0.0435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2295980025772233</v>
+        <v>0.2481706494769023</v>
       </c>
       <c r="J3" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02200071250354196</v>
+        <v>0.02614332709313105</v>
       </c>
       <c r="M3" t="n">
-        <v>9.141319005207905</v>
+        <v>9.097426736821012</v>
       </c>
       <c r="N3" t="n">
-        <v>132.3759977619741</v>
+        <v>131.0663632197036</v>
       </c>
       <c r="O3" t="n">
-        <v>11.50547685939067</v>
+        <v>11.44842186590377</v>
       </c>
       <c r="P3" t="n">
-        <v>286.1310184308866</v>
+        <v>285.9450711505323</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15560,28 +15780,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3353753946095293</v>
+        <v>0.3588611731469289</v>
       </c>
       <c r="J4" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04099053067828851</v>
+        <v>0.0470773423290074</v>
       </c>
       <c r="M4" t="n">
-        <v>9.779503916145282</v>
+        <v>9.797538858238275</v>
       </c>
       <c r="N4" t="n">
-        <v>150.5293144281113</v>
+        <v>150.5272886601699</v>
       </c>
       <c r="O4" t="n">
-        <v>12.26903885510643</v>
+        <v>12.26895629873095</v>
       </c>
       <c r="P4" t="n">
-        <v>276.458694556207</v>
+        <v>276.2269840774798</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15638,28 +15858,28 @@
         <v>0.0397</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3262864765461862</v>
+        <v>0.2067269619653568</v>
       </c>
       <c r="J5" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03999070352387679</v>
+        <v>0.007348338360353979</v>
       </c>
       <c r="M5" t="n">
-        <v>9.675692960909847</v>
+        <v>10.52185029663779</v>
       </c>
       <c r="N5" t="n">
-        <v>148.5956730955827</v>
+        <v>338.9712692887153</v>
       </c>
       <c r="O5" t="n">
-        <v>12.18998248955193</v>
+        <v>18.41117240397024</v>
       </c>
       <c r="P5" t="n">
-        <v>272.5283916867976</v>
+        <v>273.7030254025668</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15716,28 +15936,28 @@
         <v>0.0598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2185795037541876</v>
+        <v>0.2527087745885206</v>
       </c>
       <c r="J6" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K6" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0141276214757432</v>
+        <v>0.01850479533925531</v>
       </c>
       <c r="M6" t="n">
-        <v>9.730844208671899</v>
+        <v>9.81535005825749</v>
       </c>
       <c r="N6" t="n">
-        <v>199.6014538400276</v>
+        <v>204.6623281639611</v>
       </c>
       <c r="O6" t="n">
-        <v>14.12803786235115</v>
+        <v>14.30602419136642</v>
       </c>
       <c r="P6" t="n">
-        <v>273.1395249809033</v>
+        <v>272.8145761480135</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15794,28 +16014,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.215972628857184</v>
+        <v>-7.18172664184238</v>
       </c>
       <c r="J7" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K7" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2311005993977249</v>
+        <v>0.2354901295893623</v>
       </c>
       <c r="M7" t="n">
-        <v>78.95490747763306</v>
+        <v>77.73442005734532</v>
       </c>
       <c r="N7" t="n">
-        <v>9615.857588094679</v>
+        <v>9432.855564927479</v>
       </c>
       <c r="O7" t="n">
-        <v>98.06047923651342</v>
+        <v>97.12288898569419</v>
       </c>
       <c r="P7" t="n">
-        <v>472.3664005824277</v>
+        <v>472.0234961137655</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15853,7 +16073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29141,7 +29361,11 @@
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-44.81413795850781,167.39459833295106</t>
+        </is>
+      </c>
       <c r="G362" t="inlineStr">
         <is>
           <t>-44.81396834654557,167.39549113030026</t>
@@ -29150,6 +29374,214 @@
       <c r="H362" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-44.81542695255377,167.39150163731236</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-44.81533148167583,167.3924520382873</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-44.81498040716144,167.39320381212377</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-44.8147091382518,167.3940176059225</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-44.81440938610048,167.3948092670675</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-44.813919127198204,167.39545288014804</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:32:26+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-44.815583414389806,167.39162322284218</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-44.81536621591489,167.3924790305041</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-44.81509912513711,167.39329606970583</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-44.814808367069716,167.3940947191143</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-44.814519088655686,167.39489452065476</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-44.81407865128453,167.3955768523958</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-44.815403220011426,167.39148319496172</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-44.815309163745894,167.39243469488844</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-44.814990252616546,167.39321146316425</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-44.81467615552237,167.39399197428315</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-44.814462508547365,167.39485055028442</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-44.81396140502033,167.39548573578324</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:26+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-44.814103955095604,167.39559651701964</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-02 22:32:28+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-44.81551936799482,167.3915734526971</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-44.81536464422997,167.39247780913612</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-44.81507466306435,167.39327705981592</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-44.81667155778354,167.3955427041069</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:58+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-44.815523061468355,167.39157632287436</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-44.815353485266755,167.39246913742554</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10507,6 +10507,28 @@
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
       <c r="H368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-10 22:32:08+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>319.94</v>
+      </c>
+      <c r="C369" t="n">
+        <v>304.59</v>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10523,7 +10545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B492"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15451,6 +15473,26 @@
       </c>
       <c r="B492" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-05-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -15624,28 +15666,28 @@
         <v>0.046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3227865795813128</v>
+        <v>0.3276983546038146</v>
       </c>
       <c r="J2" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04708916078764691</v>
+        <v>0.04860796529731359</v>
       </c>
       <c r="M2" t="n">
-        <v>8.858544370642475</v>
+        <v>8.859361406446347</v>
       </c>
       <c r="N2" t="n">
-        <v>120.9800099788121</v>
+        <v>120.8570768022875</v>
       </c>
       <c r="O2" t="n">
-        <v>10.99909132514192</v>
+        <v>10.99350157148701</v>
       </c>
       <c r="P2" t="n">
-        <v>302.5327437812875</v>
+        <v>302.4833478832799</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15702,28 +15744,28 @@
         <v>0.0435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2481706494769023</v>
+        <v>0.2549286377851428</v>
       </c>
       <c r="J3" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02614332709313105</v>
+        <v>0.02759360320822624</v>
       </c>
       <c r="M3" t="n">
-        <v>9.097426736821012</v>
+        <v>9.105940544099671</v>
       </c>
       <c r="N3" t="n">
-        <v>131.0663632197036</v>
+        <v>131.1245819983093</v>
       </c>
       <c r="O3" t="n">
-        <v>11.44842186590377</v>
+        <v>11.45096423880143</v>
       </c>
       <c r="P3" t="n">
-        <v>285.9450711505323</v>
+        <v>285.8769718678039</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15783,7 +15825,7 @@
         <v>0.3588611731469289</v>
       </c>
       <c r="J4" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K4" t="n">
         <v>306</v>
@@ -15861,7 +15903,7 @@
         <v>0.2067269619653568</v>
       </c>
       <c r="J5" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K5" t="n">
         <v>290</v>
@@ -15939,7 +15981,7 @@
         <v>0.2527087745885206</v>
       </c>
       <c r="J6" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K6" t="n">
         <v>289</v>
@@ -16017,7 +16059,7 @@
         <v>-7.18172664184238</v>
       </c>
       <c r="J7" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K7" t="n">
         <v>206</v>
@@ -16073,7 +16115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29585,6 +29627,32 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-10 22:32:08+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-44.81551260972395,167.39156820088425</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-44.815299262128434,167.392427000286</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10545,7 +10545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15493,6 +15493,26 @@
       </c>
       <c r="B494" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -10545,7 +10545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15513,6 +15513,26 @@
       </c>
       <c r="B496" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -10545,7 +10545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15533,6 +15533,26 @@
       </c>
       <c r="B498" t="n">
         <v>-0.26</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-07-05 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-07-21 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -10545,7 +10545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15553,6 +15553,26 @@
       </c>
       <c r="B500" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H369"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10479,9 +10479,7 @@
       <c r="D367" t="n">
         <v>290.6714285714286</v>
       </c>
-      <c r="E367" t="n">
-        <v>44.96142857142857</v>
-      </c>
+      <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr">
@@ -10529,6 +10527,36 @@
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-30 22:32:50+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>299.42</v>
+      </c>
+      <c r="C370" t="n">
+        <v>285.71</v>
+      </c>
+      <c r="D370" t="n">
+        <v>262.4485714285714</v>
+      </c>
+      <c r="E370" t="n">
+        <v>259.8085714285714</v>
+      </c>
+      <c r="F370" t="n">
+        <v>281.03</v>
+      </c>
+      <c r="G370" t="n">
+        <v>286.7266666666667</v>
+      </c>
+      <c r="H370" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10545,7 +10573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15573,6 +15601,16 @@
       </c>
       <c r="B502" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-08-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -15746,28 +15784,28 @@
         <v>0.046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3276983546038146</v>
+        <v>0.3213083576211024</v>
       </c>
       <c r="J2" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04860796529731359</v>
+        <v>0.04691152486892392</v>
       </c>
       <c r="M2" t="n">
-        <v>8.859361406446347</v>
+        <v>8.867652936677285</v>
       </c>
       <c r="N2" t="n">
-        <v>120.8570768022875</v>
+        <v>120.8959594071167</v>
       </c>
       <c r="O2" t="n">
-        <v>10.99350157148701</v>
+        <v>10.99526986513368</v>
       </c>
       <c r="P2" t="n">
-        <v>302.4833478832799</v>
+        <v>302.5487546557213</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15824,28 +15862,28 @@
         <v>0.0435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2549286377851428</v>
+        <v>0.2510986267984586</v>
       </c>
       <c r="J3" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02759360320822624</v>
+        <v>0.02691220307465214</v>
       </c>
       <c r="M3" t="n">
-        <v>9.105940544099671</v>
+        <v>9.099285105496454</v>
       </c>
       <c r="N3" t="n">
-        <v>131.1245819983093</v>
+        <v>130.8503060820411</v>
       </c>
       <c r="O3" t="n">
-        <v>11.45096423880143</v>
+        <v>11.43898186387412</v>
       </c>
       <c r="P3" t="n">
-        <v>285.8769718678039</v>
+        <v>285.9162479441629</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15902,28 +15940,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3588611731469289</v>
+        <v>0.3455251712588104</v>
       </c>
       <c r="J4" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0470773423290074</v>
+        <v>0.04356509607240622</v>
       </c>
       <c r="M4" t="n">
-        <v>9.797538858238275</v>
+        <v>9.835643770914176</v>
       </c>
       <c r="N4" t="n">
-        <v>150.5272886601699</v>
+        <v>151.7614349062344</v>
       </c>
       <c r="O4" t="n">
-        <v>12.26895629873095</v>
+        <v>12.31914911453849</v>
       </c>
       <c r="P4" t="n">
-        <v>276.2269840774798</v>
+        <v>276.361897875764</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15980,28 +16018,28 @@
         <v>0.0397</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2067269619653568</v>
+        <v>0.3325729253172903</v>
       </c>
       <c r="J5" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K5" t="n">
         <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007348338360353979</v>
+        <v>0.04154760033299698</v>
       </c>
       <c r="M5" t="n">
-        <v>10.52185029663779</v>
+        <v>9.730479978834008</v>
       </c>
       <c r="N5" t="n">
-        <v>338.9712692887153</v>
+        <v>149.8752071313134</v>
       </c>
       <c r="O5" t="n">
-        <v>18.41117240397024</v>
+        <v>12.24235300631841</v>
       </c>
       <c r="P5" t="n">
-        <v>273.7030254025668</v>
+        <v>272.4705400554653</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16058,28 +16096,28 @@
         <v>0.0598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2527087745885206</v>
+        <v>0.2536754960999345</v>
       </c>
       <c r="J6" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01850479533925531</v>
+        <v>0.01875586176775546</v>
       </c>
       <c r="M6" t="n">
-        <v>9.81535005825749</v>
+        <v>9.787133731738736</v>
       </c>
       <c r="N6" t="n">
-        <v>204.6623281639611</v>
+        <v>203.9657875001724</v>
       </c>
       <c r="O6" t="n">
-        <v>14.30602419136642</v>
+        <v>14.28165912981305</v>
       </c>
       <c r="P6" t="n">
-        <v>272.8145761480135</v>
+        <v>272.8050899489346</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16136,28 +16174,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.18172664184238</v>
+        <v>-7.180371144318272</v>
       </c>
       <c r="J7" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K7" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2354901295893623</v>
+        <v>0.2370405391298449</v>
       </c>
       <c r="M7" t="n">
-        <v>77.73442005734532</v>
+        <v>77.3704953619789</v>
       </c>
       <c r="N7" t="n">
-        <v>9432.855564927479</v>
+        <v>9387.297748288795</v>
       </c>
       <c r="O7" t="n">
-        <v>97.12288898569419</v>
+        <v>96.8880681419998</v>
       </c>
       <c r="P7" t="n">
-        <v>472.0234961137655</v>
+        <v>472.0095734365983</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16195,7 +16233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H369"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29668,11 +29706,7 @@
           <t>-44.81507466306435,167.39327705981592</t>
         </is>
       </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>-44.81667155778354,167.3955427041069</t>
-        </is>
-      </c>
+      <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr">
@@ -29733,6 +29767,48 @@
         </is>
       </c>
     </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-30 22:32:50+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-44.81567386515972,167.3916935119023</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-44.81544762917994,167.39254229745097</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-44.81529644944132,167.3934494143897</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-44.81498321580572,167.39423059912662</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>-44.81448246875373,167.39486606204454</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-44.81410371934583,167.39559633380875</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -520,7 +520,7 @@
         <v>276.71</v>
       </c>
       <c r="G3" t="n">
-        <v>531.9233333333334</v>
+        <v>531.92</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -541,16 +541,16 @@
         <v>277.69</v>
       </c>
       <c r="D4" t="n">
-        <v>268.2014285714285</v>
+        <v>268.2</v>
       </c>
       <c r="E4" t="n">
-        <v>269.8414285714285</v>
+        <v>269.84</v>
       </c>
       <c r="F4" t="n">
         <v>275.16</v>
       </c>
       <c r="G4" t="n">
-        <v>544.1766666666666</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         <v>264.74</v>
       </c>
       <c r="G5" t="n">
-        <v>508.2266666666666</v>
+        <v>508.23</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -601,10 +601,10 @@
         <v>274.57</v>
       </c>
       <c r="D6" t="n">
-        <v>259.2257142857143</v>
+        <v>259.23</v>
       </c>
       <c r="E6" t="n">
-        <v>265.8357142857143</v>
+        <v>265.84</v>
       </c>
       <c r="F6" t="n">
         <v>274.14</v>
@@ -638,7 +638,7 @@
         <v>268.73</v>
       </c>
       <c r="G7" t="n">
-        <v>516.6433333333333</v>
+        <v>516.64</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -659,10 +659,10 @@
         <v>288.45</v>
       </c>
       <c r="D8" t="n">
-        <v>257.5371428571428</v>
+        <v>257.54</v>
       </c>
       <c r="E8" t="n">
-        <v>256.9271428571428</v>
+        <v>256.93</v>
       </c>
       <c r="F8" t="n">
         <v>269.78</v>
@@ -687,10 +687,10 @@
         <v>293.52</v>
       </c>
       <c r="D9" t="n">
-        <v>280.8385714285715</v>
+        <v>280.84</v>
       </c>
       <c r="E9" t="n">
-        <v>280.7785714285715</v>
+        <v>280.78</v>
       </c>
       <c r="F9" t="n">
         <v>284.52</v>
@@ -717,10 +717,10 @@
         <v>297.91</v>
       </c>
       <c r="D10" t="n">
-        <v>290.0157142857143</v>
+        <v>290.02</v>
       </c>
       <c r="E10" t="n">
-        <v>272.7257142857143</v>
+        <v>272.73</v>
       </c>
       <c r="F10" t="n">
         <v>268.51</v>
@@ -764,7 +764,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>480.6633333333333</v>
+        <v>480.66</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
         <v>289.02</v>
       </c>
       <c r="D13" t="n">
-        <v>290.3085714285714</v>
+        <v>290.31</v>
       </c>
       <c r="E13" t="n">
-        <v>293.4985714285714</v>
+        <v>293.5</v>
       </c>
       <c r="F13" t="n">
         <v>277.75</v>
@@ -809,10 +809,10 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>264.9371428571428</v>
+        <v>264.94</v>
       </c>
       <c r="E14" t="n">
-        <v>263.4571428571429</v>
+        <v>263.46</v>
       </c>
       <c r="F14" t="n">
         <v>259.56</v>
@@ -837,10 +837,10 @@
         <v>278.99</v>
       </c>
       <c r="D15" t="n">
-        <v>276.0442857142857</v>
+        <v>276.04</v>
       </c>
       <c r="E15" t="n">
-        <v>271.6242857142857</v>
+        <v>271.62</v>
       </c>
       <c r="F15" t="n">
         <v>271</v>
@@ -865,14 +865,14 @@
         <v>274.35</v>
       </c>
       <c r="D16" t="n">
-        <v>274.1614285714285</v>
+        <v>274.16</v>
       </c>
       <c r="E16" t="n">
-        <v>267.9114285714285</v>
+        <v>267.91</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>507.0033333333333</v>
+        <v>507</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>280.18</v>
       </c>
       <c r="G17" t="n">
-        <v>512.8666666666667</v>
+        <v>512.87</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         <v>281.59</v>
       </c>
       <c r="D18" t="n">
-        <v>273.1842857142857</v>
+        <v>273.18</v>
       </c>
       <c r="E18" t="n">
-        <v>272.9342857142857</v>
+        <v>272.93</v>
       </c>
       <c r="F18" t="n">
         <v>278.44</v>
@@ -951,16 +951,16 @@
         <v>299.37</v>
       </c>
       <c r="D19" t="n">
-        <v>294.0785714285714</v>
+        <v>294.08</v>
       </c>
       <c r="E19" t="n">
-        <v>292.4385714285714</v>
+        <v>292.44</v>
       </c>
       <c r="F19" t="n">
         <v>280.92</v>
       </c>
       <c r="G19" t="n">
-        <v>527.3266666666666</v>
+        <v>527.33</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -981,10 +981,10 @@
         <v>301</v>
       </c>
       <c r="D20" t="n">
-        <v>297.0971428571428</v>
+        <v>297.1</v>
       </c>
       <c r="E20" t="n">
-        <v>282.5671428571428</v>
+        <v>282.57</v>
       </c>
       <c r="F20" t="n">
         <v>274.12</v>
@@ -1009,10 +1009,10 @@
         <v>297.72</v>
       </c>
       <c r="D21" t="n">
-        <v>295.9528571428572</v>
+        <v>295.95</v>
       </c>
       <c r="E21" t="n">
-        <v>290.6628571428571</v>
+        <v>290.66</v>
       </c>
       <c r="F21" t="n">
         <v>283.36</v>
@@ -1037,7 +1037,7 @@
         <v>285.92</v>
       </c>
       <c r="D22" t="n">
-        <v>273.8842857142857</v>
+        <v>273.88</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
@@ -1063,10 +1063,10 @@
         <v>266.85</v>
       </c>
       <c r="D23" t="n">
-        <v>259.4242857142857</v>
+        <v>259.42</v>
       </c>
       <c r="E23" t="n">
-        <v>264.0642857142857</v>
+        <v>264.06</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1089,16 +1089,16 @@
         <v>276.57</v>
       </c>
       <c r="D24" t="n">
-        <v>280.7414285714286</v>
+        <v>280.74</v>
       </c>
       <c r="E24" t="n">
-        <v>274.2914285714286</v>
+        <v>274.29</v>
       </c>
       <c r="F24" t="n">
         <v>285.04</v>
       </c>
       <c r="G24" t="n">
-        <v>516.2966666666666</v>
+        <v>516.3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         <v>277.27</v>
       </c>
       <c r="D25" t="n">
-        <v>270.9171428571428</v>
+        <v>270.92</v>
       </c>
       <c r="E25" t="n">
-        <v>273.3071428571428</v>
+        <v>273.31</v>
       </c>
       <c r="F25" t="n">
         <v>263.41</v>
@@ -1147,10 +1147,10 @@
         <v>285.28</v>
       </c>
       <c r="D26" t="n">
-        <v>277.3928571428572</v>
+        <v>277.39</v>
       </c>
       <c r="E26" t="n">
-        <v>271.0328571428572</v>
+        <v>271.03</v>
       </c>
       <c r="F26" t="n">
         <v>282.72</v>
@@ -1175,10 +1175,10 @@
         <v>294.8</v>
       </c>
       <c r="D27" t="n">
-        <v>294.7085714285714</v>
+        <v>294.71</v>
       </c>
       <c r="E27" t="n">
-        <v>295.5785714285714</v>
+        <v>295.58</v>
       </c>
       <c r="F27" t="n">
         <v>296.77</v>
@@ -1205,10 +1205,10 @@
         <v>289.95</v>
       </c>
       <c r="D28" t="n">
-        <v>287.9542857142857</v>
+        <v>287.95</v>
       </c>
       <c r="E28" t="n">
-        <v>289.7642857142857</v>
+        <v>289.76</v>
       </c>
       <c r="F28" t="n">
         <v>278.06</v>
@@ -1235,10 +1235,10 @@
         <v>292.94</v>
       </c>
       <c r="D29" t="n">
-        <v>288.5971428571428</v>
+        <v>288.6</v>
       </c>
       <c r="E29" t="n">
-        <v>278.0171428571429</v>
+        <v>278.02</v>
       </c>
       <c r="F29" t="n">
         <v>285.33</v>
@@ -1265,16 +1265,16 @@
         <v>298.07</v>
       </c>
       <c r="D30" t="n">
-        <v>282.7985714285714</v>
+        <v>282.8</v>
       </c>
       <c r="E30" t="n">
-        <v>285.3485714285715</v>
+        <v>285.35</v>
       </c>
       <c r="F30" t="n">
         <v>272.63</v>
       </c>
       <c r="G30" t="n">
-        <v>532.0966666666666</v>
+        <v>532.1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1323,16 +1323,16 @@
         <v>303.61</v>
       </c>
       <c r="D32" t="n">
-        <v>293.4128571428571</v>
+        <v>293.41</v>
       </c>
       <c r="E32" t="n">
-        <v>277.6728571428571</v>
+        <v>277.67</v>
       </c>
       <c r="F32" t="n">
         <v>273.15</v>
       </c>
       <c r="G32" t="n">
-        <v>527.5466666666666</v>
+        <v>527.55</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1353,16 +1353,16 @@
         <v>300.56</v>
       </c>
       <c r="D33" t="n">
-        <v>287.7557142857143</v>
+        <v>287.76</v>
       </c>
       <c r="E33" t="n">
-        <v>279.9757142857143</v>
+        <v>279.98</v>
       </c>
       <c r="F33" t="n">
         <v>272.46</v>
       </c>
       <c r="G33" t="n">
-        <v>530.8466666666666</v>
+        <v>530.85</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1383,10 +1383,10 @@
         <v>299.53</v>
       </c>
       <c r="D34" t="n">
-        <v>281.9514285714285</v>
+        <v>281.95</v>
       </c>
       <c r="E34" t="n">
-        <v>268.2514285714286</v>
+        <v>268.25</v>
       </c>
       <c r="F34" t="n">
         <v>273.73</v>
@@ -1413,10 +1413,10 @@
         <v>300.01</v>
       </c>
       <c r="D35" t="n">
-        <v>283.4757142857143</v>
+        <v>283.48</v>
       </c>
       <c r="E35" t="n">
-        <v>278.1357142857143</v>
+        <v>278.14</v>
       </c>
       <c r="F35" t="n">
         <v>271.98</v>
@@ -1462,7 +1462,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>521.6033333333334</v>
+        <v>521.6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1483,16 +1483,16 @@
         <v>265.51</v>
       </c>
       <c r="D38" t="n">
-        <v>244.3728571428572</v>
+        <v>244.37</v>
       </c>
       <c r="E38" t="n">
-        <v>239.0828571428572</v>
+        <v>239.08</v>
       </c>
       <c r="F38" t="n">
         <v>251.24</v>
       </c>
       <c r="G38" t="n">
-        <v>505.9233333333333</v>
+        <v>505.92</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>540.6233333333333</v>
+        <v>540.62</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
         <v>267.05</v>
       </c>
       <c r="D40" t="n">
-        <v>259.1528571428572</v>
+        <v>259.15</v>
       </c>
       <c r="E40" t="n">
-        <v>253.8028571428572</v>
+        <v>253.8</v>
       </c>
       <c r="F40" t="n">
         <v>253.41</v>
@@ -1561,16 +1561,16 @@
         <v>295.28</v>
       </c>
       <c r="D41" t="n">
-        <v>290.7985714285714</v>
+        <v>290.8</v>
       </c>
       <c r="E41" t="n">
-        <v>282.1285714285714</v>
+        <v>282.13</v>
       </c>
       <c r="F41" t="n">
         <v>273.83</v>
       </c>
       <c r="G41" t="n">
-        <v>556.9266666666666</v>
+        <v>556.9299999999999</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
         <v>294.72</v>
       </c>
       <c r="D42" t="n">
-        <v>288.8685714285714</v>
+        <v>288.87</v>
       </c>
       <c r="E42" t="n">
-        <v>281.7385714285714</v>
+        <v>281.74</v>
       </c>
       <c r="F42" t="n">
         <v>291.34</v>
@@ -1619,10 +1619,10 @@
         <v>260.82</v>
       </c>
       <c r="D43" t="n">
-        <v>250.6042857142857</v>
+        <v>250.6</v>
       </c>
       <c r="E43" t="n">
-        <v>252.1342857142857</v>
+        <v>252.13</v>
       </c>
       <c r="F43" t="n">
         <v>244.23</v>
@@ -1647,10 +1647,10 @@
         <v>264.95</v>
       </c>
       <c r="D44" t="n">
-        <v>252.2028571428572</v>
+        <v>252.2</v>
       </c>
       <c r="E44" t="n">
-        <v>257.7628571428572</v>
+        <v>257.76</v>
       </c>
       <c r="F44" t="n">
         <v>271.77</v>
@@ -1675,16 +1675,16 @@
         <v>283.36</v>
       </c>
       <c r="D45" t="n">
-        <v>283.0057142857143</v>
+        <v>283.01</v>
       </c>
       <c r="E45" t="n">
-        <v>283.9957142857143</v>
+        <v>284</v>
       </c>
       <c r="F45" t="n">
         <v>268.44</v>
       </c>
       <c r="G45" t="n">
-        <v>538.1066666666667</v>
+        <v>538.11</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>256.9685714285715</v>
+        <v>256.97</v>
       </c>
       <c r="F46" t="n">
         <v>264.99</v>
@@ -1729,16 +1729,16 @@
         <v>288.16</v>
       </c>
       <c r="D47" t="n">
-        <v>273.6585714285715</v>
+        <v>273.66</v>
       </c>
       <c r="E47" t="n">
-        <v>258.1385714285714</v>
+        <v>258.14</v>
       </c>
       <c r="F47" t="n">
         <v>256.84</v>
       </c>
       <c r="G47" t="n">
-        <v>266.2633333333333</v>
+        <v>266.26</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1759,16 +1759,16 @@
         <v>293</v>
       </c>
       <c r="D48" t="n">
-        <v>271.2057142857143</v>
+        <v>271.21</v>
       </c>
       <c r="E48" t="n">
-        <v>257.0457142857143</v>
+        <v>257.05</v>
       </c>
       <c r="F48" t="n">
         <v>263.33</v>
       </c>
       <c r="G48" t="n">
-        <v>290.2266666666667</v>
+        <v>290.23</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         <v>289.41</v>
       </c>
       <c r="D49" t="n">
-        <v>279.4385714285714</v>
+        <v>279.44</v>
       </c>
       <c r="E49" t="n">
-        <v>274.6785714285714</v>
+        <v>274.68</v>
       </c>
       <c r="F49" t="n">
         <v>273.78</v>
@@ -1819,7 +1819,7 @@
         <v>297.92</v>
       </c>
       <c r="D50" t="n">
-        <v>277.7557142857143</v>
+        <v>277.76</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
@@ -1865,16 +1865,16 @@
         <v>275.17</v>
       </c>
       <c r="D52" t="n">
-        <v>260.7171428571428</v>
+        <v>260.72</v>
       </c>
       <c r="E52" t="n">
-        <v>262.0471428571428</v>
+        <v>262.05</v>
       </c>
       <c r="F52" t="n">
         <v>264.5</v>
       </c>
       <c r="G52" t="n">
-        <v>288.4166666666667</v>
+        <v>288.42</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -1893,10 +1893,10 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>257.6157142857143</v>
+        <v>257.62</v>
       </c>
       <c r="E53" t="n">
-        <v>257.4557142857143</v>
+        <v>257.46</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1919,10 +1919,10 @@
         <v>283.07</v>
       </c>
       <c r="D54" t="n">
-        <v>274.0971428571428</v>
+        <v>274.1</v>
       </c>
       <c r="E54" t="n">
-        <v>259.7271428571428</v>
+        <v>259.73</v>
       </c>
       <c r="F54" t="n">
         <v>272.18</v>
@@ -1967,16 +1967,16 @@
         <v>282.18</v>
       </c>
       <c r="D56" t="n">
-        <v>267.1642857142857</v>
+        <v>267.16</v>
       </c>
       <c r="E56" t="n">
-        <v>267.1642857142857</v>
+        <v>267.16</v>
       </c>
       <c r="F56" t="n">
         <v>279.35</v>
       </c>
       <c r="G56" t="n">
-        <v>287.6066666666667</v>
+        <v>287.61</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         <v>285.63</v>
       </c>
       <c r="D58" t="n">
-        <v>276.8371428571429</v>
+        <v>276.84</v>
       </c>
       <c r="E58" t="n">
-        <v>271.6171428571428</v>
+        <v>271.62</v>
       </c>
       <c r="F58" t="n">
         <v>277.89</v>
       </c>
       <c r="G58" t="n">
-        <v>309.4466666666667</v>
+        <v>309.45</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2047,16 +2047,16 @@
         <v>286.4</v>
       </c>
       <c r="D59" t="n">
-        <v>275.1057142857143</v>
+        <v>275.11</v>
       </c>
       <c r="E59" t="n">
-        <v>262.3457142857143</v>
+        <v>262.35</v>
       </c>
       <c r="F59" t="n">
         <v>269.63</v>
       </c>
       <c r="G59" t="n">
-        <v>298.1633333333333</v>
+        <v>298.16</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>285.45</v>
       </c>
       <c r="D60" t="n">
-        <v>280.2057142857143</v>
+        <v>280.21</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
         <v>257.7</v>
       </c>
       <c r="G61" t="n">
-        <v>250.2633333333333</v>
+        <v>250.26</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>275.1157142857143</v>
+        <v>275.12</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -2141,16 +2141,16 @@
         <v>278.87</v>
       </c>
       <c r="D63" t="n">
-        <v>276.8685714285714</v>
+        <v>276.87</v>
       </c>
       <c r="E63" t="n">
-        <v>275.0485714285714</v>
+        <v>275.05</v>
       </c>
       <c r="F63" t="n">
         <v>270.39</v>
       </c>
       <c r="G63" t="n">
-        <v>270.6733333333333</v>
+        <v>270.67</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2171,16 +2171,16 @@
         <v>292.38</v>
       </c>
       <c r="D64" t="n">
-        <v>286.0442857142857</v>
+        <v>286.04</v>
       </c>
       <c r="E64" t="n">
-        <v>286.8842857142857</v>
+        <v>286.88</v>
       </c>
       <c r="F64" t="n">
         <v>273.66</v>
       </c>
       <c r="G64" t="n">
-        <v>273.5333333333333</v>
+        <v>273.53</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2201,10 +2201,10 @@
         <v>282.8</v>
       </c>
       <c r="D65" t="n">
-        <v>280.7314285714286</v>
+        <v>280.73</v>
       </c>
       <c r="E65" t="n">
-        <v>270.1214285714286</v>
+        <v>270.12</v>
       </c>
       <c r="F65" t="n">
         <v>264.45</v>
@@ -2231,10 +2231,10 @@
         <v>282.22</v>
       </c>
       <c r="D66" t="n">
-        <v>270.2871428571428</v>
+        <v>270.29</v>
       </c>
       <c r="E66" t="n">
-        <v>265.9271428571428</v>
+        <v>265.93</v>
       </c>
       <c r="F66" t="n">
         <v>266.34</v>
@@ -2259,16 +2259,16 @@
         <v>297.26</v>
       </c>
       <c r="D67" t="n">
-        <v>298.8614285714286</v>
+        <v>298.86</v>
       </c>
       <c r="E67" t="n">
-        <v>291.5014285714286</v>
+        <v>291.5</v>
       </c>
       <c r="F67" t="n">
         <v>283.21</v>
       </c>
       <c r="G67" t="n">
-        <v>290.9633333333333</v>
+        <v>290.96</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>286.41</v>
       </c>
       <c r="D68" t="n">
-        <v>286.7828571428572</v>
+        <v>286.78</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -2341,10 +2341,10 @@
         <v>287.37</v>
       </c>
       <c r="D70" t="n">
-        <v>282.1757142857143</v>
+        <v>282.18</v>
       </c>
       <c r="E70" t="n">
-        <v>273.6057142857143</v>
+        <v>273.61</v>
       </c>
       <c r="F70" t="n">
         <v>273.47</v>
@@ -2446,7 +2446,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>257.9914285714286</v>
+        <v>257.99</v>
       </c>
       <c r="F74" t="n">
         <v>292.85</v>
@@ -2468,13 +2468,13 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>259.0457142857143</v>
+        <v>259.05</v>
       </c>
       <c r="F75" t="n">
         <v>263.42</v>
       </c>
       <c r="G75" t="n">
-        <v>261.3633333333333</v>
+        <v>261.36</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2495,16 +2495,16 @@
         <v>303.84</v>
       </c>
       <c r="D76" t="n">
-        <v>295.4342857142857</v>
+        <v>295.43</v>
       </c>
       <c r="E76" t="n">
-        <v>285.4542857142857</v>
+        <v>285.45</v>
       </c>
       <c r="F76" t="n">
         <v>287.74</v>
       </c>
       <c r="G76" t="n">
-        <v>255.2366666666667</v>
+        <v>255.24</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>263.88</v>
       </c>
       <c r="G77" t="n">
-        <v>278.8933333333333</v>
+        <v>278.89</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         <v>276.55</v>
       </c>
       <c r="D79" t="n">
-        <v>266.4342857142857</v>
+        <v>266.43</v>
       </c>
       <c r="E79" t="n">
-        <v>266.5742857142857</v>
+        <v>266.57</v>
       </c>
       <c r="F79" t="n">
         <v>273.48</v>
@@ -2603,10 +2603,10 @@
         <v>270.86</v>
       </c>
       <c r="D80" t="n">
-        <v>262.2485714285714</v>
+        <v>262.25</v>
       </c>
       <c r="E80" t="n">
-        <v>260.7185714285715</v>
+        <v>260.72</v>
       </c>
       <c r="F80" t="n">
         <v>267.1</v>
@@ -2642,7 +2642,7 @@
         <v>280.09</v>
       </c>
       <c r="G81" t="n">
-        <v>286.9533333333333</v>
+        <v>286.95</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -2663,10 +2663,10 @@
         <v>296.47</v>
       </c>
       <c r="D82" t="n">
-        <v>288.1528571428572</v>
+        <v>288.15</v>
       </c>
       <c r="E82" t="n">
-        <v>290.7128571428572</v>
+        <v>290.71</v>
       </c>
       <c r="F82" t="n">
         <v>285.74</v>
@@ -2691,10 +2691,10 @@
         <v>286.81</v>
       </c>
       <c r="D83" t="n">
-        <v>279.3857142857143</v>
+        <v>279.39</v>
       </c>
       <c r="E83" t="n">
-        <v>281.7857142857143</v>
+        <v>281.79</v>
       </c>
       <c r="F83" t="n">
         <v>277.7</v>
@@ -2719,10 +2719,10 @@
         <v>277.61</v>
       </c>
       <c r="D84" t="n">
-        <v>276.6614285714285</v>
+        <v>276.66</v>
       </c>
       <c r="E84" t="n">
-        <v>298.5014285714286</v>
+        <v>298.5</v>
       </c>
       <c r="F84" t="n">
         <v>314.77</v>
@@ -2749,16 +2749,16 @@
         <v>278.57</v>
       </c>
       <c r="D85" t="n">
-        <v>266.8142857142857</v>
+        <v>266.81</v>
       </c>
       <c r="E85" t="n">
-        <v>282.1042857142857</v>
+        <v>282.1</v>
       </c>
       <c r="F85" t="n">
         <v>311.74</v>
       </c>
       <c r="G85" t="n">
-        <v>520.0466666666666</v>
+        <v>520.05</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -2779,16 +2779,16 @@
         <v>288.84</v>
       </c>
       <c r="D86" t="n">
-        <v>287.8985714285715</v>
+        <v>287.9</v>
       </c>
       <c r="E86" t="n">
-        <v>285.3985714285715</v>
+        <v>285.4</v>
       </c>
       <c r="F86" t="n">
         <v>309.14</v>
       </c>
       <c r="G86" t="n">
-        <v>524.3866666666667</v>
+        <v>524.39</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -2809,10 +2809,10 @@
         <v>306.65</v>
       </c>
       <c r="D87" t="n">
-        <v>295.3971428571429</v>
+        <v>295.4</v>
       </c>
       <c r="E87" t="n">
-        <v>293.3371428571429</v>
+        <v>293.34</v>
       </c>
       <c r="F87" t="n">
         <v>294.33</v>
@@ -2839,10 +2839,10 @@
         <v>310.08</v>
       </c>
       <c r="D88" t="n">
-        <v>293.5571428571428</v>
+        <v>293.56</v>
       </c>
       <c r="E88" t="n">
-        <v>284.1171428571428</v>
+        <v>284.12</v>
       </c>
       <c r="F88" t="n">
         <v>297.74</v>
@@ -2866,7 +2866,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>524.1166666666667</v>
+        <v>524.12</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         <v>294.92</v>
       </c>
       <c r="D90" t="n">
-        <v>286.9485714285714</v>
+        <v>286.95</v>
       </c>
       <c r="E90" t="n">
-        <v>283.5485714285714</v>
+        <v>283.55</v>
       </c>
       <c r="F90" t="n">
         <v>271.28</v>
@@ -2915,10 +2915,10 @@
         <v>291.61</v>
       </c>
       <c r="D91" t="n">
-        <v>281.9671428571428</v>
+        <v>281.97</v>
       </c>
       <c r="E91" t="n">
-        <v>287.8071428571428</v>
+        <v>287.81</v>
       </c>
       <c r="F91" t="n">
         <v>277.83</v>
@@ -2939,16 +2939,16 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>283.3057142857143</v>
+        <v>283.31</v>
       </c>
       <c r="E92" t="n">
-        <v>281.3657142857143</v>
+        <v>281.37</v>
       </c>
       <c r="F92" t="n">
         <v>276.48</v>
       </c>
       <c r="G92" t="n">
-        <v>514.7666666666667</v>
+        <v>514.77</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>292.1271428571428</v>
+        <v>292.13</v>
       </c>
       <c r="F93" t="n">
         <v>281.24</v>
@@ -3035,10 +3035,10 @@
         <v>306.66</v>
       </c>
       <c r="D96" t="n">
-        <v>310.5228571428572</v>
+        <v>310.52</v>
       </c>
       <c r="E96" t="n">
-        <v>309.5328571428572</v>
+        <v>309.53</v>
       </c>
       <c r="F96" t="n">
         <v>309.86</v>
@@ -3085,10 +3085,10 @@
         <v>277.37</v>
       </c>
       <c r="D98" t="n">
-        <v>270.3814285714286</v>
+        <v>270.38</v>
       </c>
       <c r="E98" t="n">
-        <v>272.8314285714285</v>
+        <v>272.83</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -3108,7 +3108,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>292.7657142857143</v>
+        <v>292.77</v>
       </c>
       <c r="F99" t="n">
         <v>284.25</v>
@@ -3157,16 +3157,16 @@
         <v>284.29</v>
       </c>
       <c r="D101" t="n">
-        <v>265.9628571428572</v>
+        <v>265.96</v>
       </c>
       <c r="E101" t="n">
-        <v>268.2328571428571</v>
+        <v>268.23</v>
       </c>
       <c r="F101" t="n">
         <v>278.56</v>
       </c>
       <c r="G101" t="n">
-        <v>509.5433333333334</v>
+        <v>509.54</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3229,16 +3229,16 @@
         <v>297.06</v>
       </c>
       <c r="D104" t="n">
-        <v>285.9985714285714</v>
+        <v>286</v>
       </c>
       <c r="E104" t="n">
-        <v>279.9985714285714</v>
+        <v>280</v>
       </c>
       <c r="F104" t="n">
         <v>279.05</v>
       </c>
       <c r="G104" t="n">
-        <v>541.3066666666666</v>
+        <v>541.3099999999999</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3257,16 +3257,16 @@
         <v>293.65</v>
       </c>
       <c r="D105" t="n">
-        <v>287.8542857142857</v>
+        <v>287.85</v>
       </c>
       <c r="E105" t="n">
-        <v>277.9542857142857</v>
+        <v>277.95</v>
       </c>
       <c r="F105" t="n">
         <v>273.69</v>
       </c>
       <c r="G105" t="n">
-        <v>531.1866666666666</v>
+        <v>531.1900000000001</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3287,10 +3287,10 @@
         <v>297.04</v>
       </c>
       <c r="D106" t="n">
-        <v>288.7714285714285</v>
+        <v>288.77</v>
       </c>
       <c r="E106" t="n">
-        <v>280.5714285714286</v>
+        <v>280.57</v>
       </c>
       <c r="F106" t="n">
         <v>277.15</v>
@@ -3317,10 +3317,10 @@
         <v>300.45</v>
       </c>
       <c r="D107" t="n">
-        <v>286.3528571428571</v>
+        <v>286.35</v>
       </c>
       <c r="E107" t="n">
-        <v>276.3428571428572</v>
+        <v>276.34</v>
       </c>
       <c r="F107" t="n">
         <v>283.88</v>
@@ -3356,7 +3356,7 @@
         <v>266.28</v>
       </c>
       <c r="G108" t="n">
-        <v>273.8533333333333</v>
+        <v>273.85</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3373,16 +3373,16 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>287.4585714285714</v>
+        <v>287.46</v>
       </c>
       <c r="E109" t="n">
-        <v>285.7485714285714</v>
+        <v>285.75</v>
       </c>
       <c r="F109" t="n">
         <v>282.27</v>
       </c>
       <c r="G109" t="n">
-        <v>304.0033333333333</v>
+        <v>304</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3423,16 +3423,16 @@
         <v>266.59</v>
       </c>
       <c r="D111" t="n">
-        <v>258.5585714285714</v>
+        <v>258.56</v>
       </c>
       <c r="E111" t="n">
-        <v>250.6785714285714</v>
+        <v>250.68</v>
       </c>
       <c r="F111" t="n">
         <v>255.42</v>
       </c>
       <c r="G111" t="n">
-        <v>271.9166666666667</v>
+        <v>271.92</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -3495,16 +3495,16 @@
         <v>279.86</v>
       </c>
       <c r="D114" t="n">
-        <v>275.6828571428572</v>
+        <v>275.68</v>
       </c>
       <c r="E114" t="n">
-        <v>267.6628571428571</v>
+        <v>267.66</v>
       </c>
       <c r="F114" t="n">
         <v>276.36</v>
       </c>
       <c r="G114" t="n">
-        <v>511.7166666666666</v>
+        <v>511.72</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>536.7933333333334</v>
+        <v>536.79</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -3573,10 +3573,10 @@
         <v>297.38</v>
       </c>
       <c r="D117" t="n">
-        <v>291.6928571428572</v>
+        <v>291.69</v>
       </c>
       <c r="E117" t="n">
-        <v>286.9728571428572</v>
+        <v>286.97</v>
       </c>
       <c r="F117" t="n">
         <v>294.53</v>
@@ -3601,7 +3601,7 @@
         <v>263.02</v>
       </c>
       <c r="D118" t="n">
-        <v>263.6271428571428</v>
+        <v>263.63</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
@@ -3625,10 +3625,10 @@
         <v>276.44</v>
       </c>
       <c r="D119" t="n">
-        <v>281.3685714285714</v>
+        <v>281.37</v>
       </c>
       <c r="E119" t="n">
-        <v>272.3585714285715</v>
+        <v>272.36</v>
       </c>
       <c r="F119" t="n">
         <v>270.67</v>
@@ -3653,10 +3653,10 @@
         <v>289.22</v>
       </c>
       <c r="D120" t="n">
-        <v>287.9642857142857</v>
+        <v>287.96</v>
       </c>
       <c r="E120" t="n">
-        <v>283.1542857142857</v>
+        <v>283.15</v>
       </c>
       <c r="F120" t="n">
         <v>277.34</v>
@@ -3681,10 +3681,10 @@
         <v>328.4</v>
       </c>
       <c r="D121" t="n">
-        <v>311.7385714285714</v>
+        <v>311.74</v>
       </c>
       <c r="E121" t="n">
-        <v>275.1485714285715</v>
+        <v>275.15</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
@@ -3709,7 +3709,7 @@
         <v>281.5</v>
       </c>
       <c r="D122" t="n">
-        <v>272.5971428571428</v>
+        <v>272.6</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
@@ -3734,7 +3734,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>509.3633333333333</v>
+        <v>509.36</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         <v>289.31</v>
       </c>
       <c r="D127" t="n">
-        <v>278.8071428571428</v>
+        <v>278.81</v>
       </c>
       <c r="E127" t="n">
-        <v>275.5671428571428</v>
+        <v>275.57</v>
       </c>
       <c r="F127" t="n">
         <v>281.2</v>
@@ -3849,16 +3849,16 @@
         <v>298.23</v>
       </c>
       <c r="D128" t="n">
-        <v>277.2042857142857</v>
+        <v>277.2</v>
       </c>
       <c r="E128" t="n">
-        <v>270.3842857142857</v>
+        <v>270.38</v>
       </c>
       <c r="F128" t="n">
         <v>274.13</v>
       </c>
       <c r="G128" t="n">
-        <v>287.2866666666667</v>
+        <v>287.29</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>270.3</v>
       </c>
       <c r="G129" t="n">
-        <v>286.8933333333333</v>
+        <v>286.89</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -3907,16 +3907,16 @@
         <v>288.87</v>
       </c>
       <c r="D130" t="n">
-        <v>266.8628571428572</v>
+        <v>266.86</v>
       </c>
       <c r="E130" t="n">
-        <v>265.5128571428572</v>
+        <v>265.51</v>
       </c>
       <c r="F130" t="n">
         <v>277.02</v>
       </c>
       <c r="G130" t="n">
-        <v>536.5366666666666</v>
+        <v>536.54</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -3937,10 +3937,10 @@
         <v>275.55</v>
       </c>
       <c r="D131" t="n">
-        <v>272.6571428571428</v>
+        <v>272.66</v>
       </c>
       <c r="E131" t="n">
-        <v>267.9671428571428</v>
+        <v>267.97</v>
       </c>
       <c r="F131" t="n">
         <v>267.07</v>
@@ -3967,16 +3967,16 @@
         <v>293.93</v>
       </c>
       <c r="D132" t="n">
-        <v>293.8385714285715</v>
+        <v>293.84</v>
       </c>
       <c r="E132" t="n">
-        <v>286.1085714285715</v>
+        <v>286.11</v>
       </c>
       <c r="F132" t="n">
         <v>270.36</v>
       </c>
       <c r="G132" t="n">
-        <v>535.4866666666667</v>
+        <v>535.49</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -3993,10 +3993,10 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>293.7057142857143</v>
+        <v>293.71</v>
       </c>
       <c r="E133" t="n">
-        <v>281.7257142857143</v>
+        <v>281.73</v>
       </c>
       <c r="F133" t="n">
         <v>269.32</v>
@@ -4019,10 +4019,10 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>279.6957142857143</v>
+        <v>279.7</v>
       </c>
       <c r="E134" t="n">
-        <v>275.9657142857143</v>
+        <v>275.97</v>
       </c>
       <c r="F134" t="n">
         <v>275.13</v>
@@ -4049,16 +4049,16 @@
         <v>282.82</v>
       </c>
       <c r="D135" t="n">
-        <v>278.5228571428572</v>
+        <v>278.52</v>
       </c>
       <c r="E135" t="n">
-        <v>275.4128571428571</v>
+        <v>275.41</v>
       </c>
       <c r="F135" t="n">
         <v>275.34</v>
       </c>
       <c r="G135" t="n">
-        <v>530.5666666666666</v>
+        <v>530.5700000000001</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -4079,16 +4079,16 @@
         <v>296.21</v>
       </c>
       <c r="D136" t="n">
-        <v>295.7585714285714</v>
+        <v>295.76</v>
       </c>
       <c r="E136" t="n">
-        <v>283.0585714285714</v>
+        <v>283.06</v>
       </c>
       <c r="F136" t="n">
         <v>275.4</v>
       </c>
       <c r="G136" t="n">
-        <v>536.1633333333334</v>
+        <v>536.16</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -4109,10 +4109,10 @@
         <v>283.25</v>
       </c>
       <c r="D137" t="n">
-        <v>276.8071428571428</v>
+        <v>276.81</v>
       </c>
       <c r="E137" t="n">
-        <v>273.3671428571428</v>
+        <v>273.37</v>
       </c>
       <c r="F137" t="n">
         <v>261.41</v>
@@ -4167,10 +4167,10 @@
         <v>276.2</v>
       </c>
       <c r="D139" t="n">
-        <v>265.4757142857143</v>
+        <v>265.48</v>
       </c>
       <c r="E139" t="n">
-        <v>274.4757142857143</v>
+        <v>274.48</v>
       </c>
       <c r="F139" t="n">
         <v>272.34</v>
@@ -4195,10 +4195,10 @@
         <v>277.39</v>
       </c>
       <c r="D140" t="n">
-        <v>266.1114285714286</v>
+        <v>266.11</v>
       </c>
       <c r="E140" t="n">
-        <v>264.7114285714285</v>
+        <v>264.71</v>
       </c>
       <c r="F140" t="n">
         <v>294.94</v>
@@ -4223,10 +4223,10 @@
         <v>283.83</v>
       </c>
       <c r="D141" t="n">
-        <v>273.5871428571429</v>
+        <v>273.59</v>
       </c>
       <c r="E141" t="n">
-        <v>264.9471428571428</v>
+        <v>264.95</v>
       </c>
       <c r="F141" t="n">
         <v>273.62</v>
@@ -4253,10 +4253,10 @@
         <v>305.87</v>
       </c>
       <c r="D142" t="n">
-        <v>291.6142857142857</v>
+        <v>291.61</v>
       </c>
       <c r="E142" t="n">
-        <v>283.2642857142857</v>
+        <v>283.26</v>
       </c>
       <c r="F142" t="n">
         <v>283.74</v>
@@ -4283,10 +4283,10 @@
         <v>312.07</v>
       </c>
       <c r="D143" t="n">
-        <v>299.6557142857143</v>
+        <v>299.66</v>
       </c>
       <c r="E143" t="n">
-        <v>293.5357142857143</v>
+        <v>293.54</v>
       </c>
       <c r="F143" t="n">
         <v>285.59</v>
@@ -4313,16 +4313,16 @@
         <v>308.97</v>
       </c>
       <c r="D144" t="n">
-        <v>288.5028571428572</v>
+        <v>288.5</v>
       </c>
       <c r="E144" t="n">
-        <v>293.7228571428572</v>
+        <v>293.72</v>
       </c>
       <c r="F144" t="n">
         <v>287.28</v>
       </c>
       <c r="G144" t="n">
-        <v>297.5133333333333</v>
+        <v>297.51</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -4343,16 +4343,16 @@
         <v>307.66</v>
       </c>
       <c r="D145" t="n">
-        <v>296.7971428571428</v>
+        <v>296.8</v>
       </c>
       <c r="E145" t="n">
-        <v>292.1571428571428</v>
+        <v>292.16</v>
       </c>
       <c r="F145" t="n">
         <v>291.79</v>
       </c>
       <c r="G145" t="n">
-        <v>290.7133333333333</v>
+        <v>290.71</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -4393,10 +4393,10 @@
         <v>269.53</v>
       </c>
       <c r="D147" t="n">
-        <v>272.7314285714286</v>
+        <v>272.73</v>
       </c>
       <c r="E147" t="n">
-        <v>272.6714285714286</v>
+        <v>272.67</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -4419,16 +4419,16 @@
         <v>283.44</v>
       </c>
       <c r="D148" t="n">
-        <v>277.2357142857143</v>
+        <v>277.24</v>
       </c>
       <c r="E148" t="n">
-        <v>265.1457142857143</v>
+        <v>265.15</v>
       </c>
       <c r="F148" t="n">
         <v>272.19</v>
       </c>
       <c r="G148" t="n">
-        <v>292.6266666666667</v>
+        <v>292.63</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>263.77</v>
       </c>
       <c r="G149" t="n">
-        <v>265.8133333333333</v>
+        <v>265.81</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -4479,16 +4479,16 @@
         <v>278.23</v>
       </c>
       <c r="D150" t="n">
-        <v>260.3657142857143</v>
+        <v>260.37</v>
       </c>
       <c r="E150" t="n">
-        <v>261.2157142857143</v>
+        <v>261.22</v>
       </c>
       <c r="F150" t="n">
         <v>255.46</v>
       </c>
       <c r="G150" t="n">
-        <v>268.1033333333333</v>
+        <v>268.1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -4509,10 +4509,10 @@
         <v>284.2</v>
       </c>
       <c r="D151" t="n">
-        <v>278.3014285714286</v>
+        <v>278.3</v>
       </c>
       <c r="E151" t="n">
-        <v>280.7814285714285</v>
+        <v>280.78</v>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
@@ -4535,10 +4535,10 @@
         <v>288.97</v>
       </c>
       <c r="D152" t="n">
-        <v>280.4442857142857</v>
+        <v>280.44</v>
       </c>
       <c r="E152" t="n">
-        <v>270.5042857142857</v>
+        <v>270.5</v>
       </c>
       <c r="F152" t="n">
         <v>264.98</v>
@@ -4563,16 +4563,16 @@
         <v>296.39</v>
       </c>
       <c r="D153" t="n">
-        <v>291.6214285714286</v>
+        <v>291.62</v>
       </c>
       <c r="E153" t="n">
-        <v>286.9014285714285</v>
+        <v>286.9</v>
       </c>
       <c r="F153" t="n">
         <v>279.53</v>
       </c>
       <c r="G153" t="n">
-        <v>279.9133333333333</v>
+        <v>279.91</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -4593,10 +4593,10 @@
         <v>285.01</v>
       </c>
       <c r="D154" t="n">
-        <v>281.7585714285714</v>
+        <v>281.76</v>
       </c>
       <c r="E154" t="n">
-        <v>270.3085714285714</v>
+        <v>270.31</v>
       </c>
       <c r="F154" t="n">
         <v>283.32</v>
@@ -4621,10 +4621,10 @@
         <v>295.04</v>
       </c>
       <c r="D155" t="n">
-        <v>293.3242857142857</v>
+        <v>293.32</v>
       </c>
       <c r="E155" t="n">
-        <v>288.2142857142857</v>
+        <v>288.21</v>
       </c>
       <c r="F155" t="n">
         <v>277.54</v>
@@ -4649,10 +4649,10 @@
         <v>290.08</v>
       </c>
       <c r="D156" t="n">
-        <v>275.1971428571428</v>
+        <v>275.2</v>
       </c>
       <c r="E156" t="n">
-        <v>270.5971428571428</v>
+        <v>270.6</v>
       </c>
       <c r="F156" t="n">
         <v>275.92</v>
@@ -4677,16 +4677,16 @@
         <v>289.66</v>
       </c>
       <c r="D157" t="n">
-        <v>283.6114285714286</v>
+        <v>283.61</v>
       </c>
       <c r="E157" t="n">
-        <v>280.9214285714286</v>
+        <v>280.92</v>
       </c>
       <c r="F157" t="n">
         <v>278.12</v>
       </c>
       <c r="G157" t="n">
-        <v>297.0066666666667</v>
+        <v>297.01</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -4707,10 +4707,10 @@
         <v>295.28</v>
       </c>
       <c r="D158" t="n">
-        <v>301.4285714285714</v>
+        <v>301.43</v>
       </c>
       <c r="E158" t="n">
-        <v>299.6085714285715</v>
+        <v>299.61</v>
       </c>
       <c r="F158" t="n">
         <v>287.12</v>
@@ -4735,16 +4735,16 @@
         <v>294.57</v>
       </c>
       <c r="D159" t="n">
-        <v>285.7428571428572</v>
+        <v>285.74</v>
       </c>
       <c r="E159" t="n">
-        <v>278.3528571428571</v>
+        <v>278.35</v>
       </c>
       <c r="F159" t="n">
         <v>279.42</v>
       </c>
       <c r="G159" t="n">
-        <v>288.7966666666667</v>
+        <v>288.8</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>266.88</v>
       </c>
       <c r="G160" t="n">
-        <v>271.9666666666667</v>
+        <v>271.97</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -4791,16 +4791,16 @@
         <v>291.11</v>
       </c>
       <c r="D161" t="n">
-        <v>274.0757142857143</v>
+        <v>274.08</v>
       </c>
       <c r="E161" t="n">
-        <v>266.5557142857143</v>
+        <v>266.56</v>
       </c>
       <c r="F161" t="n">
         <v>228.56</v>
       </c>
       <c r="G161" t="n">
-        <v>258.3266666666667</v>
+        <v>258.33</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>287.93</v>
       </c>
       <c r="D163" t="n">
-        <v>280.7142857142857</v>
+        <v>280.71</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
@@ -4887,10 +4887,10 @@
         <v>287.35</v>
       </c>
       <c r="D165" t="n">
-        <v>278.5085714285714</v>
+        <v>278.51</v>
       </c>
       <c r="E165" t="n">
-        <v>256.4485714285714</v>
+        <v>256.45</v>
       </c>
       <c r="F165" t="n">
         <v>190.28</v>
@@ -4939,10 +4939,10 @@
         <v>295.11</v>
       </c>
       <c r="D167" t="n">
-        <v>275.0514285714286</v>
+        <v>275.05</v>
       </c>
       <c r="E167" t="n">
-        <v>277.4714285714285</v>
+        <v>277.47</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
@@ -4965,10 +4965,10 @@
         <v>292.49</v>
       </c>
       <c r="D168" t="n">
-        <v>271.3614285714286</v>
+        <v>271.36</v>
       </c>
       <c r="E168" t="n">
-        <v>268.4914285714286</v>
+        <v>268.49</v>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
@@ -4991,16 +4991,16 @@
         <v>299.82</v>
       </c>
       <c r="D169" t="n">
-        <v>275.4028571428572</v>
+        <v>275.4</v>
       </c>
       <c r="E169" t="n">
-        <v>274.8028571428571</v>
+        <v>274.8</v>
       </c>
       <c r="F169" t="n">
         <v>275.39</v>
       </c>
       <c r="G169" t="n">
-        <v>285.2366666666667</v>
+        <v>285.24</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -5021,16 +5021,16 @@
         <v>284.21</v>
       </c>
       <c r="D170" t="n">
-        <v>275.1557142857143</v>
+        <v>275.16</v>
       </c>
       <c r="E170" t="n">
-        <v>272.0957142857143</v>
+        <v>272.1</v>
       </c>
       <c r="F170" t="n">
         <v>266.3</v>
       </c>
       <c r="G170" t="n">
-        <v>315.2266666666667</v>
+        <v>315.23</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         <v>286.42</v>
       </c>
       <c r="D171" t="n">
-        <v>280.9742857142857</v>
+        <v>280.97</v>
       </c>
       <c r="E171" t="n">
-        <v>277.1942857142857</v>
+        <v>277.19</v>
       </c>
       <c r="F171" t="n">
         <v>279.27</v>
@@ -5079,16 +5079,16 @@
         <v>285.01</v>
       </c>
       <c r="D172" t="n">
-        <v>286.0328571428572</v>
+        <v>286.03</v>
       </c>
       <c r="E172" t="n">
-        <v>284.5428571428571</v>
+        <v>284.54</v>
       </c>
       <c r="F172" t="n">
         <v>279.88</v>
       </c>
       <c r="G172" t="n">
-        <v>287.1833333333333</v>
+        <v>287.18</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
         <v>291.59</v>
       </c>
       <c r="D173" t="n">
-        <v>286.9285714285714</v>
+        <v>286.93</v>
       </c>
       <c r="E173" t="n">
-        <v>282.9285714285714</v>
+        <v>282.93</v>
       </c>
       <c r="F173" t="n">
         <v>281.31</v>
@@ -5137,10 +5137,10 @@
         <v>284.67</v>
       </c>
       <c r="D174" t="n">
-        <v>270.7057142857143</v>
+        <v>270.71</v>
       </c>
       <c r="E174" t="n">
-        <v>289.9257142857143</v>
+        <v>289.93</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
@@ -5163,16 +5163,16 @@
         <v>276.91</v>
       </c>
       <c r="D175" t="n">
-        <v>276.8942857142857</v>
+        <v>276.89</v>
       </c>
       <c r="E175" t="n">
-        <v>266.3142857142857</v>
+        <v>266.31</v>
       </c>
       <c r="F175" t="n">
         <v>276.34</v>
       </c>
       <c r="G175" t="n">
-        <v>320.1966666666667</v>
+        <v>320.2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -5193,14 +5193,14 @@
         <v>298.59</v>
       </c>
       <c r="D176" t="n">
-        <v>289.5342857142857</v>
+        <v>289.53</v>
       </c>
       <c r="E176" t="n">
-        <v>288.0842857142857</v>
+        <v>288.08</v>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>349.1633333333333</v>
+        <v>349.16</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>296.2914285714286</v>
+        <v>296.29</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -5261,10 +5261,10 @@
         <v>283.48</v>
       </c>
       <c r="D179" t="n">
-        <v>278.5242857142857</v>
+        <v>278.52</v>
       </c>
       <c r="E179" t="n">
-        <v>277.3342857142857</v>
+        <v>277.33</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
@@ -5287,16 +5287,16 @@
         <v>289.91</v>
       </c>
       <c r="D180" t="n">
-        <v>275.4857142857143</v>
+        <v>275.49</v>
       </c>
       <c r="E180" t="n">
-        <v>278.0857142857143</v>
+        <v>278.09</v>
       </c>
       <c r="F180" t="n">
         <v>246.67</v>
       </c>
       <c r="G180" t="n">
-        <v>265.2533333333333</v>
+        <v>265.25</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -5339,16 +5339,16 @@
         <v>280.68</v>
       </c>
       <c r="D182" t="n">
-        <v>272.0814285714285</v>
+        <v>272.08</v>
       </c>
       <c r="E182" t="n">
-        <v>265.7314285714286</v>
+        <v>265.73</v>
       </c>
       <c r="F182" t="n">
         <v>254.09</v>
       </c>
       <c r="G182" t="n">
-        <v>256.2366666666667</v>
+        <v>256.24</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>260.1</v>
       </c>
       <c r="G183" t="n">
-        <v>271.2833333333333</v>
+        <v>271.28</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -5399,16 +5399,16 @@
         <v>273</v>
       </c>
       <c r="D184" t="n">
-        <v>269.3685714285714</v>
+        <v>269.37</v>
       </c>
       <c r="E184" t="n">
-        <v>262.5585714285714</v>
+        <v>262.56</v>
       </c>
       <c r="F184" t="n">
         <v>258.84</v>
       </c>
       <c r="G184" t="n">
-        <v>264.8833333333333</v>
+        <v>264.88</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -5429,10 +5429,10 @@
         <v>283.4</v>
       </c>
       <c r="D185" t="n">
-        <v>275.7657142857143</v>
+        <v>275.77</v>
       </c>
       <c r="E185" t="n">
-        <v>270.9457142857143</v>
+        <v>270.95</v>
       </c>
       <c r="F185" t="n">
         <v>273.03</v>
@@ -5466,7 +5466,7 @@
         <v>263.18</v>
       </c>
       <c r="G186" t="n">
-        <v>284.0733333333333</v>
+        <v>284.07</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>260.99</v>
       </c>
       <c r="G187" t="n">
-        <v>265.5933333333333</v>
+        <v>265.59</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>294.89</v>
       </c>
       <c r="D188" t="n">
-        <v>281.5285714285715</v>
+        <v>281.53</v>
       </c>
       <c r="E188" t="n">
-        <v>275.2585714285714</v>
+        <v>275.26</v>
       </c>
       <c r="F188" t="n">
         <v>269.11</v>
@@ -5543,10 +5543,10 @@
         <v>290.27</v>
       </c>
       <c r="D189" t="n">
-        <v>275.9528571428572</v>
+        <v>275.95</v>
       </c>
       <c r="E189" t="n">
-        <v>271.3028571428572</v>
+        <v>271.3</v>
       </c>
       <c r="F189" t="n">
         <v>274.52</v>
@@ -5601,16 +5601,16 @@
         <v>298.21</v>
       </c>
       <c r="D191" t="n">
-        <v>296.4614285714285</v>
+        <v>296.46</v>
       </c>
       <c r="E191" t="n">
-        <v>295.0314285714285</v>
+        <v>295.03</v>
       </c>
       <c r="F191" t="n">
         <v>286.25</v>
       </c>
       <c r="G191" t="n">
-        <v>302.0966666666667</v>
+        <v>302.1</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -5631,10 +5631,10 @@
         <v>295.61</v>
       </c>
       <c r="D192" t="n">
-        <v>286.3385714285715</v>
+        <v>286.34</v>
       </c>
       <c r="E192" t="n">
-        <v>286.7785714285715</v>
+        <v>286.78</v>
       </c>
       <c r="F192" t="n">
         <v>282.51</v>
@@ -5659,10 +5659,10 @@
         <v>285.73</v>
       </c>
       <c r="D193" t="n">
-        <v>285.7871428571428</v>
+        <v>285.79</v>
       </c>
       <c r="E193" t="n">
-        <v>302.2371428571428</v>
+        <v>302.24</v>
       </c>
       <c r="F193" t="n">
         <v>300.97</v>
@@ -5687,10 +5687,10 @@
         <v>301.33</v>
       </c>
       <c r="D194" t="n">
-        <v>299.4142857142857</v>
+        <v>299.41</v>
       </c>
       <c r="E194" t="n">
-        <v>299.8642857142857</v>
+        <v>299.86</v>
       </c>
       <c r="F194" t="n">
         <v>290.53</v>
@@ -5715,10 +5715,10 @@
         <v>264.15</v>
       </c>
       <c r="D195" t="n">
-        <v>260.5271428571428</v>
+        <v>260.53</v>
       </c>
       <c r="E195" t="n">
-        <v>262.7071428571429</v>
+        <v>262.71</v>
       </c>
       <c r="F195" t="n">
         <v>267.71</v>
@@ -5787,16 +5787,16 @@
         <v>301.7</v>
       </c>
       <c r="D198" t="n">
-        <v>293.1557142857143</v>
+        <v>293.16</v>
       </c>
       <c r="E198" t="n">
-        <v>282.5657142857143</v>
+        <v>282.57</v>
       </c>
       <c r="F198" t="n">
         <v>276.7</v>
       </c>
       <c r="G198" t="n">
-        <v>289.7966666666667</v>
+        <v>289.8</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -5817,10 +5817,10 @@
         <v>299.51</v>
       </c>
       <c r="D199" t="n">
-        <v>290.0314285714285</v>
+        <v>290.03</v>
       </c>
       <c r="E199" t="n">
-        <v>284.4914285714286</v>
+        <v>284.49</v>
       </c>
       <c r="F199" t="n">
         <v>277.19</v>
@@ -5847,16 +5847,16 @@
         <v>272.35</v>
       </c>
       <c r="D200" t="n">
-        <v>268.0457142857143</v>
+        <v>268.05</v>
       </c>
       <c r="E200" t="n">
-        <v>262.6957142857143</v>
+        <v>262.7</v>
       </c>
       <c r="F200" t="n">
         <v>258.61</v>
       </c>
       <c r="G200" t="n">
-        <v>268.6533333333333</v>
+        <v>268.65</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -5899,16 +5899,16 @@
         <v>298.16</v>
       </c>
       <c r="D202" t="n">
-        <v>295.5571428571428</v>
+        <v>295.56</v>
       </c>
       <c r="E202" t="n">
-        <v>285.9171428571428</v>
+        <v>285.92</v>
       </c>
       <c r="F202" t="n">
         <v>271.11</v>
       </c>
       <c r="G202" t="n">
-        <v>279.8633333333333</v>
+        <v>279.86</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>268.98</v>
       </c>
       <c r="D203" t="n">
-        <v>265.2114285714285</v>
+        <v>265.21</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
@@ -5950,7 +5950,7 @@
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
-        <v>269.0685714285714</v>
+        <v>269.07</v>
       </c>
       <c r="F204" t="n">
         <v>254.62</v>
@@ -5977,16 +5977,16 @@
         <v>313.86</v>
       </c>
       <c r="D205" t="n">
-        <v>293.9171428571428</v>
+        <v>293.92</v>
       </c>
       <c r="E205" t="n">
-        <v>280.0871428571429</v>
+        <v>280.09</v>
       </c>
       <c r="F205" t="n">
         <v>268.42</v>
       </c>
       <c r="G205" t="n">
-        <v>272.2333333333333</v>
+        <v>272.23</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -6007,16 +6007,16 @@
         <v>290.39</v>
       </c>
       <c r="D206" t="n">
-        <v>281.3771428571428</v>
+        <v>281.38</v>
       </c>
       <c r="E206" t="n">
-        <v>275.1771428571428</v>
+        <v>275.18</v>
       </c>
       <c r="F206" t="n">
         <v>301.74</v>
       </c>
       <c r="G206" t="n">
-        <v>282.5066666666667</v>
+        <v>282.51</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -6037,16 +6037,16 @@
         <v>306.45</v>
       </c>
       <c r="D207" t="n">
-        <v>293.0057142857143</v>
+        <v>293.01</v>
       </c>
       <c r="E207" t="n">
-        <v>284.0857142857143</v>
+        <v>284.09</v>
       </c>
       <c r="F207" t="n">
         <v>276.63</v>
       </c>
       <c r="G207" t="n">
-        <v>271.9233333333333</v>
+        <v>271.92</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -6095,16 +6095,16 @@
         <v>290.86</v>
       </c>
       <c r="D209" t="n">
-        <v>286.7057142857143</v>
+        <v>286.71</v>
       </c>
       <c r="E209" t="n">
-        <v>278.7957142857143</v>
+        <v>278.8</v>
       </c>
       <c r="F209" t="n">
         <v>266.8</v>
       </c>
       <c r="G209" t="n">
-        <v>258.0966666666667</v>
+        <v>258.1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -6125,10 +6125,10 @@
         <v>294.58</v>
       </c>
       <c r="D210" t="n">
-        <v>292.9028571428572</v>
+        <v>292.9</v>
       </c>
       <c r="E210" t="n">
-        <v>286.3228571428572</v>
+        <v>286.32</v>
       </c>
       <c r="F210" t="n">
         <v>281.03</v>
@@ -6153,10 +6153,10 @@
         <v>295.21</v>
       </c>
       <c r="D211" t="n">
-        <v>284.6728571428571</v>
+        <v>284.67</v>
       </c>
       <c r="E211" t="n">
-        <v>270.5628571428572</v>
+        <v>270.56</v>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
@@ -6179,13 +6179,13 @@
         <v>303.26</v>
       </c>
       <c r="D212" t="n">
-        <v>297.7114285714285</v>
+        <v>297.71</v>
       </c>
       <c r="E212" t="n">
-        <v>293.8014285714286</v>
+        <v>293.8</v>
       </c>
       <c r="F212" t="n">
-        <v>283.5700000000001</v>
+        <v>283.57</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
@@ -6294,7 +6294,7 @@
         <v>280.44</v>
       </c>
       <c r="G216" t="n">
-        <v>302.6133333333333</v>
+        <v>302.61</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -6315,16 +6315,16 @@
         <v>294.18</v>
       </c>
       <c r="D217" t="n">
-        <v>294.3971428571429</v>
+        <v>294.4</v>
       </c>
       <c r="E217" t="n">
-        <v>285.6371428571428</v>
+        <v>285.64</v>
       </c>
       <c r="F217" t="n">
         <v>282.39</v>
       </c>
       <c r="G217" t="n">
-        <v>288.2733333333333</v>
+        <v>288.27</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>302.57</v>
       </c>
       <c r="D218" t="n">
-        <v>281.5957142857143</v>
+        <v>281.6</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
@@ -6369,10 +6369,10 @@
         <v>288.76</v>
       </c>
       <c r="D219" t="n">
-        <v>277.6785714285714</v>
+        <v>277.68</v>
       </c>
       <c r="E219" t="n">
-        <v>277.3285714285714</v>
+        <v>277.33</v>
       </c>
       <c r="F219" t="n">
         <v>279.41</v>
@@ -6419,7 +6419,7 @@
         <v>287.83</v>
       </c>
       <c r="D221" t="n">
-        <v>282.1814285714286</v>
+        <v>282.18</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
@@ -6465,16 +6465,16 @@
         <v>303.32</v>
       </c>
       <c r="D223" t="n">
-        <v>289.9785714285715</v>
+        <v>289.98</v>
       </c>
       <c r="E223" t="n">
-        <v>273.1485714285715</v>
+        <v>273.15</v>
       </c>
       <c r="F223" t="n">
         <v>282.23</v>
       </c>
       <c r="G223" t="n">
-        <v>294.0866666666667</v>
+        <v>294.09</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -6495,10 +6495,10 @@
         <v>284.95</v>
       </c>
       <c r="D224" t="n">
-        <v>274.1028571428571</v>
+        <v>274.1</v>
       </c>
       <c r="E224" t="n">
-        <v>279.6928571428572</v>
+        <v>279.69</v>
       </c>
       <c r="F224" t="n">
         <v>275.46</v>
@@ -6525,7 +6525,7 @@
         <v>286.47</v>
       </c>
       <c r="D225" t="n">
-        <v>273.2685714285714</v>
+        <v>273.27</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
@@ -6551,10 +6551,10 @@
         <v>306.62</v>
       </c>
       <c r="D226" t="n">
-        <v>316.8128571428572</v>
+        <v>316.81</v>
       </c>
       <c r="E226" t="n">
-        <v>316.4028571428572</v>
+        <v>316.4</v>
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
@@ -6577,10 +6577,10 @@
         <v>294.38</v>
       </c>
       <c r="D227" t="n">
-        <v>289.6042857142857</v>
+        <v>289.6</v>
       </c>
       <c r="E227" t="n">
-        <v>286.4342857142857</v>
+        <v>286.43</v>
       </c>
       <c r="F227" t="n">
         <v>284.57</v>
@@ -6607,7 +6607,7 @@
         <v>288.84</v>
       </c>
       <c r="D228" t="n">
-        <v>283.5614285714286</v>
+        <v>283.56</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
@@ -6631,10 +6631,10 @@
         <v>287.52</v>
       </c>
       <c r="D229" t="n">
-        <v>280.9085714285715</v>
+        <v>280.91</v>
       </c>
       <c r="E229" t="n">
-        <v>271.3485714285715</v>
+        <v>271.35</v>
       </c>
       <c r="F229" t="n">
         <v>282.14</v>
@@ -6659,10 +6659,10 @@
         <v>298.41</v>
       </c>
       <c r="D230" t="n">
-        <v>290.2471428571428</v>
+        <v>290.25</v>
       </c>
       <c r="E230" t="n">
-        <v>283.8471428571428</v>
+        <v>283.85</v>
       </c>
       <c r="F230" t="n">
         <v>276</v>
@@ -6687,10 +6687,10 @@
         <v>299.66</v>
       </c>
       <c r="D231" t="n">
-        <v>296.4257142857143</v>
+        <v>296.43</v>
       </c>
       <c r="E231" t="n">
-        <v>285.5757142857143</v>
+        <v>285.58</v>
       </c>
       <c r="F231" t="n">
         <v>280.53</v>
@@ -6717,16 +6717,16 @@
         <v>301.55</v>
       </c>
       <c r="D232" t="n">
-        <v>298.5471428571428</v>
+        <v>298.55</v>
       </c>
       <c r="E232" t="n">
-        <v>284.9571428571429</v>
+        <v>284.96</v>
       </c>
       <c r="F232" t="n">
         <v>284.06</v>
       </c>
       <c r="G232" t="n">
-        <v>291.4533333333333</v>
+        <v>291.45</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -6747,10 +6747,10 @@
         <v>311.92</v>
       </c>
       <c r="D233" t="n">
-        <v>305.5028571428572</v>
+        <v>305.5</v>
       </c>
       <c r="E233" t="n">
-        <v>292.6628571428571</v>
+        <v>292.66</v>
       </c>
       <c r="F233" t="n">
         <v>291.95</v>
@@ -6784,7 +6784,7 @@
         <v>280.18</v>
       </c>
       <c r="G234" t="n">
-        <v>299.2666666666667</v>
+        <v>299.27</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -6825,10 +6825,10 @@
         <v>313.19</v>
       </c>
       <c r="D236" t="n">
-        <v>302.5985714285715</v>
+        <v>302.6</v>
       </c>
       <c r="E236" t="n">
-        <v>299.7685714285714</v>
+        <v>299.77</v>
       </c>
       <c r="F236" t="n">
         <v>293.52</v>
@@ -6855,16 +6855,16 @@
         <v>294.27</v>
       </c>
       <c r="D237" t="n">
-        <v>287.2585714285714</v>
+        <v>287.26</v>
       </c>
       <c r="E237" t="n">
-        <v>283.4585714285714</v>
+        <v>283.46</v>
       </c>
       <c r="F237" t="n">
         <v>276.74</v>
       </c>
       <c r="G237" t="n">
-        <v>297.4366666666667</v>
+        <v>297.44</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -6885,10 +6885,10 @@
         <v>322.5</v>
       </c>
       <c r="D238" t="n">
-        <v>315.5942857142857</v>
+        <v>315.59</v>
       </c>
       <c r="E238" t="n">
-        <v>311.8442857142857</v>
+        <v>311.84</v>
       </c>
       <c r="F238" t="n">
         <v>301.52</v>
@@ -6911,7 +6911,7 @@
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="n">
-        <v>315.3828571428572</v>
+        <v>315.38</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
@@ -6935,16 +6935,16 @@
         <v>316.41</v>
       </c>
       <c r="D240" t="n">
-        <v>298.5671428571428</v>
+        <v>298.57</v>
       </c>
       <c r="E240" t="n">
-        <v>288.9671428571428</v>
+        <v>288.97</v>
       </c>
       <c r="F240" t="n">
         <v>277.5</v>
       </c>
       <c r="G240" t="n">
-        <v>299.6366666666667</v>
+        <v>299.64</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -6965,16 +6965,16 @@
         <v>293.23</v>
       </c>
       <c r="D241" t="n">
-        <v>292.6957142857143</v>
+        <v>292.7</v>
       </c>
       <c r="E241" t="n">
-        <v>278.9457142857143</v>
+        <v>278.95</v>
       </c>
       <c r="F241" t="n">
         <v>273.37</v>
       </c>
       <c r="G241" t="n">
-        <v>273.9733333333333</v>
+        <v>273.97</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -6995,10 +6995,10 @@
         <v>288.1</v>
       </c>
       <c r="D242" t="n">
-        <v>280.3485714285715</v>
+        <v>280.35</v>
       </c>
       <c r="E242" t="n">
-        <v>275.2485714285714</v>
+        <v>275.25</v>
       </c>
       <c r="F242" t="n">
         <v>268.19</v>
@@ -7025,16 +7025,16 @@
         <v>274.64</v>
       </c>
       <c r="D243" t="n">
-        <v>273.2085714285714</v>
+        <v>273.21</v>
       </c>
       <c r="E243" t="n">
-        <v>257.3485714285714</v>
+        <v>257.35</v>
       </c>
       <c r="F243" t="n">
         <v>250.2</v>
       </c>
       <c r="G243" t="n">
-        <v>281.0233333333333</v>
+        <v>281.02</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -7055,13 +7055,13 @@
         <v>288.76</v>
       </c>
       <c r="D244" t="n">
-        <v>281.6542857142857</v>
+        <v>281.65</v>
       </c>
       <c r="E244" t="n">
-        <v>285.8342857142857</v>
+        <v>285.83</v>
       </c>
       <c r="F244" t="n">
-        <v>281.5700000000001</v>
+        <v>281.57</v>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr">
@@ -7113,10 +7113,10 @@
         <v>302.18</v>
       </c>
       <c r="D246" t="n">
-        <v>294.7671428571429</v>
+        <v>294.77</v>
       </c>
       <c r="E246" t="n">
-        <v>294.0071428571428</v>
+        <v>294.01</v>
       </c>
       <c r="F246" t="n">
         <v>302.67</v>
@@ -7139,10 +7139,10 @@
         <v>305.26</v>
       </c>
       <c r="D247" t="n">
-        <v>296.6328571428572</v>
+        <v>296.63</v>
       </c>
       <c r="E247" t="n">
-        <v>292.4128571428571</v>
+        <v>292.41</v>
       </c>
       <c r="F247" t="n">
         <v>297.46</v>
@@ -7163,10 +7163,10 @@
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="n">
-        <v>306.0271428571428</v>
+        <v>306.03</v>
       </c>
       <c r="E248" t="n">
-        <v>298.6771428571428</v>
+        <v>298.68</v>
       </c>
       <c r="F248" t="n">
         <v>310.5</v>
@@ -7191,16 +7191,16 @@
         <v>304.57</v>
       </c>
       <c r="D249" t="n">
-        <v>294.7057142857143</v>
+        <v>294.71</v>
       </c>
       <c r="E249" t="n">
-        <v>291.0657142857143</v>
+        <v>291.07</v>
       </c>
       <c r="F249" t="n">
         <v>286.01</v>
       </c>
       <c r="G249" t="n">
-        <v>286.2033333333333</v>
+        <v>286.2</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -7241,16 +7241,16 @@
         <v>297.74</v>
       </c>
       <c r="D251" t="n">
-        <v>291.9614285714285</v>
+        <v>291.96</v>
       </c>
       <c r="E251" t="n">
-        <v>290.8414285714285</v>
+        <v>290.84</v>
       </c>
       <c r="F251" t="n">
         <v>279.5</v>
       </c>
       <c r="G251" t="n">
-        <v>280.7066666666667</v>
+        <v>280.71</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -7297,16 +7297,16 @@
         <v>304.17</v>
       </c>
       <c r="D253" t="n">
-        <v>297.7442857142857</v>
+        <v>297.74</v>
       </c>
       <c r="E253" t="n">
-        <v>290.1842857142857</v>
+        <v>290.18</v>
       </c>
       <c r="F253" t="n">
         <v>285.64</v>
       </c>
       <c r="G253" t="n">
-        <v>260.4733333333333</v>
+        <v>260.47</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>308.49</v>
       </c>
       <c r="D254" t="n">
-        <v>290.6185714285714</v>
+        <v>290.62</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
@@ -7351,16 +7351,16 @@
         <v>299.27</v>
       </c>
       <c r="D255" t="n">
-        <v>295.2842857142857</v>
+        <v>295.28</v>
       </c>
       <c r="E255" t="n">
-        <v>290.2242857142857</v>
+        <v>290.22</v>
       </c>
       <c r="F255" t="n">
         <v>288.71</v>
       </c>
       <c r="G255" t="n">
-        <v>290.9433333333333</v>
+        <v>290.94</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -7381,10 +7381,10 @@
         <v>296.14</v>
       </c>
       <c r="D256" t="n">
-        <v>285.4671428571428</v>
+        <v>285.47</v>
       </c>
       <c r="E256" t="n">
-        <v>284.3271428571429</v>
+        <v>284.33</v>
       </c>
       <c r="F256" t="n">
         <v>284.47</v>
@@ -7411,7 +7411,7 @@
         <v>296.52</v>
       </c>
       <c r="D257" t="n">
-        <v>285.6042857142857</v>
+        <v>285.6</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
@@ -7435,16 +7435,16 @@
         <v>295.38</v>
       </c>
       <c r="D258" t="n">
-        <v>276.5685714285714</v>
+        <v>276.57</v>
       </c>
       <c r="E258" t="n">
-        <v>270.4185714285715</v>
+        <v>270.42</v>
       </c>
       <c r="F258" t="n">
         <v>270.25</v>
       </c>
       <c r="G258" t="n">
-        <v>293.7066666666667</v>
+        <v>293.71</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -7465,10 +7465,10 @@
         <v>307.35</v>
       </c>
       <c r="D259" t="n">
-        <v>295.2571428571428</v>
+        <v>295.26</v>
       </c>
       <c r="E259" t="n">
-        <v>289.9171428571428</v>
+        <v>289.92</v>
       </c>
       <c r="F259" t="n">
         <v>282.51</v>
@@ -7513,10 +7513,10 @@
         <v>286.69</v>
       </c>
       <c r="D261" t="n">
-        <v>272.4942857142857</v>
+        <v>272.49</v>
       </c>
       <c r="E261" t="n">
-        <v>270.9942857142857</v>
+        <v>270.99</v>
       </c>
       <c r="F261" t="n">
         <v>277.21</v>
@@ -7565,10 +7565,10 @@
         <v>289.19</v>
       </c>
       <c r="D263" t="n">
-        <v>273.8942857142857</v>
+        <v>273.89</v>
       </c>
       <c r="E263" t="n">
-        <v>265.0942857142857</v>
+        <v>265.09</v>
       </c>
       <c r="F263" t="n">
         <v>281.49</v>
@@ -7593,10 +7593,10 @@
         <v>292.18</v>
       </c>
       <c r="D264" t="n">
-        <v>282.5957142857143</v>
+        <v>282.6</v>
       </c>
       <c r="E264" t="n">
-        <v>271.0157142857143</v>
+        <v>271.02</v>
       </c>
       <c r="F264" t="n">
         <v>281.33</v>
@@ -7621,16 +7621,16 @@
         <v>284.78</v>
       </c>
       <c r="D265" t="n">
-        <v>275.8128571428572</v>
+        <v>275.81</v>
       </c>
       <c r="E265" t="n">
-        <v>272.8128571428572</v>
+        <v>272.81</v>
       </c>
       <c r="F265" t="n">
         <v>276.53</v>
       </c>
       <c r="G265" t="n">
-        <v>288.1366666666667</v>
+        <v>288.14</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
@@ -7651,16 +7651,16 @@
         <v>284.24</v>
       </c>
       <c r="D266" t="n">
-        <v>275.4114285714285</v>
+        <v>275.41</v>
       </c>
       <c r="E266" t="n">
-        <v>274.9814285714286</v>
+        <v>274.98</v>
       </c>
       <c r="F266" t="n">
         <v>276.64</v>
       </c>
       <c r="G266" t="n">
-        <v>294.4566666666667</v>
+        <v>294.46</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -7681,10 +7681,10 @@
         <v>287.79</v>
       </c>
       <c r="D267" t="n">
-        <v>276.7528571428572</v>
+        <v>276.75</v>
       </c>
       <c r="E267" t="n">
-        <v>271.9028571428572</v>
+        <v>271.9</v>
       </c>
       <c r="F267" t="n">
         <v>272.75</v>
@@ -7711,16 +7711,16 @@
         <v>294.34</v>
       </c>
       <c r="D268" t="n">
-        <v>285.6842857142857</v>
+        <v>285.68</v>
       </c>
       <c r="E268" t="n">
-        <v>282.1642857142857</v>
+        <v>282.16</v>
       </c>
       <c r="F268" t="n">
         <v>275.33</v>
       </c>
       <c r="G268" t="n">
-        <v>292.0666666666667</v>
+        <v>292.07</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -7763,10 +7763,10 @@
         <v>298.97</v>
       </c>
       <c r="D270" t="n">
-        <v>289.7314285714286</v>
+        <v>289.73</v>
       </c>
       <c r="E270" t="n">
-        <v>275.4614285714285</v>
+        <v>275.46</v>
       </c>
       <c r="F270" t="n">
         <v>248.57</v>
@@ -7790,7 +7790,7 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>280.3333333333333</v>
+        <v>280.33</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -7811,16 +7811,16 @@
         <v>269.78</v>
       </c>
       <c r="D272" t="n">
-        <v>261.6685714285715</v>
+        <v>261.67</v>
       </c>
       <c r="E272" t="n">
-        <v>258.3785714285714</v>
+        <v>258.38</v>
       </c>
       <c r="F272" t="n">
         <v>267.13</v>
       </c>
       <c r="G272" t="n">
-        <v>272.7066666666667</v>
+        <v>272.71</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
@@ -7841,16 +7841,16 @@
         <v>275.57</v>
       </c>
       <c r="D273" t="n">
-        <v>266.5471428571428</v>
+        <v>266.55</v>
       </c>
       <c r="E273" t="n">
-        <v>257.0671428571429</v>
+        <v>257.07</v>
       </c>
       <c r="F273" t="n">
         <v>259.16</v>
       </c>
       <c r="G273" t="n">
-        <v>269.9033333333333</v>
+        <v>269.9</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
@@ -7871,10 +7871,10 @@
         <v>303.49</v>
       </c>
       <c r="D274" t="n">
-        <v>302.3785714285714</v>
+        <v>302.38</v>
       </c>
       <c r="E274" t="n">
-        <v>296.0785714285714</v>
+        <v>296.08</v>
       </c>
       <c r="F274" t="n">
         <v>288.29</v>
@@ -7899,10 +7899,10 @@
         <v>292.98</v>
       </c>
       <c r="D275" t="n">
-        <v>275.7271428571428</v>
+        <v>275.73</v>
       </c>
       <c r="E275" t="n">
-        <v>270.2371428571428</v>
+        <v>270.24</v>
       </c>
       <c r="F275" t="n">
         <v>276.94</v>
@@ -7987,16 +7987,16 @@
         <v>298.46</v>
       </c>
       <c r="D278" t="n">
-        <v>297.1942857142857</v>
+        <v>297.19</v>
       </c>
       <c r="E278" t="n">
-        <v>292.2742857142857</v>
+        <v>292.27</v>
       </c>
       <c r="F278" t="n">
         <v>299.86</v>
       </c>
       <c r="G278" t="n">
-        <v>528.0233333333334</v>
+        <v>528.02</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -8017,16 +8017,16 @@
         <v>295.94</v>
       </c>
       <c r="D279" t="n">
-        <v>293.4771428571428</v>
+        <v>293.48</v>
       </c>
       <c r="E279" t="n">
-        <v>288.0971428571428</v>
+        <v>288.1</v>
       </c>
       <c r="F279" t="n">
         <v>291.55</v>
       </c>
       <c r="G279" t="n">
-        <v>521.3233333333334</v>
+        <v>521.3200000000001</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -8047,16 +8047,16 @@
         <v>279.41</v>
       </c>
       <c r="D280" t="n">
-        <v>276.1157142857143</v>
+        <v>276.12</v>
       </c>
       <c r="E280" t="n">
-        <v>281.1557142857143</v>
+        <v>281.16</v>
       </c>
       <c r="F280" t="n">
         <v>284.19</v>
       </c>
       <c r="G280" t="n">
-        <v>516.1333333333333</v>
+        <v>516.13</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -8129,10 +8129,10 @@
         <v>280.26</v>
       </c>
       <c r="D283" t="n">
-        <v>273.7828571428572</v>
+        <v>273.78</v>
       </c>
       <c r="E283" t="n">
-        <v>272.0228571428572</v>
+        <v>272.02</v>
       </c>
       <c r="F283" t="n">
         <v>280.77</v>
@@ -8160,7 +8160,7 @@
         <v>283.43</v>
       </c>
       <c r="G284" t="n">
-        <v>299.9466666666667</v>
+        <v>299.95</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>278.14</v>
       </c>
       <c r="G285" t="n">
-        <v>303.5233333333333</v>
+        <v>303.52</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
@@ -8211,10 +8211,10 @@
         <v>295.79</v>
       </c>
       <c r="D286" t="n">
-        <v>299.5785714285714</v>
+        <v>299.58</v>
       </c>
       <c r="E286" t="n">
-        <v>324.1485714285715</v>
+        <v>324.15</v>
       </c>
       <c r="F286" t="n">
         <v>311.77</v>
@@ -8241,16 +8241,16 @@
         <v>297.11</v>
       </c>
       <c r="D287" t="n">
-        <v>292.8457142857143</v>
+        <v>292.85</v>
       </c>
       <c r="E287" t="n">
-        <v>288.4757142857143</v>
+        <v>288.48</v>
       </c>
       <c r="F287" t="n">
         <v>286.23</v>
       </c>
       <c r="G287" t="n">
-        <v>304.8266666666667</v>
+        <v>304.83</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>277.12</v>
       </c>
       <c r="G288" t="n">
-        <v>282.3633333333333</v>
+        <v>282.36</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
@@ -8301,10 +8301,10 @@
         <v>301.04</v>
       </c>
       <c r="D289" t="n">
-        <v>295.3842857142857</v>
+        <v>295.38</v>
       </c>
       <c r="E289" t="n">
-        <v>277.8542857142857</v>
+        <v>277.85</v>
       </c>
       <c r="F289" t="n">
         <v>261.09</v>
@@ -8329,7 +8329,7 @@
         <v>305.36</v>
       </c>
       <c r="D290" t="n">
-        <v>298.0357142857143</v>
+        <v>298.04</v>
       </c>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
@@ -8397,10 +8397,10 @@
         <v>295.71</v>
       </c>
       <c r="D293" t="n">
-        <v>292.3385714285715</v>
+        <v>292.34</v>
       </c>
       <c r="E293" t="n">
-        <v>283.6985714285714</v>
+        <v>283.7</v>
       </c>
       <c r="F293" t="n">
         <v>271.6</v>
@@ -8427,16 +8427,16 @@
         <v>307.57</v>
       </c>
       <c r="D294" t="n">
-        <v>299.0414285714286</v>
+        <v>299.04</v>
       </c>
       <c r="E294" t="n">
-        <v>292.7514285714286</v>
+        <v>292.75</v>
       </c>
       <c r="F294" t="n">
         <v>284.11</v>
       </c>
       <c r="G294" t="n">
-        <v>293.5366666666667</v>
+        <v>293.54</v>
       </c>
       <c r="H294" t="inlineStr">
         <is>
@@ -8457,16 +8457,16 @@
         <v>288.77</v>
       </c>
       <c r="D295" t="n">
-        <v>279.1714285714286</v>
+        <v>279.17</v>
       </c>
       <c r="E295" t="n">
-        <v>274.9314285714286</v>
+        <v>274.93</v>
       </c>
       <c r="F295" t="n">
         <v>273.79</v>
       </c>
       <c r="G295" t="n">
-        <v>281.6466666666667</v>
+        <v>281.65</v>
       </c>
       <c r="H295" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="n">
-        <v>253.9857142857143</v>
+        <v>253.99</v>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
@@ -8507,16 +8507,16 @@
         <v>280.31</v>
       </c>
       <c r="D297" t="n">
-        <v>264.2114285714285</v>
+        <v>264.21</v>
       </c>
       <c r="E297" t="n">
-        <v>253.7114285714286</v>
+        <v>253.71</v>
       </c>
       <c r="F297" t="n">
         <v>261.23</v>
       </c>
       <c r="G297" t="n">
-        <v>287.4233333333333</v>
+        <v>287.42</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>274.26</v>
       </c>
       <c r="G298" t="n">
-        <v>286.8366666666667</v>
+        <v>286.84</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -8567,10 +8567,10 @@
         <v>286.3</v>
       </c>
       <c r="D299" t="n">
-        <v>280.9428571428572</v>
+        <v>280.94</v>
       </c>
       <c r="E299" t="n">
-        <v>279.1928571428572</v>
+        <v>279.19</v>
       </c>
       <c r="F299" t="n">
         <v>279.83</v>
@@ -8595,10 +8595,10 @@
         <v>278.96</v>
       </c>
       <c r="D300" t="n">
-        <v>271.7414285714286</v>
+        <v>271.74</v>
       </c>
       <c r="E300" t="n">
-        <v>267.1014285714285</v>
+        <v>267.1</v>
       </c>
       <c r="F300" t="n">
         <v>264.64</v>
@@ -8622,7 +8622,7 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="n">
-        <v>263.8166666666667</v>
+        <v>263.82</v>
       </c>
       <c r="H301" t="inlineStr">
         <is>
@@ -8643,10 +8643,10 @@
         <v>290.24</v>
       </c>
       <c r="D302" t="n">
-        <v>283.7285714285715</v>
+        <v>283.73</v>
       </c>
       <c r="E302" t="n">
-        <v>280.1485714285715</v>
+        <v>280.15</v>
       </c>
       <c r="F302" t="n">
         <v>278.2</v>
@@ -8671,10 +8671,10 @@
         <v>299.52</v>
       </c>
       <c r="D303" t="n">
-        <v>288.0742857142857</v>
+        <v>288.07</v>
       </c>
       <c r="E303" t="n">
-        <v>290.1342857142857</v>
+        <v>290.13</v>
       </c>
       <c r="F303" t="n">
         <v>290.31</v>
@@ -8699,10 +8699,10 @@
         <v>270.09</v>
       </c>
       <c r="D304" t="n">
-        <v>259.8028571428572</v>
+        <v>259.8</v>
       </c>
       <c r="E304" t="n">
-        <v>259.4928571428572</v>
+        <v>259.49</v>
       </c>
       <c r="F304" t="n">
         <v>304.48</v>
@@ -8727,10 +8727,10 @@
         <v>293.53</v>
       </c>
       <c r="D305" t="n">
-        <v>285.0571428571428</v>
+        <v>285.06</v>
       </c>
       <c r="E305" t="n">
-        <v>284.2671428571429</v>
+        <v>284.27</v>
       </c>
       <c r="F305" t="n">
         <v>294.98</v>
@@ -8755,10 +8755,10 @@
         <v>274.6</v>
       </c>
       <c r="D306" t="n">
-        <v>254.5642857142857</v>
+        <v>254.56</v>
       </c>
       <c r="E306" t="n">
-        <v>263.6242857142857</v>
+        <v>263.62</v>
       </c>
       <c r="F306" t="n">
         <v>270.59</v>
@@ -8783,10 +8783,10 @@
         <v>288.06</v>
       </c>
       <c r="D307" t="n">
-        <v>286.0857142857143</v>
+        <v>286.09</v>
       </c>
       <c r="E307" t="n">
-        <v>294.2557142857143</v>
+        <v>294.26</v>
       </c>
       <c r="F307" t="n">
         <v>298.66</v>
@@ -8811,10 +8811,10 @@
         <v>271.45</v>
       </c>
       <c r="D308" t="n">
-        <v>265.5057142857143</v>
+        <v>265.51</v>
       </c>
       <c r="E308" t="n">
-        <v>264.7557142857143</v>
+        <v>264.76</v>
       </c>
       <c r="F308" t="n">
         <v>281.59</v>
@@ -8839,10 +8839,10 @@
         <v>265.55</v>
       </c>
       <c r="D309" t="n">
-        <v>256.1957142857143</v>
+        <v>256.2</v>
       </c>
       <c r="E309" t="n">
-        <v>252.9957142857142</v>
+        <v>253</v>
       </c>
       <c r="F309" t="n">
         <v>258.22</v>
@@ -8869,10 +8869,10 @@
         <v>280.2</v>
       </c>
       <c r="D310" t="n">
-        <v>274.9642857142857</v>
+        <v>274.96</v>
       </c>
       <c r="E310" t="n">
-        <v>272.1242857142857</v>
+        <v>272.12</v>
       </c>
       <c r="F310" t="n">
         <v>315.14</v>
@@ -8897,16 +8897,16 @@
         <v>286.96</v>
       </c>
       <c r="D311" t="n">
-        <v>278.6028571428571</v>
+        <v>278.6</v>
       </c>
       <c r="E311" t="n">
-        <v>279.0228571428572</v>
+        <v>279.02</v>
       </c>
       <c r="F311" t="n">
         <v>289.41</v>
       </c>
       <c r="G311" t="n">
-        <v>292.9133333333333</v>
+        <v>292.91</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>282.47</v>
       </c>
       <c r="G312" t="n">
-        <v>297.6466666666667</v>
+        <v>297.65</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
@@ -8957,16 +8957,16 @@
         <v>281.38</v>
       </c>
       <c r="D313" t="n">
-        <v>273.1471428571429</v>
+        <v>273.15</v>
       </c>
       <c r="E313" t="n">
-        <v>265.9171428571428</v>
+        <v>265.92</v>
       </c>
       <c r="F313" t="n">
         <v>290.76</v>
       </c>
       <c r="G313" t="n">
-        <v>312.5133333333333</v>
+        <v>312.51</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
@@ -9049,16 +9049,16 @@
         <v>292.07</v>
       </c>
       <c r="D317" t="n">
-        <v>281.3614285714286</v>
+        <v>281.36</v>
       </c>
       <c r="E317" t="n">
-        <v>270.3814285714286</v>
+        <v>270.38</v>
       </c>
       <c r="F317" t="n">
         <v>273.21</v>
       </c>
       <c r="G317" t="n">
-        <v>248.2433333333333</v>
+        <v>248.24</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -9079,16 +9079,16 @@
         <v>290.71</v>
       </c>
       <c r="D318" t="n">
-        <v>274.1628571428571</v>
+        <v>274.16</v>
       </c>
       <c r="E318" t="n">
-        <v>266.5228571428572</v>
+        <v>266.52</v>
       </c>
       <c r="F318" t="n">
         <v>267.17</v>
       </c>
       <c r="G318" t="n">
-        <v>280.8366666666667</v>
+        <v>280.84</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>272.65</v>
       </c>
       <c r="G319" t="n">
-        <v>286.8266666666667</v>
+        <v>286.83</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
@@ -9139,16 +9139,16 @@
         <v>298.13</v>
       </c>
       <c r="D320" t="n">
-        <v>276.8042857142857</v>
+        <v>276.8</v>
       </c>
       <c r="E320" t="n">
-        <v>277.8442857142857</v>
+        <v>277.84</v>
       </c>
       <c r="F320" t="n">
         <v>267.17</v>
       </c>
       <c r="G320" t="n">
-        <v>279.1066666666667</v>
+        <v>279.11</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
@@ -9167,16 +9167,16 @@
         <v>264.74</v>
       </c>
       <c r="D321" t="n">
-        <v>260.4671428571428</v>
+        <v>260.47</v>
       </c>
       <c r="E321" t="n">
-        <v>266.8071428571428</v>
+        <v>266.81</v>
       </c>
       <c r="F321" t="n">
         <v>270.1</v>
       </c>
       <c r="G321" t="n">
-        <v>265.5466666666667</v>
+        <v>265.55</v>
       </c>
       <c r="H321" t="inlineStr">
         <is>
@@ -9197,10 +9197,10 @@
         <v>270.67</v>
       </c>
       <c r="D322" t="n">
-        <v>268.9442857142857</v>
+        <v>268.94</v>
       </c>
       <c r="E322" t="n">
-        <v>276.6042857142857</v>
+        <v>276.6</v>
       </c>
       <c r="F322" t="n">
         <v>275.4</v>
@@ -9225,16 +9225,16 @@
         <v>272.64</v>
       </c>
       <c r="D323" t="n">
-        <v>284.4042857142857</v>
+        <v>284.4</v>
       </c>
       <c r="E323" t="n">
-        <v>269.4542857142857</v>
+        <v>269.45</v>
       </c>
       <c r="F323" t="n">
         <v>258.52</v>
       </c>
       <c r="G323" t="n">
-        <v>263.2533333333333</v>
+        <v>263.25</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
@@ -9255,10 +9255,10 @@
         <v>303.01</v>
       </c>
       <c r="D324" t="n">
-        <v>291.4428571428572</v>
+        <v>291.44</v>
       </c>
       <c r="E324" t="n">
-        <v>287.5828571428572</v>
+        <v>287.58</v>
       </c>
       <c r="F324" t="n">
         <v>276.48</v>
@@ -9285,16 +9285,16 @@
         <v>274.6</v>
       </c>
       <c r="D325" t="n">
-        <v>267.3757142857143</v>
+        <v>267.38</v>
       </c>
       <c r="E325" t="n">
-        <v>269.1357142857143</v>
+        <v>269.14</v>
       </c>
       <c r="F325" t="n">
         <v>264.79</v>
       </c>
       <c r="G325" t="n">
-        <v>499.4833333333333</v>
+        <v>499.48</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
@@ -9315,16 +9315,16 @@
         <v>280.52</v>
       </c>
       <c r="D326" t="n">
-        <v>276.8785714285714</v>
+        <v>276.88</v>
       </c>
       <c r="E326" t="n">
-        <v>277.0585714285714</v>
+        <v>277.06</v>
       </c>
       <c r="F326" t="n">
         <v>269.14</v>
       </c>
       <c r="G326" t="n">
-        <v>519.4633333333334</v>
+        <v>519.46</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>275.77</v>
       </c>
       <c r="G327" t="n">
-        <v>534.9233333333334</v>
+        <v>534.92</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
@@ -9375,16 +9375,16 @@
         <v>279.22</v>
       </c>
       <c r="D328" t="n">
-        <v>279.7228571428572</v>
+        <v>279.72</v>
       </c>
       <c r="E328" t="n">
-        <v>281.7828571428572</v>
+        <v>281.78</v>
       </c>
       <c r="F328" t="n">
         <v>269.42</v>
       </c>
       <c r="G328" t="n">
-        <v>533.2833333333334</v>
+        <v>533.28</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
@@ -9405,16 +9405,16 @@
         <v>267.25</v>
       </c>
       <c r="D329" t="n">
-        <v>273.9942857142857</v>
+        <v>273.99</v>
       </c>
       <c r="E329" t="n">
-        <v>273.1242857142857</v>
+        <v>273.12</v>
       </c>
       <c r="F329" t="n">
         <v>270.35</v>
       </c>
       <c r="G329" t="n">
-        <v>512.8966666666666</v>
+        <v>512.9</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
@@ -9435,10 +9435,10 @@
         <v>291.01</v>
       </c>
       <c r="D330" t="n">
-        <v>284.2557142857143</v>
+        <v>284.26</v>
       </c>
       <c r="E330" t="n">
-        <v>290.2657142857143</v>
+        <v>290.27</v>
       </c>
       <c r="F330" t="n">
         <v>284.4</v>
@@ -9463,16 +9463,16 @@
         <v>290.59</v>
       </c>
       <c r="D331" t="n">
-        <v>277.8642857142857</v>
+        <v>277.86</v>
       </c>
       <c r="E331" t="n">
-        <v>280.0342857142857</v>
+        <v>280.03</v>
       </c>
       <c r="F331" t="n">
         <v>277.91</v>
       </c>
       <c r="G331" t="n">
-        <v>281.6966666666667</v>
+        <v>281.7</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -9493,10 +9493,10 @@
         <v>290.78</v>
       </c>
       <c r="D332" t="n">
-        <v>283.7628571428572</v>
+        <v>283.76</v>
       </c>
       <c r="E332" t="n">
-        <v>278.7828571428572</v>
+        <v>278.78</v>
       </c>
       <c r="F332" t="n">
         <v>289</v>
@@ -9523,16 +9523,16 @@
         <v>287.51</v>
       </c>
       <c r="D333" t="n">
-        <v>280.3771428571428</v>
+        <v>280.38</v>
       </c>
       <c r="E333" t="n">
-        <v>277.9371428571428</v>
+        <v>277.94</v>
       </c>
       <c r="F333" t="n">
         <v>295.38</v>
       </c>
       <c r="G333" t="n">
-        <v>306.1066666666667</v>
+        <v>306.11</v>
       </c>
       <c r="H333" t="inlineStr">
         <is>
@@ -9553,10 +9553,10 @@
         <v>289.03</v>
       </c>
       <c r="D334" t="n">
-        <v>283.3342857142857</v>
+        <v>283.33</v>
       </c>
       <c r="E334" t="n">
-        <v>282.0342857142857</v>
+        <v>282.03</v>
       </c>
       <c r="F334" t="n">
         <v>275.03</v>
@@ -9611,16 +9611,16 @@
         <v>297.43</v>
       </c>
       <c r="D336" t="n">
-        <v>288.5342857142857</v>
+        <v>288.53</v>
       </c>
       <c r="E336" t="n">
-        <v>283.3442857142857</v>
+        <v>283.34</v>
       </c>
       <c r="F336" t="n">
         <v>291.36</v>
       </c>
       <c r="G336" t="n">
-        <v>325.8833333333333</v>
+        <v>325.88</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
@@ -9641,16 +9641,16 @@
         <v>306.67</v>
       </c>
       <c r="D337" t="n">
-        <v>297.5157142857143</v>
+        <v>297.52</v>
       </c>
       <c r="E337" t="n">
-        <v>298.8557142857143</v>
+        <v>298.86</v>
       </c>
       <c r="F337" t="n">
         <v>292.49</v>
       </c>
       <c r="G337" t="n">
-        <v>304.5433333333333</v>
+        <v>304.54</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
@@ -9671,10 +9671,10 @@
         <v>279.14</v>
       </c>
       <c r="D338" t="n">
-        <v>273.6171428571428</v>
+        <v>273.62</v>
       </c>
       <c r="E338" t="n">
-        <v>270.4771428571428</v>
+        <v>270.48</v>
       </c>
       <c r="F338" t="n">
         <v>278.37</v>
@@ -9701,10 +9701,10 @@
         <v>295.04</v>
       </c>
       <c r="D339" t="n">
-        <v>287.5657142857143</v>
+        <v>287.57</v>
       </c>
       <c r="E339" t="n">
-        <v>286.8257142857143</v>
+        <v>286.83</v>
       </c>
       <c r="F339" t="n">
         <v>277.59</v>
@@ -9791,10 +9791,10 @@
         <v>309.34</v>
       </c>
       <c r="D343" t="n">
-        <v>302.4314285714286</v>
+        <v>302.43</v>
       </c>
       <c r="E343" t="n">
-        <v>305.0614285714286</v>
+        <v>305.06</v>
       </c>
       <c r="F343" t="n">
         <v>282.64</v>
@@ -9817,10 +9817,10 @@
         <v>268.32</v>
       </c>
       <c r="D344" t="n">
-        <v>260.5257142857143</v>
+        <v>260.53</v>
       </c>
       <c r="E344" t="n">
-        <v>260.6857142857143</v>
+        <v>260.69</v>
       </c>
       <c r="F344" t="n">
         <v>271.27</v>
@@ -9877,16 +9877,16 @@
         <v>299.42</v>
       </c>
       <c r="D346" t="n">
-        <v>296.2257142857143</v>
+        <v>296.23</v>
       </c>
       <c r="E346" t="n">
-        <v>298.1157142857143</v>
+        <v>298.12</v>
       </c>
       <c r="F346" t="n">
         <v>279.96</v>
       </c>
       <c r="G346" t="n">
-        <v>284.8333333333333</v>
+        <v>284.83</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
@@ -9907,10 +9907,10 @@
         <v>297.71</v>
       </c>
       <c r="D347" t="n">
-        <v>295.8257142857143</v>
+        <v>295.83</v>
       </c>
       <c r="E347" t="n">
-        <v>282.5057142857143</v>
+        <v>282.51</v>
       </c>
       <c r="F347" t="n">
         <v>267.63</v>
@@ -9935,16 +9935,16 @@
         <v>310.31</v>
       </c>
       <c r="D348" t="n">
-        <v>301.1585714285715</v>
+        <v>301.16</v>
       </c>
       <c r="E348" t="n">
-        <v>292.0985714285715</v>
+        <v>292.1</v>
       </c>
       <c r="F348" t="n">
         <v>279.15</v>
       </c>
       <c r="G348" t="n">
-        <v>295.9966666666667</v>
+        <v>296</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
@@ -9965,10 +9965,10 @@
         <v>285.95</v>
       </c>
       <c r="D349" t="n">
-        <v>273.4042857142857</v>
+        <v>273.4</v>
       </c>
       <c r="E349" t="n">
-        <v>254.9042857142857</v>
+        <v>254.9</v>
       </c>
       <c r="F349" t="n">
         <v>271.43</v>
@@ -9995,16 +9995,16 @@
         <v>308.21</v>
       </c>
       <c r="D350" t="n">
-        <v>300.9485714285714</v>
+        <v>300.95</v>
       </c>
       <c r="E350" t="n">
-        <v>282.7285714285715</v>
+        <v>282.73</v>
       </c>
       <c r="F350" t="n">
         <v>290.54</v>
       </c>
       <c r="G350" t="n">
-        <v>298.4766666666667</v>
+        <v>298.48</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
@@ -10025,10 +10025,10 @@
         <v>285.51</v>
       </c>
       <c r="D351" t="n">
-        <v>277.6628571428571</v>
+        <v>277.66</v>
       </c>
       <c r="E351" t="n">
-        <v>271.0928571428572</v>
+        <v>271.09</v>
       </c>
       <c r="F351" t="n">
         <v>276.99</v>
@@ -10051,10 +10051,10 @@
         <v>288.51</v>
       </c>
       <c r="D352" t="n">
-        <v>278.6871428571428</v>
+        <v>278.69</v>
       </c>
       <c r="E352" t="n">
-        <v>271.3571428571428</v>
+        <v>271.36</v>
       </c>
       <c r="F352" t="n">
         <v>270.45</v>
@@ -10079,16 +10079,16 @@
         <v>288.83</v>
       </c>
       <c r="D353" t="n">
-        <v>277.2428571428572</v>
+        <v>277.24</v>
       </c>
       <c r="E353" t="n">
-        <v>267.1828571428572</v>
+        <v>267.18</v>
       </c>
       <c r="F353" t="n">
         <v>273.03</v>
       </c>
       <c r="G353" t="n">
-        <v>293.0866666666667</v>
+        <v>293.09</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
@@ -10109,10 +10109,10 @@
         <v>282.2</v>
       </c>
       <c r="D354" t="n">
-        <v>275.1242857142857</v>
+        <v>275.12</v>
       </c>
       <c r="E354" t="n">
-        <v>270.8342857142857</v>
+        <v>270.83</v>
       </c>
       <c r="F354" t="n">
         <v>284.91</v>
@@ -10167,16 +10167,16 @@
         <v>285.77</v>
       </c>
       <c r="D356" t="n">
-        <v>275.6471428571429</v>
+        <v>275.65</v>
       </c>
       <c r="E356" t="n">
-        <v>270.1771428571428</v>
+        <v>270.18</v>
       </c>
       <c r="F356" t="n">
         <v>280.66</v>
       </c>
       <c r="G356" t="n">
-        <v>322.7166666666667</v>
+        <v>322.72</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
@@ -10197,10 +10197,10 @@
         <v>296.66</v>
       </c>
       <c r="D357" t="n">
-        <v>285.9614285714285</v>
+        <v>285.96</v>
       </c>
       <c r="E357" t="n">
-        <v>281.9214285714286</v>
+        <v>281.92</v>
       </c>
       <c r="F357" t="n">
         <v>281.49</v>
@@ -10253,10 +10253,10 @@
         <v>290.68</v>
       </c>
       <c r="D359" t="n">
-        <v>280.9114285714285</v>
+        <v>280.91</v>
       </c>
       <c r="E359" t="n">
-        <v>280.5614285714286</v>
+        <v>280.56</v>
       </c>
       <c r="F359" t="n">
         <v>283.53</v>
@@ -10290,7 +10290,7 @@
         <v>276.66</v>
       </c>
       <c r="G360" t="n">
-        <v>294.0833333333333</v>
+        <v>294.08</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -10339,14 +10339,14 @@
         <v>314.16</v>
       </c>
       <c r="D362" t="n">
-        <v>318.7971428571428</v>
+        <v>318.8</v>
       </c>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="n">
         <v>324.87</v>
       </c>
       <c r="G362" t="n">
-        <v>303.9533333333333</v>
+        <v>303.95</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -10367,16 +10367,16 @@
         <v>300.49</v>
       </c>
       <c r="D363" t="n">
-        <v>302.6657142857143</v>
+        <v>302.67</v>
       </c>
       <c r="E363" t="n">
-        <v>294.6857142857143</v>
+        <v>294.69</v>
       </c>
       <c r="F363" t="n">
         <v>290.33</v>
       </c>
       <c r="G363" t="n">
-        <v>310.2166666666667</v>
+        <v>310.22</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -10397,16 +10397,16 @@
         <v>296.07</v>
       </c>
       <c r="D364" t="n">
-        <v>287.5585714285714</v>
+        <v>287.56</v>
       </c>
       <c r="E364" t="n">
-        <v>282.0585714285714</v>
+        <v>282.06</v>
       </c>
       <c r="F364" t="n">
         <v>276.37</v>
       </c>
       <c r="G364" t="n">
-        <v>289.9166666666667</v>
+        <v>289.92</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
@@ -10427,16 +10427,16 @@
         <v>303.33</v>
       </c>
       <c r="D365" t="n">
-        <v>301.4128571428571</v>
+        <v>301.41</v>
       </c>
       <c r="E365" t="n">
-        <v>298.8828571428572</v>
+        <v>298.88</v>
       </c>
       <c r="F365" t="n">
         <v>283.57</v>
       </c>
       <c r="G365" t="n">
-        <v>304.8366666666667</v>
+        <v>304.84</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>286.6966666666667</v>
+        <v>286.7</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>296.27</v>
       </c>
       <c r="D367" t="n">
-        <v>290.6714285714286</v>
+        <v>290.67</v>
       </c>
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr"/>
@@ -10545,16 +10545,16 @@
         <v>285.71</v>
       </c>
       <c r="D370" t="n">
-        <v>262.4485714285714</v>
+        <v>262.45</v>
       </c>
       <c r="E370" t="n">
-        <v>259.8085714285714</v>
+        <v>259.81</v>
       </c>
       <c r="F370" t="n">
         <v>281.03</v>
       </c>
       <c r="G370" t="n">
-        <v>286.7266666666667</v>
+        <v>286.73</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3455251712588104</v>
+        <v>0.3455086968945653</v>
       </c>
       <c r="J4" t="n">
         <v>369</v>
@@ -15949,19 +15949,19 @@
         <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04356509607240622</v>
+        <v>0.04356103199148109</v>
       </c>
       <c r="M4" t="n">
-        <v>9.835643770914176</v>
+        <v>9.835780491194557</v>
       </c>
       <c r="N4" t="n">
-        <v>151.7614349062344</v>
+        <v>151.7617658088021</v>
       </c>
       <c r="O4" t="n">
-        <v>12.31914911453849</v>
+        <v>12.31916254494607</v>
       </c>
       <c r="P4" t="n">
-        <v>276.361897875764</v>
+        <v>276.3622878446636</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16018,7 +16018,7 @@
         <v>0.0397</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3325729253172903</v>
+        <v>0.3325517058868523</v>
       </c>
       <c r="J5" t="n">
         <v>369</v>
@@ -16027,19 +16027,19 @@
         <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04154760033299698</v>
+        <v>0.04154268211459733</v>
       </c>
       <c r="M5" t="n">
-        <v>9.730479978834008</v>
+        <v>9.730655250974545</v>
       </c>
       <c r="N5" t="n">
-        <v>149.8752071313134</v>
+        <v>149.8745929687407</v>
       </c>
       <c r="O5" t="n">
-        <v>12.24235300631841</v>
+        <v>12.24232792277436</v>
       </c>
       <c r="P5" t="n">
-        <v>272.4705400554653</v>
+        <v>272.4710156060727</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16096,7 +16096,7 @@
         <v>0.0598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2536754960999345</v>
+        <v>0.2536754960999343</v>
       </c>
       <c r="J6" t="n">
         <v>369</v>
@@ -16108,7 +16108,7 @@
         <v>0.01875586176775546</v>
       </c>
       <c r="M6" t="n">
-        <v>9.787133731738736</v>
+        <v>9.78713373173874</v>
       </c>
       <c r="N6" t="n">
         <v>203.9657875001724</v>
@@ -16174,7 +16174,7 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.180371144318272</v>
+        <v>-7.180368592246077</v>
       </c>
       <c r="J7" t="n">
         <v>369</v>
@@ -16183,19 +16183,19 @@
         <v>207</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2370405391298449</v>
+        <v>0.2370398609941781</v>
       </c>
       <c r="M7" t="n">
-        <v>77.3704953619789</v>
+        <v>77.37066177127471</v>
       </c>
       <c r="N7" t="n">
-        <v>9387.297748288795</v>
+        <v>9387.326274658524</v>
       </c>
       <c r="O7" t="n">
-        <v>96.8880681419998</v>
+        <v>96.88821535490538</v>
       </c>
       <c r="P7" t="n">
-        <v>472.0095734365983</v>
+        <v>472.0096135875581</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-44.81217687644827,167.39409895868187</t>
+          <t>-44.81217690264289,167.39409897903735</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -16365,12 +16365,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-44.815251241230165,167.3934142820803</t>
+          <t>-44.81525125245644,167.3934142908045</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-44.814904373915944,167.394169328703</t>
+          <t>-44.8149043851422,167.39416933742723</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-44.81208058498655,167.39402413213395</t>
+          <t>-44.81208055879191,167.39402411177858</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-44.81236309396953,167.3942436660879</t>
+          <t>-44.81236306777491,167.39424364573233</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -16449,12 +16449,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-44.815321775915045,167.39346909618325</t>
+          <t>-44.81532174223623,167.39346907001064</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-44.81493585229844,167.39419379148708</t>
+          <t>-44.814935818619716,167.39419376531433</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-44.812296952581654,167.3941922682923</t>
+          <t>-44.812296978776274,167.39419228864787</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -16529,12 +16529,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-44.81533504536966,167.39347940819343</t>
+          <t>-44.8153350229171,167.39347939074503</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-44.815005859128924,167.3942481959731</t>
+          <t>-44.81500583667645,167.39424817852455</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -16567,12 +16567,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-44.815151933568565,167.393337108089</t>
+          <t>-44.815151922342295,167.39333709936486</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-44.814818425786875,167.39410253601045</t>
+          <t>-44.81481841456065,167.39410252728624</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -16609,12 +16609,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-44.81507981592889,167.3932810641925</t>
+          <t>-44.815079782250045,167.39328103802015</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-44.81488170813091,167.39415171446737</t>
+          <t>-44.81488167445219,167.39415168829464</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -16664,7 +16664,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-44.812579697067264,167.39441198702542</t>
+          <t>-44.81257972326186,167.39441200738116</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -16691,12 +16691,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-44.8150775145406,167.39327927574539</t>
+          <t>-44.81507750331433,167.39327926702123</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-44.81471846726671,167.39402485572074</t>
+          <t>-44.81471845604045,167.39402484699656</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -16721,12 +16721,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-44.81527689327054,167.39343421684586</t>
+          <t>-44.815276870817996,167.39343419939746</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-44.814954543989415,167.39420831736777</t>
+          <t>-44.81495452153693,167.39420829991926</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -16759,12 +16759,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-44.81518960896469,167.3933663863673</t>
+          <t>-44.815189642643524,167.3933664125398</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-44.814890363564665,167.39415844085295</t>
+          <t>-44.8148903972434,167.39415846702565</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -16797,18 +16797,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-44.81520440520033,167.39337788481913</t>
+          <t>-44.81520441642661,167.39337789354332</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-44.814919540569356,167.39418111515533</t>
+          <t>-44.8149195517956,167.39418112387958</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-44.81237270738956,167.39425113658876</t>
+          <t>-44.81237273358416,167.3942511569444</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -16850,7 +16850,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-44.81232663107591,167.3942153311308</t>
+          <t>-44.81232660488131,167.39421531077522</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -16877,12 +16877,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-44.815212083974764,167.3933838521515</t>
+          <t>-44.81521211765361,167.393383878324</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-44.81488006909932,167.39415044072916</t>
+          <t>-44.81488010277805,167.3941504669019</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -16915,12 +16915,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-44.8150478883743,167.3932562527719</t>
+          <t>-44.81504787714803,167.39325624404773</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-44.81472679714494,167.39403132906835</t>
+          <t>-44.814726785918694,167.39403132034417</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-44.81221299883399,167.39412702887677</t>
+          <t>-44.81221297263937,167.39412700852128</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -16957,12 +16957,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-44.8150241672314,167.39323781870598</t>
+          <t>-44.815024144778825,167.39323780125778</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-44.81480437052573,167.39409161329468</t>
+          <t>-44.81480434807322,167.39409159584622</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -16995,12 +16995,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-44.81503315948698,167.39324480672454</t>
+          <t>-44.81503318193955,167.39324482417277</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-44.81474075137429,167.39404217323826</t>
+          <t>-44.814740773826784,167.39404219068666</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-44.81520658309837,167.39337957730797</t>
+          <t>-44.8152066167772,167.3933796034805</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -17067,12 +17067,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-44.815320215463046,167.3934678835191</t>
+          <t>-44.81532024914188,167.3934679096917</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-44.81494977283719,167.39420460955955</t>
+          <t>-44.81494980651592,167.3942046357323</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -17101,12 +17101,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-44.81515269695567,167.3933377013315</t>
+          <t>-44.815152708181955,167.39333771005565</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-44.81486940416748,167.39414215270855</t>
+          <t>-44.81486941539372,167.39414216143277</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-44.81229967682134,167.3941943852686</t>
+          <t>-44.81229965062674,167.39419436491306</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -17143,12 +17143,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-44.8152299000777,167.3933976974152</t>
+          <t>-44.81522987762515,167.39339767996685</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-44.81487713904967,167.39414816370427</t>
+          <t>-44.81487711659719,167.39414814625582</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -17181,12 +17181,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-44.81517901135682,167.3933581507573</t>
+          <t>-44.81517903380939,167.39335816820562</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-44.81489501122936,167.39416205268725</t>
+          <t>-44.81489503368186,167.39416207013574</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -17219,12 +17219,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-44.81504293758225,167.3932524054337</t>
+          <t>-44.81504292635596,167.39325239670958</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-44.81470212184445,167.39401215330795</t>
+          <t>-44.81470211061819,167.39401214458377</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -17261,12 +17261,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-44.815096015456575,167.39329365311963</t>
+          <t>-44.81509604913544,167.39329367929201</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-44.81474781268554,167.3940476607566</t>
+          <t>-44.81474784636429,167.39404768692916</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -17303,12 +17303,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-44.81509096362893,167.39328972725804</t>
+          <t>-44.815090941176365,167.39328970980978</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-44.814840126120636,167.39411939992593</t>
+          <t>-44.81484010366815,167.3941193824775</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -17345,12 +17345,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-44.81513653111057,167.39332513855317</t>
+          <t>-44.81513651988427,167.393325129829</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-44.81478251302134,167.39407462726035</t>
+          <t>-44.814782501795094,167.39407461853614</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-44.81217551432774,167.39409790019803</t>
+          <t>-44.81217548813312,167.39409787984258</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -17425,12 +17425,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-44.8150531198234,167.3932603182138</t>
+          <t>-44.81505314227599,167.3932603356621</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-44.81484283164582,167.39412150246358</t>
+          <t>-44.8148428540983,167.39412151991203</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -17440,7 +17440,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-44.812211269988964,167.3941256854149</t>
+          <t>-44.81221124379435,167.39412566505942</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -17467,12 +17467,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-44.81509757590999,167.39329486577475</t>
+          <t>-44.81509754223114,167.39329483960233</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-44.81482473493741,167.3941074390203</t>
+          <t>-44.81482470125867,167.3941074128477</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -17482,7 +17482,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-44.812185337312116,167.3941055334961</t>
+          <t>-44.81218531111749,167.3941055131406</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -17509,12 +17509,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-44.815143188295515,167.39333031197427</t>
+          <t>-44.8151431995218,167.39333032069842</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-44.81491686872374,167.39417903878504</t>
+          <t>-44.81491687994998,167.3941790475093</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -17551,12 +17551,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-44.81513120985297,167.39332100330677</t>
+          <t>-44.815131176174134,167.39332097713432</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-44.81483919434225,167.3941186758155</t>
+          <t>-44.81483916066352,167.39411864964285</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -17610,7 +17610,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-44.81225797499504,167.39416197926803</t>
+          <t>-44.812258001189655,167.39416199962355</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -17637,12 +17637,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-44.81543849545019,167.39355980189725</t>
+          <t>-44.81543851790273,167.3935598193457</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-44.8151460860285,167.39435717108654</t>
+          <t>-44.81514610848095,167.39435718853517</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-44.81238119444127,167.39425773180133</t>
+          <t>-44.81238122063588,167.39425775215693</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -17674,7 +17674,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-44.81210850846655,167.394045830994</t>
+          <t>-44.81210853466117,167.39404585134943</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -17701,12 +17701,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-44.81532234845498,167.3934695411176</t>
+          <t>-44.81532237090753,167.39346955856604</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-44.815030410910325,167.39426727595992</t>
+          <t>-44.81503043336281,167.39426729340846</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -17739,12 +17739,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-44.81507366392503,167.3932762833682</t>
+          <t>-44.81507365269874,167.39327627464408</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-44.81480781698362,167.39409429162785</t>
+          <t>-44.81480780575736,167.39409428290364</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-44.81198039048486,167.39394627288158</t>
+          <t>-44.8119803642902,167.39394625252623</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -17781,12 +17781,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-44.81508883063501,167.39328806967225</t>
+          <t>-44.81508881940873,167.39328806094812</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-44.81481088174905,167.39409667333808</t>
+          <t>-44.8148108705228,167.39409666461387</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -17819,12 +17819,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-44.8153895264647,167.39352174680735</t>
+          <t>-44.81538956014351,167.39352177298002</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-44.81504352315471,167.3942774659181</t>
+          <t>-44.81504355683344,167.39427749209094</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -17857,12 +17857,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-44.81537696426808,167.3935119844043</t>
+          <t>-44.81537698672063,167.39351200185274</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-44.81499929177958,167.39424309227556</t>
+          <t>-44.814999314232054,167.3942431097241</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -17895,12 +17895,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-44.815134903299715,167.39332387355154</t>
+          <t>-44.81513486962087,167.3933238473791</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-44.814793144278205,167.39408288908442</t>
+          <t>-44.81479311059947,167.3940828629118</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -17910,7 +17910,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-44.8121282854134,167.39406119933577</t>
+          <t>-44.812128259218774,167.39406117898034</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -17930,7 +17930,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-44.81500553356801,167.39424794296926</t>
+          <t>-44.815005522341785,167.394247934245</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -17967,12 +17967,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-44.815208356850356,167.3933809557268</t>
+          <t>-44.81520834562409,167.39338094700264</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-44.81499633927887,167.3942407977931</t>
+          <t>-44.81499632805263,167.39424078906882</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -17982,7 +17982,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-44.81426452683811,167.3957213043033</t>
+          <t>-44.81426455303251,167.39572132466014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -18009,12 +18009,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-44.81522763236965,167.39339593513165</t>
+          <t>-44.81522759869082,167.39339590895912</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-44.81500492735116,167.39424747185868</t>
+          <t>-44.81500489367246,167.39424744568586</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-44.814076215203194,167.39557495921864</t>
+          <t>-44.81407618900877,167.39557493886187</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -18051,12 +18051,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-44.81516293532369,167.39334565776124</t>
+          <t>-44.81516292409741,167.39334564903712</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-44.81486636185526,167.39413978844215</t>
+          <t>-44.81486635062901,167.3941397797179</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-44.81517615988176,167.39335593482036</t>
+          <t>-44.81517612620291,167.3933559086479</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -18149,12 +18149,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-44.8153100556855,167.39345998811714</t>
+          <t>-44.815310033232954,167.39345997066877</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-44.81496562428844,167.3942169282094</t>
+          <t>-44.81496560183596,167.3942169107609</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-44.814090438774485,167.3955860129328</t>
+          <t>-44.814090412580065,167.39558599257606</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -18187,12 +18187,12 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-44.81533442792466,167.39347892836207</t>
+          <t>-44.81533439424584,167.39347890218943</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-44.81500170542081,167.39424496799333</t>
+          <t>-44.8150016717421,167.39424494182052</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -18221,12 +18221,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-44.81520491038287,167.39337827740675</t>
+          <t>-44.815204887930314,167.3933782599584</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-44.81498385570134,167.39423109640964</t>
+          <t>-44.814983833248874,167.39423107896113</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -18281,12 +18281,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-44.81525939150674,167.39342061583764</t>
+          <t>-44.81525942518557,167.3934206420102</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-44.814925411893846,167.39418567793604</t>
+          <t>-44.814925445572584,167.39418570410876</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-44.81409680401884,167.3955909596243</t>
+          <t>-44.81409677782441,167.3955909392675</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -18345,12 +18345,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-44.81518337837962,167.3933615444564</t>
+          <t>-44.81518335592706,167.3933615270081</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-44.81489041969589,167.39415848447413</t>
+          <t>-44.8148903972434,167.39415846702565</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-44.81392517811371,167.39545758253166</t>
+          <t>-44.81392515191927,167.395457562175</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -18387,12 +18387,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-44.81519698463006,167.39337211814419</t>
+          <t>-44.81519695095123,167.39337209197168</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-44.814963278004285,167.39421510483945</t>
+          <t>-44.814963244325575,167.39421507866666</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-44.8140138462741,167.39552648986324</t>
+          <t>-44.81401387246853,167.39552651021995</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-44.815156906810984,167.39334097288946</t>
+          <t>-44.815156873132146,167.393340946717</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-44.8143902599401,167.39581901748593</t>
+          <t>-44.814390286134476,167.39581903784287</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -18473,7 +18473,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-44.81519690604611,167.39337205707503</t>
+          <t>-44.815196872367274,167.39337203090253</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -18503,12 +18503,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-44.81518313140146,167.39336135252483</t>
+          <t>-44.815183120175185,167.39336134380065</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-44.814863454257946,167.3941375288667</t>
+          <t>-44.81486344303168,167.39413752014252</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -18518,7 +18518,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-44.814229871640556,167.39569437217907</t>
+          <t>-44.81422989783498,167.39569439253592</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -18545,12 +18545,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-44.81511102499722,167.3933053172944</t>
+          <t>-44.81511105867608,167.3933053434668</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-44.81477044480417,167.39406524874127</t>
+          <t>-44.81477047848292,167.39406527491388</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-44.81420739683865,167.39567690601075</t>
+          <t>-44.814207423033054,167.3956769263676</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -18587,12 +18587,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-44.81515277553964,167.39333776240056</t>
+          <t>-44.81515278676592,167.39333777112472</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-44.814902173572364,167.39416761875182</t>
+          <t>-44.81490218479862,167.39416762747607</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -18629,12 +18629,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-44.81523485086599,167.3934015447773</t>
+          <t>-44.81523482841344,167.39340152732893</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-44.814935133819,167.3941932331351</t>
+          <t>-44.81493511136652,167.39419321568658</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -18667,12 +18667,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-44.81501030276677,167.39322704442435</t>
+          <t>-44.815010313993064,167.39322705314845</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-44.81473416156536,167.39403705213732</t>
+          <t>-44.81473417279161,167.3940370608615</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-44.814070426235645,167.39557046037882</t>
+          <t>-44.814070452430066,167.39557048073556</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-44.81510522100892,167.3933008069135</t>
+          <t>-44.81510524346149,167.39330082436175</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -18777,12 +18777,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-44.815141425769326,167.39332894228255</t>
+          <t>-44.81514139209049,167.3933289161101</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-44.814874792764684,167.39414634033966</t>
+          <t>-44.81487475908595,167.394146314167</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -18914,7 +18914,7 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-44.81499749558143,167.39424169639267</t>
+          <t>-44.81499750680766,167.39424170511694</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -18940,7 +18940,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-44.81498921061732,167.3942352578839</t>
+          <t>-44.81498917693862,167.3942352317111</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -18950,7 +18950,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-44.81430303260742,167.3957512289221</t>
+          <t>-44.814303058801826,167.39575124927902</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -18977,12 +18977,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-44.81503723462891,167.39324797358006</t>
+          <t>-44.815037268307776,167.39324799975242</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-44.814781682278976,167.39407398166912</t>
+          <t>-44.81478171595771,167.39407400784174</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-44.81435117790779,167.39578864492796</t>
+          <t>-44.81435115171338,167.395788624571</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-44.8141652762253,167.39564417224793</t>
+          <t>-44.814165302419724,167.39564419260475</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -19083,12 +19083,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-44.81526512813376,167.39342507389654</t>
+          <t>-44.81526516181258,167.39342510006912</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-44.81493004833163,167.3941892810503</t>
+          <t>-44.81493008201036,167.39418930722303</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -19121,12 +19121,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-44.81529802111972,167.39345063577707</t>
+          <t>-44.81529800989345,167.39345062705289</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-44.81497606469131,167.3942250417713</t>
+          <t>-44.81497605346509,167.39422503304704</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-44.814101938125255,167.395594949549</t>
+          <t>-44.814101964319676,167.39559496990577</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -19205,12 +19205,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-44.81509445500317,167.3932924404645</t>
+          <t>-44.81509447745573,167.3932924579128</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-44.81474035845554,167.3940418678915</t>
+          <t>-44.81474038090804,167.3940418853399</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -19243,12 +19243,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-44.81516335069607,167.39334598055507</t>
+          <t>-44.81516331701723,167.3933459543826</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-44.8148105112829,167.39409638543904</t>
+          <t>-44.814810477604155,167.39409635926637</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -19281,12 +19281,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-44.81518475921199,167.39336261752845</t>
+          <t>-44.81518477043828,167.39336262625264</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-44.81467915293193,167.39399430363792</t>
+          <t>-44.8146791641582,167.3939943123621</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -19323,12 +19323,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-44.815262141944366,167.39342275326305</t>
+          <t>-44.8152621756232,167.3934227794356</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-44.81480800782981,167.39409443993947</t>
+          <t>-44.81480804150855,167.3940944661121</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -19338,7 +19338,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-44.812270207880744,167.39417148529495</t>
+          <t>-44.81227018168613,167.39417146493943</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -19365,12 +19365,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-44.81509645328165,167.39329399336097</t>
+          <t>-44.815096442055356,167.39329398463684</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-44.81478212010264,167.39407432191314</t>
+          <t>-44.8147821088764,167.39407431318892</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-44.812236102489095,167.3941449824201</t>
+          <t>-44.81223607629448,167.39414496206462</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -19407,12 +19407,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-44.81503752651234,167.39324820040719</t>
+          <t>-44.81503750405978,167.39324818295896</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-44.814719735833094,167.39402584155388</t>
+          <t>-44.81471971338059,167.3940258241055</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19449,12 +19449,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-44.81505198596858,167.3932594370772</t>
+          <t>-44.815051963516,167.39325941962895</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-44.81479219004715,167.3940821475267</t>
+          <t>-44.81479216759465,167.3940821300783</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -19482,7 +19482,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-44.81223822425323,167.3941466312156</t>
+          <t>-44.81223819805861,167.39414661086008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -19509,12 +19509,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-44.815103918760066,167.39329979491325</t>
+          <t>-44.815103907533796,167.3932997861891</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-44.81479665809374,167.39408561976188</t>
+          <t>-44.81479664686749,167.39408561103767</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -19547,12 +19547,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-44.81514306480641,167.3933302160086</t>
+          <t>-44.81514304235386,167.39333019856028</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-44.814763192647334,167.39405961290743</t>
+          <t>-44.81476317019484,167.39405959545903</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -19577,12 +19577,12 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-44.81513254578052,167.39332204148036</t>
+          <t>-44.815132512101684,167.39332201530794</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-44.81481381179948,167.39409895035797</t>
+          <t>-44.814813778120744,167.39409892418533</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-44.81231170014809,167.3942037284643</t>
+          <t>-44.81231167395348,167.39420370810873</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -19612,7 +19612,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-44.81472924446761,167.39403323094172</t>
+          <t>-44.814729222015096,167.39403321349334</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -19697,12 +19697,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-44.81491866256517,167.39315582960077</t>
+          <t>-44.81491868501775,167.39315584704894</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-44.81459246379118,167.3939269356511</t>
+          <t>-44.81459248624369,167.39392695309945</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -19761,12 +19761,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-44.8152341099317,167.39340096898155</t>
+          <t>-44.81523412115798,167.39340097770574</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-44.81488087738888,167.394151068874</t>
+          <t>-44.81488088861511,167.39415107759825</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -19788,7 +19788,7 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-44.814724226333496,167.3940293312291</t>
+          <t>-44.81472419265475,167.3940293050565</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -19851,12 +19851,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-44.81526883280476,167.39342795287828</t>
+          <t>-44.8152688552573,167.39342797032666</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-44.81491701466489,167.39417915220022</t>
+          <t>-44.814917037117375,167.3941791696487</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-44.81235274710012,167.39423562563323</t>
+          <t>-44.81235277329472,167.3942356459888</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -19941,12 +19941,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-44.81511138423827,167.39330559646694</t>
+          <t>-44.815111373011995,167.3933055877428</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-44.81482455531746,167.39410729943285</t>
+          <t>-44.814824544091216,167.39410729070863</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-44.81210313856679,167.39404165813474</t>
+          <t>-44.81210311237217,167.39404163777934</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -19979,12 +19979,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-44.81509680129643,167.39329426380925</t>
+          <t>-44.81509683497528,167.39329428998164</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-44.814840620075444,167.39411978379172</t>
+          <t>-44.814840653754175,167.39411980996437</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -19994,7 +19994,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-44.812182665460405,167.39410345723877</t>
+          <t>-44.81218263926577,167.39410343688328</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -20021,12 +20021,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-44.815089594022304,167.39328866291348</t>
+          <t>-44.815089605248595,167.3932886716376</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-44.81482005359264,167.3941038010218</t>
+          <t>-44.81482006481889,167.394103809746</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -20063,12 +20063,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-44.81510860012012,167.39330343287983</t>
+          <t>-44.81510862257268,167.3933034503281</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-44.81485328328016,167.39412962471658</t>
+          <t>-44.81485330573264,167.39412964216507</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -20120,7 +20120,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-44.81420488217536,167.39567495175498</t>
+          <t>-44.81420490836977,167.3956749721118</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -20139,12 +20139,12 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-44.81509991097693,167.39329668039554</t>
+          <t>-44.815099899750656,167.3932966716714</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-44.81477936967181,167.3940721844829</t>
+          <t>-44.81477935844557,167.3940721757587</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -20154,7 +20154,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-44.81396795362905,167.39549082495017</t>
+          <t>-44.813967979823495,167.39549084530685</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -20203,12 +20203,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-44.81532701858458,167.3934731703864</t>
+          <t>-44.81532700735831,167.3934731616622</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-44.815054962689274,167.3942863559623</t>
+          <t>-44.81505495146304,167.394286347238</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-44.8142201011267,167.39568677907633</t>
+          <t>-44.81422007493229,167.39568675871948</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -20293,12 +20293,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-44.81519244921333,167.39336859358107</t>
+          <t>-44.81519247166589,167.3933686110294</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-44.81492149393545,167.39418263317404</t>
+          <t>-44.81492151638793,167.39418265062253</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -20308,7 +20308,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-44.812335668216,167.39422235380016</t>
+          <t>-44.81233564202139,167.3942223334446</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -20330,7 +20330,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-44.81213860609762,167.39406921937507</t>
+          <t>-44.812138632292246,167.3940692397305</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -20395,12 +20395,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-44.8150666362708,167.3932708220628</t>
+          <t>-44.815066658723346,167.39327083951108</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-44.81476974877675,167.39406470784076</t>
+          <t>-44.814769771229244,167.39406472528916</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -20433,7 +20433,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-44.81528718776476,167.3934422169294</t>
+          <t>-44.81528716531223,167.393442199481</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -20463,12 +20463,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-44.81514776861828,167.3933338714282</t>
+          <t>-44.815147757392,167.39333386270405</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-44.81488459327554,167.39415395659566</t>
+          <t>-44.81488458204929,167.39415394787142</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -20501,12 +20501,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-44.815095936872595,167.39329359205064</t>
+          <t>-44.815095970551454,167.39329361822305</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>-44.81479975653806,167.39408802764385</t>
+          <t>-44.8147997902168,167.3940880538165</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -20539,12 +20539,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-44.81490910899078,167.39314840540462</t>
+          <t>-44.8149090977645,167.39314839668054</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-44.814862668420815,167.39413691817072</t>
+          <t>-44.814862657194574,167.39413690944647</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -20577,7 +20577,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-44.81521669797508,167.3933874377861</t>
+          <t>-44.815216675522535,167.39338742033775</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -20606,7 +20606,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-44.812354161608866,167.39423672483446</t>
+          <t>-44.81235418780347,167.39423674519006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -20707,12 +20707,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-44.81516789733963,167.39334951383896</t>
+          <t>-44.81516787488706,167.3933494963906</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-44.81485937913113,167.39413436197182</t>
+          <t>-44.814859356678646,167.39413434452337</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -20749,12 +20749,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-44.81518049322575,167.39335930234668</t>
+          <t>-44.81518052690459,167.39335932851915</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-44.814900107943686,167.39416601349168</t>
+          <t>-44.81490014162242,167.3941660396644</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -20764,7 +20764,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-44.81409931868321,167.39559291387303</t>
+          <t>-44.81409929248879,167.39559289351627</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-44.814102409624816,167.3955953159707</t>
+          <t>-44.81410243581924,167.39559533632746</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -20829,12 +20829,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-44.81526176025099,167.39342245664074</t>
+          <t>-44.815261782703544,167.3934224740891</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>-44.814938389428946,167.39419576316766</t>
+          <t>-44.81493841188142,167.39419578061614</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-44.812140623084076,167.3940707867435</t>
+          <t>-44.81214059688945,167.39407076638804</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -20871,12 +20871,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-44.81521622647139,167.39338707137082</t>
+          <t>-44.81521620401885,167.39338705392248</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-44.81491910274592,167.39418077490976</t>
+          <t>-44.814919080293436,167.39418075746127</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -20913,12 +20913,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-44.8150497743903,167.39325771842468</t>
+          <t>-44.81504976316401,167.39325770970058</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>-44.81477654065719,167.39406998598346</t>
+          <t>-44.81477652943096,167.39406997725925</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -20928,7 +20928,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-44.81214887439215,167.39407719870627</t>
+          <t>-44.81214884819752,167.3940771783508</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -20947,12 +20947,12 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-44.81505081843487,167.39325852976825</t>
+          <t>-44.81505078475602,167.3932585035959</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>-44.814810982785275,167.394096751856</t>
+          <t>-44.81481094910653,167.39409672568334</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -20981,12 +20981,12 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-44.8151609145932,167.39334408741306</t>
+          <t>-44.81516088091435,167.3933440612406</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>-44.81485624700883,167.39413192791238</t>
+          <t>-44.81485621333008,167.3941319017397</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -21023,12 +21023,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-44.81517013136939,167.39335124994653</t>
+          <t>-44.815170153821946,167.39335126739485</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>-44.814860591565555,167.39413530418844</t>
+          <t>-44.814860614018045,167.3941353216369</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -21038,7 +21038,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-44.812187537660556,167.3941072433552</t>
+          <t>-44.81218751146594,167.3941072229997</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -21065,12 +21065,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-44.815034686261924,167.3932459932048</t>
+          <t>-44.81503467503563,167.39324598448064</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>-44.814800508696635,167.39408861216597</t>
+          <t>-44.81480049747039,167.39408860344176</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -21080,7 +21080,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-44.81214355688254,167.39407306655227</t>
+          <t>-44.812143583077166,167.3940730869077</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -21107,12 +21107,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-44.81518361413148,167.39336172766383</t>
+          <t>-44.81518359167892,167.3933617102155</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>-44.81487666754743,167.39414779728648</t>
+          <t>-44.81487664509494,167.39414777983802</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -21187,12 +21187,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-44.815272660964716,167.39343092782647</t>
+          <t>-44.81527262728591,167.3934309016539</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>-44.81486795598196,167.3941410272828</t>
+          <t>-44.814867922303236,167.3941410011101</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -21225,12 +21225,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-44.81526766527208,167.39342704556282</t>
+          <t>-44.81526767649836,167.393427054287</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>-44.81494468735015,167.3942006574728</t>
+          <t>-44.81494469857638,167.39420066619707</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -21263,12 +21263,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-44.81520891816428,167.39338139193532</t>
+          <t>-44.81520889571173,167.39338137448698</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>-44.8149428350204,167.3941992179712</t>
+          <t>-44.81494281256791,167.39419920052268</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -21305,12 +21305,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-44.815067253716464,167.3932713018899</t>
+          <t>-44.815067287395316,167.3932713280623</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-44.814798892117,167.39408735587966</t>
+          <t>-44.81479892579575,167.3940873820523</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -21347,12 +21347,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-44.81500406095086,167.3932221938182</t>
+          <t>-44.81500402727199,167.39322216764586</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>-44.81471817538418,167.39402462889188</t>
+          <t>-44.814718141705434,167.39402460271933</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -21389,12 +21389,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-44.81509170456366,167.39329030305103</t>
+          <t>-44.815091727016224,167.39329032049932</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-44.81471670474527,167.39402348602343</t>
+          <t>-44.81471672719777,167.3940235034718</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-44.81401895418783,167.39553045942029</t>
+          <t>-44.81401898038225,167.395530479777</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -21431,12 +21431,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-44.815026524751616,167.39323965077057</t>
+          <t>-44.815026502299034,167.39323963332237</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-44.81472900871634,167.39403304773373</t>
+          <t>-44.81472898626384,167.39403303028536</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -21446,7 +21446,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-44.81407239081741,167.3955719871343</t>
+          <t>-44.814072417011836,167.39557200749104</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -21495,12 +21495,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-44.81521564270495,167.3933866177139</t>
+          <t>-44.81521565393122,167.39338662643806</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-44.81488213472817,167.39415204598825</t>
+          <t>-44.81488214595442,167.3941520547125</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -21529,12 +21529,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-44.8151802462476,167.3933591104151</t>
+          <t>-44.81518021256875,167.39335908424263</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>-44.8149412745729,167.39419800530018</t>
+          <t>-44.81494124089418,167.39419797912745</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-44.814057355217905,167.3955603023681</t>
+          <t>-44.81405732902349,167.3955602820114</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -21586,7 +21586,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-44.81426806308248,167.39572405248097</t>
+          <t>-44.81426808927687,167.39572407283785</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -21613,12 +21613,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-44.81531281734883,167.39346213427035</t>
+          <t>-44.81531278367001,167.39346210809774</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>-44.81497215795997,167.39422200572847</t>
+          <t>-44.81497212428125,167.3942219795557</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -21628,7 +21628,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-44.814250067527254,167.39571006731344</t>
+          <t>-44.814250093721654,167.3957100876703</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -21655,12 +21655,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-44.81517187144281,167.39335260219121</t>
+          <t>-44.81517188266908,167.39335261091537</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>-44.8148184033344,167.39410251856202</t>
+          <t>-44.81481841456065,167.39410252728624</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -21689,12 +21689,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-44.8151550320221,167.39333951595557</t>
+          <t>-44.81515506570096,167.39333954212805</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>-44.81489916493929,167.39416528065559</t>
+          <t>-44.81489919861801,167.39416530682828</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -21727,12 +21727,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-44.81506719758504,167.39327125826927</t>
+          <t>-44.81506720881132,167.3932712669934</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-44.81477031008919,167.39406514405084</t>
+          <t>-44.81477032131544,167.39406515277506</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-44.81415726073464,167.3956379430669</t>
+          <t>-44.81415728692905,167.3956379634237</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -21769,12 +21769,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-44.815144703843494,167.3933314897347</t>
+          <t>-44.81514469261722,167.39333148101053</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-44.81490070293455,167.3941664758764</t>
+          <t>-44.81490069170832,167.39416646715216</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -21807,12 +21807,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-44.81505381585312,167.39326085910957</t>
+          <t>-44.81505384953197,167.39326088528196</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>-44.81475999316632,167.3940571265106</t>
+          <t>-44.81476002684507,167.3940571526832</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -21845,12 +21845,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-44.81519626614821,167.39337155979752</t>
+          <t>-44.81519624369565,167.3933715423492</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-44.81489843523348,167.39416471358004</t>
+          <t>-44.81489841278101,167.39416469613155</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -21883,12 +21883,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-44.81513014335621,167.39332017451275</t>
+          <t>-44.815130154582484,167.39332018323688</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-44.81481730316222,167.39410166358886</t>
+          <t>-44.81481731438847,167.3941016723131</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-44.81402293574102,167.39553355363958</t>
+          <t>-44.81402290954659,167.39553353328284</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -21925,12 +21925,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-44.814990129127374,167.3932113671991</t>
+          <t>-44.81499011790109,167.39321135847496</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-44.81467045258574,167.39398754240284</t>
+          <t>-44.81467044135947,167.39398753367865</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -21963,12 +21963,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-44.81511339374289,167.39330715808842</t>
+          <t>-44.815113416195466,167.39330717553668</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-44.8148374879529,167.39411734973382</t>
+          <t>-44.8148375104054,167.39411736718225</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -21978,7 +21978,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-44.81408745261042,167.3955836922631</t>
+          <t>-44.814087426416,167.39558367190634</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-44.81421970821058,167.3956864737237</t>
+          <t>-44.81421968201618,167.39568645336686</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -22039,12 +22039,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-44.81520507877704,167.39337840826929</t>
+          <t>-44.81520504509821,167.39337838209676</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>-44.814930194272776,167.3941893944655</t>
+          <t>-44.81493016059406,167.39418936829279</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -22054,7 +22054,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-44.81432689570361,167.39576977406225</t>
+          <t>-44.8143268695092,167.39576975370534</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-44.815152910255016,167.3933378670904</t>
+          <t>-44.815152943933846,167.3933378932629</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -22159,12 +22159,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-44.81517024363218,167.3933513371881</t>
+          <t>-44.815170232405904,167.39335132846392</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>-44.81500961991864,167.39425111860382</t>
+          <t>-44.8150096086924,167.39425110987955</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -22227,12 +22227,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-44.81519741122866,167.3933724496625</t>
+          <t>-44.81519742245495,167.3933724583867</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>-44.81484441454643,167.39412273257906</t>
+          <t>-44.81484442577267,167.39412274130328</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -22261,12 +22261,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-44.8152264087054,167.39339498419653</t>
+          <t>-44.81522641993166,167.39339499292072</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-44.814914982715074,167.39417757311205</t>
+          <t>-44.8149149939413,167.39417758183626</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -22295,12 +22295,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-44.815194649564035,167.39337030351754</t>
+          <t>-44.81519467201659,167.3933703209659</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>-44.814865385172,167.39413902943417</t>
+          <t>-44.81486540762449,167.39413904688263</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -22310,7 +22310,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-44.81411542825133,167.39560543328307</t>
+          <t>-44.81411540205691,167.3956054129263</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -22337,12 +22337,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-44.8151965917103,167.39337181279834</t>
+          <t>-44.81519655803146,167.39337178662583</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-44.814886658904356,167.394155561855</t>
+          <t>-44.81488662522561,167.3941555356823</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-44.813879756952105,167.39542228414265</t>
+          <t>-44.81387973075767,167.39542226378603</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -22379,12 +22379,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-44.81515086707187,167.39333627929443</t>
+          <t>-44.81515090075071,167.39333630546687</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-44.81484659243804,167.39412442507847</t>
+          <t>-44.81484662611676,167.39412445125114</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -22417,12 +22417,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-44.815111114807486,167.39330538708754</t>
+          <t>-44.81511113726006,167.39330540453582</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>-44.81478884462528,167.39407954771275</t>
+          <t>-44.81478886707778,167.39407956516118</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -22432,7 +22432,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-44.81410013071025,167.39559354493258</t>
+          <t>-44.814100156904665,167.39559356528932</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -22459,12 +22459,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-44.81510407592803,167.3932999170512</t>
+          <t>-44.81510406470175,167.39329990832707</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-44.81480153028515,167.39408940606916</t>
+          <t>-44.8148015190589,167.39408939734494</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -22497,12 +22497,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-44.81523156156676,167.39339898859333</t>
+          <t>-44.81523152788792,167.3933989624208</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-44.8147465441193,167.39404667492252</t>
+          <t>-44.81474651044054,167.39404664874994</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -22531,12 +22531,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-44.81518292932843,167.3933611954899</t>
+          <t>-44.815182963007274,167.3933612216624</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>-44.814932091507586,167.39419086886352</t>
+          <t>-44.8149321251863,167.39419089503627</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-44.81384070103309,167.39539193245625</t>
+          <t>-44.81384067483864,167.39539191209965</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -22573,18 +22573,18 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-44.81508359918667,167.39328400422548</t>
+          <t>-44.81508363286553,167.3932840303979</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>-44.81476101475499,167.3940579204127</t>
+          <t>-44.81476104843374,167.39405794658532</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-44.81361307117365,167.39521503441026</t>
+          <t>-44.81361309736813,167.39521505476668</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -22603,7 +22603,7 @@
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-44.815030498857084,167.39324273910836</t>
+          <t>-44.815030510083375,167.39324274783246</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -22655,12 +22655,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-44.815170120143094,167.39335124122238</t>
+          <t>-44.815170153821946,167.39335126739485</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>-44.81484549226599,167.3941235701045</t>
+          <t>-44.81484552594472,167.3941235962772</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -22689,12 +22689,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-44.815193998439845,167.39336979751593</t>
+          <t>-44.81519396476101,167.39336977134343</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>-44.81483958726085,167.39411898116327</t>
+          <t>-44.814839553582104,167.3941189549906</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -22704,7 +22704,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-44.81427246374207,167.39572747243588</t>
+          <t>-44.81427248993647,167.39572749279276</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -22757,12 +22757,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-44.81522075066142,167.39339058721256</t>
+          <t>-44.815220761887694,167.39339059593675</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>-44.81493667181405,167.39419442835734</t>
+          <t>-44.81493668304029,167.39419443708158</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -22772,7 +22772,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>-44.81434331958955,167.39578253785</t>
+          <t>-44.81434329339514,167.39578251749307</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -22814,7 +22814,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-44.814225078064105,167.39569064687632</t>
+          <t>-44.814225104258504,167.39569066723317</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -22841,12 +22841,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-44.81524206936215,167.39340715442427</t>
+          <t>-44.81524205813586,167.39340714570008</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>-44.81496160529453,167.39421380492504</t>
+          <t>-44.81496159406828,167.39421379620077</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>-44.814275371320676,167.39572973204918</t>
+          <t>-44.8142753975151,167.39572975240608</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -22883,12 +22883,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-44.81519179808913,167.3933680875795</t>
+          <t>-44.8151917644103,167.39336806140696</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>-44.8148956960302,167.39416258486577</t>
+          <t>-44.814895662351454,167.39416255869307</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-44.81412457010333,167.39561253779678</t>
+          <t>-44.81412459629774,167.39561255815354</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -22978,7 +22978,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>-44.814269791913055,167.3957253960346</t>
+          <t>-44.81426981810745,167.39572541639149</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -23001,12 +23001,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-44.81514651127478,167.39333289432315</t>
+          <t>-44.815146500048506,167.393332885599</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>-44.81486180399998,167.3941362464051</t>
+          <t>-44.81486179277374,167.39413623768087</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -23039,12 +23039,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-44.815190327446565,167.39336694471385</t>
+          <t>-44.815190349899126,167.39336696216216</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>-44.81489288946941,167.3941604038063</t>
+          <t>-44.814892911921895,167.39416042125478</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -23119,12 +23119,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-44.81502916292898,167.39324170093826</t>
+          <t>-44.81502917415527,167.39324170966236</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>-44.814706421498904,167.39401549467001</t>
+          <t>-44.81470643272515,167.3940155033942</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -23134,7 +23134,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-44.81398293684516,167.39550246896832</t>
+          <t>-44.813982910650715,167.39550244861167</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -23161,12 +23161,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-44.81510871238295,167.39330352012124</t>
+          <t>-44.81510870115667,167.39330351139708</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>-44.81477127554658,167.39406589433221</t>
+          <t>-44.81477126432032,167.39406588560803</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -23199,12 +23199,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-44.81511304572814,167.39330688763997</t>
+          <t>-44.815113023275565,167.3933068701917</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>-44.81464979627866,167.39397148992992</t>
+          <t>-44.81464977382615,167.3939714724816</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -23237,12 +23237,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-44.815005958193495,167.39322366819295</t>
+          <t>-44.81500599187235,167.3932236943653</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>-44.81466844308636,167.3939859807759</t>
+          <t>-44.81466847676512,167.3939860069484</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -23275,12 +23275,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-44.81531154877991,167.3934611484357</t>
+          <t>-44.815311526327356,167.3934611309873</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>-44.81496043776555,167.3942128976023</t>
+          <t>-44.814960415313074,167.3942128801538</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -23365,12 +23365,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-44.815055140554804,167.3932618885564</t>
+          <t>-44.81505510687594,167.393261862384</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-44.81480438175196,167.3940916220189</t>
+          <t>-44.81480434807322,167.39409159584622</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -23380,7 +23380,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-44.81407959428374,167.39557758523864</t>
+          <t>-44.81407956808932,167.3955775648819</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -23407,12 +23407,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-44.81507969243977,167.39328096822706</t>
+          <t>-44.815079703666036,167.3932809769512</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>-44.814789248770204,167.39407986178423</t>
+          <t>-44.814789259996445,167.39407987050845</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -23449,12 +23449,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-44.8152524648943,167.3934152330162</t>
+          <t>-44.81525243121548,167.39341520684368</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>-44.81496052757547,167.39421296739636</t>
+          <t>-44.814960493896756,167.3942129412236</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-44.81424574545048,167.39570670843165</t>
+          <t>-44.81424577164488,167.39570672878853</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -23517,12 +23517,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-44.81503626916829,167.3932472233057</t>
+          <t>-44.81503624671572,167.39324720585748</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>-44.814778044974496,167.39407115502678</t>
+          <t>-44.814778022522006,167.39407113757838</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -23532,7 +23532,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-44.81415765365085,167.39563824841886</t>
+          <t>-44.81415767984527,167.39563826877568</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-44.81527473782568,167.39343254180145</t>
+          <t>-44.81527474905196,167.39343255052563</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -23582,7 +23582,7 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>-44.81491044731316,167.39417404851775</t>
+          <t>-44.814910436086926,167.3941740397935</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -23619,12 +23619,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-44.815049156944596,167.39325723859787</t>
+          <t>-44.81504913449203,167.3932572211496</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-44.81482385929019,167.39410675853134</t>
+          <t>-44.8148238368377,167.39410674108294</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-44.814217612657956,167.39568484517653</t>
+          <t>-44.81421763885236,167.39568486553338</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -23661,12 +23661,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-44.8151477012606,167.3933338190833</t>
+          <t>-44.81514767880803,167.39333380163498</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>-44.814862443895926,167.39413674368615</t>
+          <t>-44.814862421443436,167.3941367262377</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -23676,7 +23676,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-44.81413688147941,167.39562210548343</t>
+          <t>-44.814136855284985,167.3956220851266</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -23703,12 +23703,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-44.815056319314756,167.39326280458963</t>
+          <t>-44.8150562856359,167.39326277841724</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-44.8147924370246,167.3940823394593</t>
+          <t>-44.814792403345855,167.39408231328665</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -23718,7 +23718,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>-44.81422004873787,167.39568673836263</t>
+          <t>-44.81422007493229,167.39568675871948</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -23783,12 +23783,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-44.8151058272282,167.39330127801705</t>
+          <t>-44.81510579354936,167.39330125184463</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>-44.81483400781669,167.3941146452253</t>
+          <t>-44.814833974137954,167.39411461905263</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -23798,7 +23798,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-44.81432870311694,167.39577117868924</t>
+          <t>-44.81432867692255,167.39577115833237</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -23825,12 +23825,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-44.815057127607304,167.3932634327267</t>
+          <t>-44.81505715005987,167.39326345017494</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>-44.81477485671991,167.39406867735292</t>
+          <t>-44.814774879172404,167.39406869480132</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -23863,12 +23863,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-44.815121802228525,167.3933136924721</t>
+          <t>-44.8151218246811,167.3933137099204</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>-44.81489870466332,167.39416492296178</t>
+          <t>-44.8148987271158,167.39416494041023</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -23897,12 +23897,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-44.81501933992801,167.39323406733612</t>
+          <t>-44.815019351154305,167.39323407606022</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>-44.81471608730145,167.39402300619318</t>
+          <t>-44.814716098527704,167.39402301491737</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -24052,7 +24052,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-44.813978876708035,167.39549931368313</t>
+          <t>-44.81397890290245,167.3954993340398</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -24079,12 +24079,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-44.81504538491257,167.3932543072924</t>
+          <t>-44.815045362460005,167.39325428984415</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-44.81478024531919,167.39407286497087</t>
+          <t>-44.81478022286669,167.39407284752247</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>-44.81409156513461,167.3955868882732</t>
+          <t>-44.814091591329024,167.39558690862995</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-44.81514598363957,167.393332484288</t>
+          <t>-44.815145949960716,167.39333245811557</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -24151,12 +24151,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-44.81517676610087,167.39335640592506</t>
+          <t>-44.81517675487459,167.3933563972009</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>-44.81484553717097,167.3941236050014</t>
+          <t>-44.81484552594472,167.3941235962772</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -24215,7 +24215,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-44.81514138086421,167.39332890738595</t>
+          <t>-44.81514139209049,167.3933289161101</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -24271,12 +24271,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-44.81508010781229,167.39328129101997</t>
+          <t>-44.81508009658601,167.39328128229585</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>-44.81487838516275,167.39414913209416</t>
+          <t>-44.8148783739365,167.3941491233699</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-44.814045882059474,167.39555138612187</t>
+          <t>-44.81404585586505,167.39555136576516</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -24313,12 +24313,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-44.815204865477746,167.39337824251007</t>
+          <t>-44.815204887930314,167.3933782599584</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>-44.81482695773416,167.39410916641552</t>
+          <t>-44.81482698018666,167.39410918386392</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-44.81521142162435,167.39338333742538</t>
+          <t>-44.81521141039807,167.3933833287012</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -24389,12 +24389,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-44.81486923319809,167.393117417481</t>
+          <t>-44.81486925565068,167.39311743492917</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>-44.814538476715676,167.39388498124922</t>
+          <t>-44.81453849916819,167.39388499869747</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -24423,12 +24423,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-44.815083049098746,167.39328357674293</t>
+          <t>-44.815083082777605,167.39328360291532</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>-44.81477398107253,167.39406799686506</t>
+          <t>-44.81477401475127,167.39406802303768</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -24465,7 +24465,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-44.815130536276065,167.39332047985792</t>
+          <t>-44.815130547502335,167.39332048858205</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -24495,12 +24495,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-44.8151513834808,167.3933366806055</t>
+          <t>-44.81515137225452,167.39333667188134</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>-44.814892530229635,167.3941601246307</t>
+          <t>-44.814892519003365,167.39416011590646</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -24533,12 +24533,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-44.81507799727083,167.39327965088304</t>
+          <t>-44.81507797481826,167.3932796334348</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>-44.81479431180797,167.39408379640216</t>
+          <t>-44.814794289355476,167.39408377895373</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -24571,12 +24571,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-44.81502944358614,167.3932419190412</t>
+          <t>-44.81502940990728,167.39324189286884</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>-44.814780728047864,167.39407324011168</t>
+          <t>-44.81478069436912,167.3940732139391</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -24613,12 +24613,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-44.81501277255,167.3932289637292</t>
+          <t>-44.81501275009742,167.39322894628097</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-44.81478558901333,167.39407701769278</t>
+          <t>-44.81478556656085,167.39407700024435</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -24628,7 +24628,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-44.81406657565534,167.39556746793832</t>
+          <t>-44.81406660184977,167.39556748829506</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -24655,12 +24655,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-44.81495811175084,167.39318648605953</t>
+          <t>-44.814958134203415,167.39318650350776</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>-44.814725034623564,167.39402995937067</t>
+          <t>-44.81472505707607,167.39402997681904</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -24708,7 +24708,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-44.814005175917735,167.39551975179617</t>
+          <t>-44.8140051497233,167.39551973143946</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -24757,12 +24757,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-44.81498093479702,167.39320422215664</t>
+          <t>-44.81498092357073,167.39320421343254</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>-44.814669195245344,167.39398656529548</t>
+          <t>-44.81466918401909,167.3939865565713</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -24799,12 +24799,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-44.8151014826566,167.39329790177496</t>
+          <t>-44.81510147143033,167.39329789305083</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>-44.81479736534733,167.3940861693871</t>
+          <t>-44.81479735412109,167.39408616066288</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-44.814019556659694,167.39553092762446</t>
+          <t>-44.81401953046527,167.39553090726778</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -24841,12 +24841,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-44.8148788092266,167.39312485911546</t>
+          <t>-44.81487884290548,167.39312488528765</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-44.81457429970679,167.39391281997996</t>
+          <t>-44.81457433338558,167.3939128461524</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -24875,7 +24875,7 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-44.81488047071803,167.39312615027853</t>
+          <t>-44.814880493170605,167.39312616772668</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -24905,12 +24905,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-44.81501261538198,167.39322884159162</t>
+          <t>-44.8150125929294,167.3932288241434</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>-44.81475407693288,167.39405252885817</t>
+          <t>-44.81475405448037,167.39405251140977</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-44.81400226833592,167.3955174922031</t>
+          <t>-44.814002242141484,167.3955174718464</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -24947,12 +24947,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-44.81505875541867,167.39326469772504</t>
+          <t>-44.81505872173982,167.39326467155266</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>-44.81483282906087,167.39411372918218</t>
+          <t>-44.81483279538213,167.39411370300954</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -24962,7 +24962,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-44.814203939176615,167.3956742189091</t>
+          <t>-44.81420396537103,167.39567423926593</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -24989,12 +24989,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-44.81515578418291,167.39334010047395</t>
+          <t>-44.81515577295663,167.3933400917498</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-44.81486188258369,167.39413630747472</t>
+          <t>-44.814861871357444,167.39413629875048</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -25031,12 +25031,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-44.81521189312804,167.39338370384056</t>
+          <t>-44.81521188190176,167.39338369511637</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>-44.81500254738867,167.3942456223135</t>
+          <t>-44.81500253616244,167.39424561358925</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-44.8141485379945,167.39563116425416</t>
+          <t>-44.81414856418892,167.39563118461095</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -25073,12 +25073,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-44.815145523362034,167.39333212659778</t>
+          <t>-44.81514555704088,167.39333215277023</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>-44.81477869609691,167.39407166103064</t>
+          <t>-44.81477872977566,167.39407168720325</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -25153,12 +25153,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-44.81504247730452,167.39325204774468</t>
+          <t>-44.81504245485195,167.39325203029645</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>-44.814714470721256,167.3940217499104</t>
+          <t>-44.81471444826876,167.39402173246202</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -25187,12 +25187,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-44.81502781577458,167.39324065404412</t>
+          <t>-44.81502783822716,167.39324067149235</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>-44.814726999217456,167.39403148610376</t>
+          <t>-44.81472702166995,167.39403150355216</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -25217,12 +25217,12 @@
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-44.814953991702424,167.39318328431594</t>
+          <t>-44.81495396924985,167.39318326686777</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>-44.81467777210282,167.39399323056438</t>
+          <t>-44.8146777496503,167.393993213116</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -25255,12 +25255,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-44.81504296003482,167.39325242288194</t>
+          <t>-44.81504292635596,167.39325239670958</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>-44.81473758557173,167.39403971301587</t>
+          <t>-44.81473755189297,167.39403968684329</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-44.81410783186974,167.3955995298206</t>
+          <t>-44.81410785806416,167.39559955017737</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -25319,12 +25319,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-44.81506452572922,167.3932691819266</t>
+          <t>-44.81506453695551,167.39326919065073</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>-44.81473934809301,167.39404108271412</t>
+          <t>-44.81473935931926,167.3940410914383</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -25334,7 +25334,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-44.81415102646393,167.3956330981495</t>
+          <t>-44.81415100026952,167.3956330777927</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -25395,12 +25395,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-44.815019081723406,167.39323386668147</t>
+          <t>-44.81501911540227,167.3932338928538</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>-44.81474451216806,167.39404509584324</t>
+          <t>-44.81474454584682,167.39404512201585</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-44.81431002651181,167.39575666421413</t>
+          <t>-44.81431005270622,167.395756684571</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -25437,7 +25437,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-44.81507507843688,167.39327738260877</t>
+          <t>-44.8150750672106,167.39327737388464</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -25467,12 +25467,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-44.81503841338897,167.39324888961272</t>
+          <t>-44.81503844706781,167.39324891578508</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>-44.81474419783307,167.3940448515658</t>
+          <t>-44.81474423151182,167.3940448777384</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -25482,7 +25482,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-44.81407058340219,167.39557058251924</t>
+          <t>-44.81407060959661,167.39557060287598</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -25509,12 +25509,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-44.815115560415464,167.39330884184798</t>
+          <t>-44.81511553796289,167.3933088243997</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>-44.814790539788724,167.39408086506813</t>
+          <t>-44.81479051733622,167.3940808476197</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -25551,7 +25551,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-44.81511448269232,167.39330800433027</t>
+          <t>-44.81511451637116,167.39330803050268</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -25581,12 +25581,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-44.815185488920164,167.3933631845991</t>
+          <t>-44.81518547769388,167.39336317587492</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>-44.81489983851387,167.39416580410995</t>
+          <t>-44.81489982728761,167.3941657953857</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>-44.814048868224056,167.39555370678835</t>
+          <t>-44.81404884202963,167.39555368643164</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -25623,12 +25623,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-44.815038626688406,167.39324905537103</t>
+          <t>-44.81503860423582,167.3932490379228</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>-44.8147466114768,167.3940467272677</t>
+          <t>-44.8147465890243,167.39404670981932</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -25683,12 +25683,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-44.815217506267096,167.39338806592653</t>
+          <t>-44.81521753994593,167.39338809209906</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>-44.814895314337925,167.3941622882417</t>
+          <t>-44.81489534801666,167.39416231441442</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -25751,12 +25751,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-44.81520650451441,167.3933795162388</t>
+          <t>-44.81520653819325,167.3933795424113</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>-44.81494167871758,167.39419831937323</t>
+          <t>-44.814941712396305,167.394198345546</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -25789,12 +25789,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-44.81513812524255,167.3933263773824</t>
+          <t>-44.81513809156371,167.39332635120994</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>-44.81489514594429,167.3941621573781</t>
+          <t>-44.81489511226555,167.3941621312054</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -25827,12 +25827,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-44.815191427621926,167.393367799682</t>
+          <t>-44.81519145007448,167.39336781713035</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>-44.814881023330045,167.39415118228905</t>
+          <t>-44.814881045782535,167.39415119973754</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -25842,7 +25842,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-44.81409263910588,167.3955877229001</t>
+          <t>-44.814092612911466,167.39558770254337</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -25869,12 +25869,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-44.81519458220635,167.39337025117257</t>
+          <t>-44.81519459343264,167.39337025989673</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>-44.814863981891435,167.3941379389055</t>
+          <t>-44.814863993117676,167.39413794762973</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -25884,7 +25884,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>-44.81404297447815,167.39554912652574</t>
+          <t>-44.81404294828373,167.39554910616903</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -25911,12 +25911,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-44.81518404073011,167.39336205918204</t>
+          <t>-44.81518406318268,167.39336207663035</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>-44.81488817444721,167.39415673962685</t>
+          <t>-44.814888196899695,167.3941567570753</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -25953,12 +25953,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-44.81511385402048,167.39330751577825</t>
+          <t>-44.81511388769934,167.3933075419507</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>-44.81480753632743,167.39409407352255</t>
+          <t>-44.81480757000617,167.39409409969517</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-44.814061755881276,167.39556372229907</t>
+          <t>-44.81406172968685,167.39556370194234</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -26021,12 +26021,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-44.81508204995945,167.39328280029503</t>
+          <t>-44.815082061185734,167.39328280901915</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>-44.814860209873245,167.3941350075647</t>
+          <t>-44.81486022109948,167.3941350162889</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -26054,7 +26054,7 @@
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-44.81415396023841,167.3956353781105</t>
+          <t>-44.81415398643283,167.3956353984673</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -26081,12 +26081,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-44.81530257898705,167.39345417780095</t>
+          <t>-44.81530256776078,167.39345416907676</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>-44.814994453270785,167.3942393321162</t>
+          <t>-44.81499444204456,167.39423932339196</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -26096,7 +26096,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-44.81421389305199,167.3956819545056</t>
+          <t>-44.814213866857585,167.39568193414877</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -26123,12 +26123,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-44.81526424125796,167.39342438468583</t>
+          <t>-44.81526421880541,167.39342436723746</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>-44.815004758957585,167.3942473409946</t>
+          <t>-44.81500473650512,167.3942473235461</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-44.81423592254842,167.39569907461123</t>
+          <t>-44.814235948742834,167.39569909496805</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -26165,12 +26165,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-44.814982663645495,167.39320556566872</t>
+          <t>-44.8149826524192,167.39320555694462</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>-44.814698192656245,167.39400909984437</t>
+          <t>-44.814698181429996,167.3940090911202</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -26203,12 +26203,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-44.81519210119868,167.39336832313194</t>
+          <t>-44.815192078746115,167.3933683056836</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>-44.814901264246714,167.3941669120884</t>
+          <t>-44.81490124179421,167.3941668946399</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -26325,12 +26325,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-44.815023403843895,167.39323722546607</t>
+          <t>-44.81502343752275,167.3932372516384</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>-44.814728088163776,167.39403233235015</t>
+          <t>-44.814728121842535,167.39403235852274</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -26340,7 +26340,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-44.81220752415803,167.3941227745811</t>
+          <t>-44.81220755035266,167.3941227949366</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -26367,12 +26367,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-44.81505261464056,167.3932599256282</t>
+          <t>-44.815052592187996,167.39325990817994</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>-44.81476091371875,167.39405784189492</t>
+          <t>-44.81476089126626,167.39405782444652</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -26382,7 +26382,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-44.812260175342836,167.39416368913126</t>
+          <t>-44.812260201537455,167.39416370948678</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -26409,12 +26409,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-44.81518904765072,167.39336595015908</t>
+          <t>-44.81518901397189,167.39336592398658</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>-44.814815462057766,167.39410023281758</t>
+          <t>-44.81481542837902,167.3941002066449</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -26424,7 +26424,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-44.81230096035735,167.39419538269019</t>
+          <t>-44.81230098655195,167.39419540304573</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -26519,12 +26519,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>-44.81520738016414,167.39338019672402</t>
+          <t>-44.81520740261669,167.39338021417237</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>-44.81488723144276,167.394156006791</t>
+          <t>-44.81488725389524,167.3941560242395</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -26560,7 +26560,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>-44.81399983225384,167.3955155990307</t>
+          <t>-44.81399980605939,167.39551557867404</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -26602,7 +26602,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-44.8139717256276,167.39549375631086</t>
+          <t>-44.81397175182204,167.3954937766675</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -26629,12 +26629,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-44.815004667170406,167.39322266492016</t>
+          <t>-44.815004655944115,167.39322265619606</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>-44.81447760792968,167.39383767903809</t>
+          <t>-44.81447759670342,167.39383767031396</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -26671,12 +26671,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-44.815057576658724,167.39326378169173</t>
+          <t>-44.81505754297987,167.39326375551937</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>-44.814757938762675,167.39405552998224</t>
+          <t>-44.81475790508393,167.39405550380962</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -26686,7 +26686,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-44.813961483603634,167.39548579685325</t>
+          <t>-44.8139614574092,167.39548577649657</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -26728,7 +26728,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-44.81413800783932,167.39562298082515</t>
+          <t>-44.81413803403373,167.39562300118195</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -26755,12 +26755,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-44.815037627548925,167.3932482789243</t>
+          <t>-44.81503766122779,167.39324830509662</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>-44.81484140591264,167.3941203944873</t>
+          <t>-44.81484143959137,167.39412042065996</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -26793,7 +26793,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-44.81501679156083,167.393232086962</t>
+          <t>-44.81501675788196,167.39323206078967</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -26875,12 +26875,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-44.81506156198997,167.39326687875683</t>
+          <t>-44.815061550763694,167.3932668700327</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>-44.81479547933775,167.39408470371987</t>
+          <t>-44.814795468111484,167.39408469499568</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -26917,12 +26917,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-44.815008888254546,167.39322594518615</t>
+          <t>-44.81500889948084,167.39322595391027</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>-44.81472433859601,167.39402941847098</t>
+          <t>-44.81472434982225,167.39402942719516</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -26932,7 +26932,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-44.814050204139775,167.39555474498135</t>
+          <t>-44.81405017794535,167.39555472462462</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -26959,12 +26959,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-44.81516503463814,167.39334728917865</t>
+          <t>-44.81516504586442,167.3933472979028</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>-44.814864374809986,167.39413824425353</t>
+          <t>-44.814864386036234,167.39413825297774</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -26974,7 +26974,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-44.814143639638786,167.39562735753432</t>
+          <t>-44.814143613444365,167.39562733717756</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -26993,7 +26993,7 @@
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-44.81536295388182,167.3935010965816</t>
+          <t>-44.81536292020302,167.39350107040894</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -27023,12 +27023,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-44.81528259621832,167.39343864873476</t>
+          <t>-44.815282607444594,167.39343865745894</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>-44.815031129389496,167.39426783431367</t>
+          <t>-44.81503114061572,167.39426784303794</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -27038,7 +27038,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-44.814098244711964,167.39559207924594</t>
+          <t>-44.81409827090639,167.3955920996027</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -27080,7 +27080,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>-44.814102854929956,167.39559566203565</t>
+          <t>-44.81410282873555,167.39559564167888</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -27107,12 +27107,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-44.815151114050046,167.3933364712258</t>
+          <t>-44.815151136502614,167.39333648867412</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>-44.814830886920326,167.39411221989215</t>
+          <t>-44.8148309093728,167.39411223734058</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -27145,12 +27145,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-44.81522342251552,167.393392663566</t>
+          <t>-44.81522343374182,167.39339267229016</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>-44.81492590584849,167.39418606180288</t>
+          <t>-44.81492591707473,167.39418607052713</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -27178,7 +27178,7 @@
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-44.81428375352912,167.395736246251</t>
+          <t>-44.814283727334725,167.39573622589415</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -27205,12 +27205,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-44.81512922280107,167.39331945913267</t>
+          <t>-44.815129211574785,167.3933194504085</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>-44.8148233765616,167.39410638338998</t>
+          <t>-44.81482336533535,167.39410637466577</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -27243,12 +27243,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-44.81509507244876,167.39329292029205</t>
+          <t>-44.81509510612761,167.39329294646447</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>-44.81474490508681,167.39404540119006</t>
+          <t>-44.81474493876555,167.39404542736267</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -27281,12 +27281,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-44.81531724050062,167.39346557160553</t>
+          <t>-44.81531726295316,167.39346558905396</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>-44.81498569680454,167.394232527189</t>
+          <t>-44.814985719257024,167.3942325446375</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -27319,12 +27319,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-44.81511878235855,167.39331134567723</t>
+          <t>-44.81511875990598,167.39331132822892</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>-44.81479101129113,167.39408123148485</t>
+          <t>-44.81479098883864,167.39408121403642</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -27357,12 +27357,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-44.81535840724189,167.39349756327485</t>
+          <t>-44.8153584409207,167.39349758944746</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>-44.81495323051927,167.39420729662993</t>
+          <t>-44.81495326419801,167.39420732280269</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -27395,12 +27395,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-44.815110699435024,167.39330506429428</t>
+          <t>-44.81511066575617,167.39330503812187</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>-44.81471251735352,167.39402023190212</t>
+          <t>-44.81471248367477,167.39402020572956</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -27433,12 +27433,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-44.81527242521294,167.3934307446185</t>
+          <t>-44.81527239153411,167.39343071844593</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>-44.814944339336684,167.394200387021</t>
+          <t>-44.81494430565796,167.3942003608482</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -27471,12 +27471,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-44.815345586839435,167.39348760022506</t>
+          <t>-44.81534555316062,167.39348757405241</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>-44.81503675373411,167.39427220517715</t>
+          <t>-44.81503672005541,167.3942721790043</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -27513,12 +27513,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-44.81519809603168,167.3933729818367</t>
+          <t>-44.81519812971051,167.39337300800923</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>-44.81488643437948,167.39415538737026</t>
+          <t>-44.814886468058205,167.394155413543</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -27551,12 +27551,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>-44.81516950269769,167.3933507613936</t>
+          <t>-44.81516952515025,167.39335077884192</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>-44.81483222284359,167.3941132580743</t>
+          <t>-44.814832245296074,167.39411327552273</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-44.81405510249735,167.39555855168936</t>
+          <t>-44.81405512869177,167.39555857204607</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-44.81401790641066,167.3955296451521</t>
+          <t>-44.81401788021623,167.39552962479542</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -27635,12 +27635,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-44.815212375858,167.39338407897992</t>
+          <t>-44.81521235340544,167.39338406153155</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>-44.81493521240269,167.39419329420483</t>
+          <t>-44.8149351899502,167.39419327675634</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-44.81390107922856,167.39543885442936</t>
+          <t>-44.813901105423,167.39543887478598</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -27747,12 +27747,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-44.815147824749694,167.393333915049</t>
+          <t>-44.815147835975964,167.39333392377313</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>-44.81490013039617,167.3941660309402</t>
+          <t>-44.81490014162242,167.3941660396644</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -27762,7 +27762,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-44.81440613373965,167.39583135380423</t>
+          <t>-44.81440615993403,167.39583137416122</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -27789,12 +27789,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-44.81520439397405,167.39337787609497</t>
+          <t>-44.81520441642661,167.39337789354332</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>-44.814930452476325,167.39418959512324</t>
+          <t>-44.81493047492882,167.39418961257172</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -27804,7 +27804,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-44.81415000488177,167.39563230423454</t>
+          <t>-44.81414997868733,167.39563228387775</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-44.81410293351322,167.3955957231059</t>
+          <t>-44.81410290731881,167.39559570274915</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -27873,12 +27873,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-44.815183636584045,167.39336174511217</t>
+          <t>-44.81518367026287,167.39336177128465</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>-44.814841484496355,167.39412045555684</t>
+          <t>-44.81484151817509,167.39412048172952</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-44.81416359978283,167.39564286941254</t>
+          <t>-44.814163573588424,167.39564284905575</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -27911,12 +27911,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-44.81531202028341,167.39346151485213</t>
+          <t>-44.815311997830854,167.39346149740373</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>-44.81492821845427,167.39418785899787</t>
+          <t>-44.81492819600179,167.39418784154935</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -27926,7 +27926,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>-44.81427015863468,167.39572568103085</t>
+          <t>-44.81427013244027,167.39572566067397</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -27953,12 +27953,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-44.815245403566344,167.39340974550583</t>
+          <t>-44.815245437245174,167.3934097716784</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>-44.81485122887731,167.3941280281833</t>
+          <t>-44.81485126255604,167.39412805435597</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -27991,12 +27991,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-44.81512391276961,167.39331533261145</t>
+          <t>-44.81512394644845,167.39331535878387</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>-44.8149074162277,167.39417169297235</t>
+          <t>-44.81490744990642,167.39417171914508</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -28006,7 +28006,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-44.814288180382825,167.3957396865646</t>
+          <t>-44.81428820657723,167.39573970692146</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -28033,12 +28033,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-44.81506860087064,167.39327234878544</t>
+          <t>-44.81506862332322,167.3932723662337</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>-44.81476495516844,167.39406098260687</t>
+          <t>-44.81476497762094,167.39406100005527</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -28075,12 +28075,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-44.81525773001788,167.39341932465834</t>
+          <t>-44.815257696339046,167.39341929848578</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>-44.81490991967978,167.39417363847835</t>
+          <t>-44.81490988600105,167.39417361230565</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -28090,7 +28090,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-44.81243180241023,167.3942970588482</t>
+          <t>-44.81243182860483,167.39429707920382</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -28117,12 +28117,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>-44.8151830528175,167.3933612914557</t>
+          <t>-44.815183041591226,167.39336128273155</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>-44.814847658931335,167.3941252538798</t>
+          <t>-44.814847647705086,167.39412524515555</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -28132,7 +28132,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-44.81227479193841,167.3941750475116</t>
+          <t>-44.81227481813303,167.3941750678671</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -28174,7 +28174,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-44.81215330128431,167.39408063877588</t>
+          <t>-44.81215332747893,167.39408065913133</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -28201,12 +28201,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-44.81516070129386,167.3933439216541</t>
+          <t>-44.81516072374643,167.3933439391024</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>-44.81481053373539,167.39409640288747</t>
+          <t>-44.81481055618789,167.39409642033587</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -28216,7 +28216,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>-44.81216618904088,167.39409065365606</t>
+          <t>-44.8121662152355,167.3940906740115</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -28243,12 +28243,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-44.815205718674925,167.39337890554694</t>
+          <t>-44.81520575235375,167.39337893171944</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>-44.814878576008894,167.3941492804061</t>
+          <t>-44.81487860968763,167.3941493065788</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -28258,7 +28258,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-44.81232639532442,167.39421514793074</t>
+          <t>-44.81232636912982,167.3942151275752</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -28285,12 +28285,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-44.81512508030296,167.3933162399226</t>
+          <t>-44.81512504662412,167.39331621375015</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>-44.81474387227182,167.3940445985642</t>
+          <t>-44.81474383859305,167.3940445723916</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -28323,12 +28323,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-44.81517530668448,167.39335527178417</t>
+          <t>-44.81517534036333,167.39335529795665</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>-44.81482427466131,167.3941070813274</t>
+          <t>-44.81482430834004,167.39410710750005</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -28338,7 +28338,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-44.81414324672255,167.3956270521825</t>
+          <t>-44.81414322052812,167.3956270318257</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -28365,12 +28365,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-44.8151289533703,167.39331924975315</t>
+          <t>-44.815128975822866,167.39331926720143</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>-44.814834108852914,167.3941147237433</t>
+          <t>-44.81483413130541,167.39411474119174</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -28407,12 +28407,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-44.815155559657285,167.39333992599086</t>
+          <t>-44.815155537204745,167.39333990854254</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>-44.81484075479039,167.39411988848238</t>
+          <t>-44.8148407323379,167.39411987103392</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -28422,7 +28422,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-44.813951424940306,167.39547797989493</t>
+          <t>-44.813951398745864,167.39547795953828</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -28449,12 +28449,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>-44.81513232125489,167.3933218669974</t>
+          <t>-44.81513235493372,167.39332189316985</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>-44.81480855791592,167.3940948674259</t>
+          <t>-44.81480859159466,167.39409489359855</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -28529,12 +28529,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-44.81509145758542,167.39329011112002</t>
+          <t>-44.815091491264276,167.39329013729244</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>-44.81479826344713,167.3940868673239</t>
+          <t>-44.81479829712588,167.39408689349654</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -28544,7 +28544,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>-44.813796013300546,167.39535720414978</t>
+          <t>-44.81379603949501,167.39535722450634</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -28571,12 +28571,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>-44.81502087792933,167.39323526253995</t>
+          <t>-44.815020844250476,167.3932352363676</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>-44.814676368821196,167.39399214004249</t>
+          <t>-44.81467633514242,167.39399211386996</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -28586,7 +28586,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-44.813963710130615,167.39548752716988</t>
+          <t>-44.81396373632506,167.39548754752656</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -28613,12 +28613,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-44.815208682412425,167.39338120872776</t>
+          <t>-44.81520865995988,167.39338119127942</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>-44.8148993782379,167.3941654464161</t>
+          <t>-44.81489935578542,167.39416542896765</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -28655,12 +28655,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>-44.81509906900569,167.39329602608512</t>
+          <t>-44.81509903532683,167.39329599991274</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>-44.81477090508037,167.39406560643354</t>
+          <t>-44.81477087140164,167.39406558026096</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -28763,12 +28763,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-44.81498224827281,167.39320524287686</t>
+          <t>-44.814982259499104,167.39320525160096</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>-44.81462760197287,167.393954242258</t>
+          <t>-44.81462761319913,167.39395425098215</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -28797,12 +28797,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>-44.81531156000619,167.39346115715992</t>
+          <t>-44.815311526327356,167.3934611309873</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>-44.81497632289483,167.39422524242931</t>
+          <t>-44.814976289216105,167.39422521625653</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -28881,12 +28881,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-44.81503101526626,167.39324314041778</t>
+          <t>-44.815030981587405,167.39324311424545</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>-44.81468218402023,167.39399665916545</t>
+          <t>-44.814682150341454,167.39399663299292</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -28896,7 +28896,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>-44.81411859777597,167.39560789645233</t>
+          <t>-44.81411862397041,167.39560791680913</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -28923,12 +28923,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>-44.81503415862647,167.39324558317116</t>
+          <t>-44.81503412494761,167.3932455569988</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>-44.81480485325435,167.39409198843578</t>
+          <t>-44.81480481957561,167.39409196226313</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -28961,12 +28961,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>-44.81499225089588,167.3932130160553</t>
+          <t>-44.81499223966958,167.3932130073312</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>-44.814729468992624,167.39403340542552</t>
+          <t>-44.81472945776637,167.39403339670133</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>-44.81403087265278,167.39553972172266</t>
+          <t>-44.81403084645836,167.39553970136592</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -29003,12 +29003,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>-44.81521035512792,167.39338250862914</t>
+          <t>-44.81521038880675,167.39338253480165</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>-44.815021755481496,167.39426054954302</t>
+          <t>-44.81502178916021,167.39426057571583</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -29045,12 +29045,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-44.81499390116024,167.39321429849915</t>
+          <t>-44.814993889933966,167.39321428977505</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>-44.81480310195978,167.39409062745875</t>
+          <t>-44.814803090733534,167.39409061873454</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -29060,7 +29060,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>-44.814011383997695,167.3955245763334</t>
+          <t>-44.81401135780326,167.39552455597672</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -29087,12 +29087,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-44.81517688958994,167.39335650189082</t>
+          <t>-44.815176912042496,167.39335651933914</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>-44.81489453972715,167.39416168626926</t>
+          <t>-44.814894562179646,167.39416170371774</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -29121,12 +29121,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-44.81516884034716,167.39335024666826</t>
+          <t>-44.81516881789461,167.39335022921995</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>-44.81489246287216,167.39416007228527</t>
+          <t>-44.81489244041968,167.39416005483682</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -29159,12 +29159,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>-44.81518019011619,167.3933590667943</t>
+          <t>-44.81518021256875,167.39335908424263</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>-44.81492526595271,167.39418556452082</t>
+          <t>-44.81492528840519,167.3941855819693</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -29174,7 +29174,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>-44.81405374038724,167.39555749313948</t>
+          <t>-44.8140537141928,167.39555747278274</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -29201,12 +29201,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>-44.815196838688436,167.39337200473003</t>
+          <t>-44.815196872367274,167.39337203090253</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>-44.81489657167716,167.39416326535638</t>
+          <t>-44.81489660535588,167.3941632915291</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -29281,12 +29281,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>-44.81519272987031,167.39336881168518</t>
+          <t>-44.81519270741775,167.39336879423686</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>-44.814901735748904,167.39416727850647</t>
+          <t>-44.814901713296415,167.39416726105802</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>-44.81382089802951,167.3953765428838</t>
+          <t>-44.81382087183507,167.39537652252724</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -29323,12 +29323,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-44.81511167612162,167.39330582329464</t>
+          <t>-44.815111687347894,167.39330583201877</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>-44.814809444789425,167.39409555663875</t>
+          <t>-44.81480945601569,167.39409556536296</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -29399,12 +29399,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-44.81515136102824,167.39333666315719</t>
+          <t>-44.81515137225452,167.39333667188134</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>-44.81482013217637,167.39410386209133</t>
+          <t>-44.81482014340261,167.3941038708155</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>-44.81404590825392,167.39555140647857</t>
+          <t>-44.81404593444834,167.3955514268353</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>-44.814853639875366,167.39310529974838</t>
+          <t>-44.814853617422784,167.39310528230024</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
@@ -29528,7 +29528,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>-44.81396834654557,167.39549113030026</t>
+          <t>-44.81396837274001,167.39549115065694</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -29555,12 +29555,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>-44.81498040716144,167.39320381212377</t>
+          <t>-44.814980373482584,167.39320378595144</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>-44.8147091382518,167.3940176059225</t>
+          <t>-44.81470910457304,167.39401757974994</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -29570,7 +29570,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>-44.813919127198204,167.39545288014804</t>
+          <t>-44.81391910100376,167.39545285979142</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -29597,12 +29597,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>-44.81509912513711,167.39329606970583</t>
+          <t>-44.815099113910826,167.3932960609817</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>-44.814808367069716,167.3940947191143</t>
+          <t>-44.81480835584346,167.39409471039008</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -29612,7 +29612,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>-44.81407865128453,167.3955768523958</t>
+          <t>-44.81407862509011,167.39557683203907</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -29639,12 +29639,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>-44.814990252616546,167.39321146316425</t>
+          <t>-44.81499027506912,167.39321148061248</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>-44.81467615552237,167.39399197428315</t>
+          <t>-44.81467617797488,167.39399199173153</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -29654,7 +29654,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>-44.81396140502033,167.39548573578324</t>
+          <t>-44.81396137882589,167.39548571542656</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -29676,7 +29676,7 @@
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr">
         <is>
-          <t>-44.814103955095604,167.39559651701964</t>
+          <t>-44.81410392890118,167.39559649666285</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>-44.81507466306435,167.39327705981592</t>
+          <t>-44.81507467429063,167.39327706854002</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -29785,12 +29785,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>-44.81529644944132,167.3934494143897</t>
+          <t>-44.815296438215036,167.39344940566548</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>-44.81498321580572,167.39423059912662</t>
+          <t>-44.814983204579484,167.39423059040234</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>-44.81410371934583,167.39559633380875</t>
+          <t>-44.81410369315141,167.395596313452</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -15775,13 +15775,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0388</v>
+        <v>0.0485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.046</v>
+        <v>0.0674</v>
       </c>
       <c r="I2" t="n">
         <v>0.3213083576211024</v>
@@ -15853,13 +15853,13 @@
         <v>0.7999999999991214</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.037</v>
+        <v>0.0594</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0435</v>
+        <v>0.0761</v>
       </c>
       <c r="I3" t="n">
         <v>0.2510986267984586</v>
@@ -15931,13 +15931,13 @@
         <v>0.5999999999972666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0327</v>
+        <v>0.0503</v>
       </c>
       <c r="H4" t="n">
-        <v>0.036</v>
+        <v>0.0828</v>
       </c>
       <c r="I4" t="n">
         <v>0.3455086968945653</v>
@@ -16009,13 +16009,13 @@
         <v>0.3999999999954118</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0335</v>
+        <v>0.0437</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0397</v>
+        <v>0.0824</v>
       </c>
       <c r="I5" t="n">
         <v>0.3325517058868523</v>
@@ -16087,13 +16087,13 @@
         <v>0.1999999999999024</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0438</v>
+        <v>0.0449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0598</v>
+        <v>0.0953</v>
       </c>
       <c r="I6" t="n">
         <v>0.2536754960999343</v>
@@ -16165,10 +16165,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0291</v>
+        <v>0.0335</v>
       </c>
       <c r="H7" t="n">
         <v>0.2</v>

--- a/data/nzd0469/nzd0469.xlsx
+++ b/data/nzd0469/nzd0469.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,13 +514,13 @@
         <v>266.23</v>
       </c>
       <c r="E3" t="n">
-        <v>263.69</v>
+        <v>264.11</v>
       </c>
       <c r="F3" t="n">
         <v>277.64</v>
       </c>
       <c r="G3" t="n">
-        <v>532.28</v>
+        <v>531.92</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -544,13 +544,13 @@
         <v>263.32</v>
       </c>
       <c r="E4" t="n">
-        <v>266</v>
+        <v>265.44</v>
       </c>
       <c r="F4" t="n">
         <v>273.93</v>
       </c>
       <c r="G4" t="n">
-        <v>543.7</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -574,13 +574,13 @@
         <v>257.13</v>
       </c>
       <c r="E5" t="n">
-        <v>258.95</v>
+        <v>260.12</v>
       </c>
       <c r="F5" t="n">
         <v>267.31</v>
       </c>
       <c r="G5" t="n">
-        <v>509.21</v>
+        <v>508.23</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         <v>248.94</v>
       </c>
       <c r="E6" t="n">
-        <v>257.73</v>
+        <v>256.55</v>
       </c>
       <c r="F6" t="n">
         <v>271.54</v>
@@ -632,13 +632,13 @@
         <v>253.95</v>
       </c>
       <c r="E7" t="n">
-        <v>248.86</v>
+        <v>249.28</v>
       </c>
       <c r="F7" t="n">
         <v>269.66</v>
       </c>
       <c r="G7" t="n">
-        <v>517</v>
+        <v>516.64</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>253.45</v>
       </c>
       <c r="E8" t="n">
-        <v>253.71</v>
+        <v>253.24</v>
       </c>
       <c r="F8" t="n">
         <v>268.75</v>
@@ -690,13 +690,13 @@
         <v>270.95</v>
       </c>
       <c r="E9" t="n">
-        <v>272.99</v>
+        <v>271.85</v>
       </c>
       <c r="F9" t="n">
         <v>282.02</v>
       </c>
       <c r="G9" t="n">
-        <v>531.92</v>
+        <v>532.88</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>287.11</v>
       </c>
       <c r="E10" t="n">
-        <v>270.44</v>
+        <v>270.11</v>
       </c>
       <c r="F10" t="n">
         <v>267.78</v>
@@ -744,7 +744,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>499.63</v>
+        <v>499.17</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>480.18</v>
+        <v>480.66</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>279.5</v>
       </c>
       <c r="E13" t="n">
-        <v>284.98</v>
+        <v>283.74</v>
       </c>
       <c r="F13" t="n">
         <v>275.02</v>
@@ -812,7 +812,7 @@
         <v>265.46</v>
       </c>
       <c r="E14" t="n">
-        <v>263.87</v>
+        <v>263.93</v>
       </c>
       <c r="F14" t="n">
         <v>259.69</v>
@@ -840,7 +840,7 @@
         <v>270.64</v>
       </c>
       <c r="E15" t="n">
-        <v>267.36</v>
+        <v>266.74</v>
       </c>
       <c r="F15" t="n">
         <v>269.63</v>
@@ -868,11 +868,11 @@
         <v>284.97</v>
       </c>
       <c r="E16" t="n">
-        <v>276.43</v>
+        <v>277.67</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>508.05</v>
+        <v>507</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -896,13 +896,13 @@
         <v>280.82</v>
       </c>
       <c r="E17" t="n">
-        <v>272.04</v>
+        <v>272.89</v>
       </c>
       <c r="F17" t="n">
         <v>282.05</v>
       </c>
       <c r="G17" t="n">
-        <v>513.58</v>
+        <v>512.87</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>277.01</v>
       </c>
       <c r="E18" t="n">
-        <v>275.95</v>
+        <v>276.39</v>
       </c>
       <c r="F18" t="n">
         <v>279.41</v>
@@ -954,13 +954,13 @@
         <v>288.8</v>
       </c>
       <c r="E19" t="n">
-        <v>288.28</v>
+        <v>287.68</v>
       </c>
       <c r="F19" t="n">
         <v>279.59</v>
       </c>
       <c r="G19" t="n">
-        <v>526.8099999999999</v>
+        <v>527.33</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>295.78</v>
       </c>
       <c r="E20" t="n">
-        <v>281.53</v>
+        <v>281.38</v>
       </c>
       <c r="F20" t="n">
         <v>273.79</v>
@@ -1012,7 +1012,7 @@
         <v>282.5</v>
       </c>
       <c r="E21" t="n">
-        <v>280.07</v>
+        <v>278.52</v>
       </c>
       <c r="F21" t="n">
         <v>279.96</v>
@@ -1066,7 +1066,7 @@
         <v>266.94</v>
       </c>
       <c r="E23" t="n">
-        <v>269.99</v>
+        <v>270.85</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1092,13 +1092,13 @@
         <v>286.94</v>
       </c>
       <c r="E24" t="n">
-        <v>279.17</v>
+        <v>279.89</v>
       </c>
       <c r="F24" t="n">
         <v>286.61</v>
       </c>
       <c r="G24" t="n">
-        <v>516.9</v>
+        <v>516.3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>262.21</v>
       </c>
       <c r="E25" t="n">
-        <v>266.45</v>
+        <v>265.45</v>
       </c>
       <c r="F25" t="n">
         <v>261.21</v>
@@ -1150,7 +1150,7 @@
         <v>281.48</v>
       </c>
       <c r="E26" t="n">
-        <v>274.25</v>
+        <v>274.72</v>
       </c>
       <c r="F26" t="n">
         <v>283.75</v>
@@ -1178,13 +1178,13 @@
         <v>287.59</v>
       </c>
       <c r="E27" t="n">
-        <v>289.97</v>
+        <v>289.15</v>
       </c>
       <c r="F27" t="n">
         <v>294.97</v>
       </c>
       <c r="G27" t="n">
-        <v>531.71</v>
+        <v>532.4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         <v>281.62</v>
       </c>
       <c r="E28" t="n">
-        <v>284.78</v>
+        <v>284.05</v>
       </c>
       <c r="F28" t="n">
         <v>276.46</v>
       </c>
       <c r="G28" t="n">
-        <v>527.55</v>
+        <v>528.17</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1238,13 +1238,13 @@
         <v>296.51</v>
       </c>
       <c r="E29" t="n">
-        <v>284.25</v>
+        <v>285.16</v>
       </c>
       <c r="F29" t="n">
         <v>287.33</v>
       </c>
       <c r="G29" t="n">
-        <v>514.29</v>
+        <v>513.52</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1268,13 +1268,13 @@
         <v>271.99</v>
       </c>
       <c r="E30" t="n">
-        <v>276.83</v>
+        <v>275.59</v>
       </c>
       <c r="F30" t="n">
         <v>269.9</v>
       </c>
       <c r="G30" t="n">
-        <v>531.05</v>
+        <v>532.1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>283.79</v>
       </c>
       <c r="E31" t="n">
-        <v>273.76</v>
+        <v>274.61</v>
       </c>
       <c r="F31" t="n">
         <v>263.21</v>
@@ -1326,13 +1326,13 @@
         <v>290.12</v>
       </c>
       <c r="E32" t="n">
-        <v>275.08</v>
+        <v>274.7</v>
       </c>
       <c r="F32" t="n">
         <v>272.32</v>
       </c>
       <c r="G32" t="n">
-        <v>527.23</v>
+        <v>527.55</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1356,13 +1356,13 @@
         <v>282.09</v>
       </c>
       <c r="E33" t="n">
-        <v>275.51</v>
+        <v>274.86</v>
       </c>
       <c r="F33" t="n">
         <v>271.03</v>
       </c>
       <c r="G33" t="n">
-        <v>530.3</v>
+        <v>530.85</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1386,13 +1386,13 @@
         <v>286.3</v>
       </c>
       <c r="E34" t="n">
-        <v>271.68</v>
+        <v>272.18</v>
       </c>
       <c r="F34" t="n">
         <v>274.83</v>
       </c>
       <c r="G34" t="n">
-        <v>516.52</v>
+        <v>516.1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>275.96</v>
       </c>
       <c r="E35" t="n">
-        <v>272.21</v>
+        <v>271.35</v>
       </c>
       <c r="F35" t="n">
         <v>270.08</v>
@@ -1462,7 +1462,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>521.62</v>
+        <v>521.6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1486,13 +1486,13 @@
         <v>248.46</v>
       </c>
       <c r="E38" t="n">
-        <v>242.3</v>
+        <v>242.77</v>
       </c>
       <c r="F38" t="n">
         <v>252.27</v>
       </c>
       <c r="G38" t="n">
-        <v>506.32</v>
+        <v>505.92</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>539.25</v>
+        <v>540.62</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>262.32</v>
       </c>
       <c r="E40" t="n">
-        <v>256.3</v>
+        <v>256.66</v>
       </c>
       <c r="F40" t="n">
         <v>254.21</v>
@@ -1566,13 +1566,13 @@
         <v>282.75</v>
       </c>
       <c r="E41" t="n">
-        <v>275.79</v>
+        <v>274.87</v>
       </c>
       <c r="F41" t="n">
         <v>271.8</v>
       </c>
       <c r="G41" t="n">
-        <v>556.14</v>
+        <v>556.9299999999999</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>296.52</v>
       </c>
       <c r="E42" t="n">
-        <v>287.76</v>
+        <v>288.64</v>
       </c>
       <c r="F42" t="n">
         <v>293.27</v>
@@ -1624,7 +1624,7 @@
         <v>242.43</v>
       </c>
       <c r="E43" t="n">
-        <v>245.69</v>
+        <v>244.75</v>
       </c>
       <c r="F43" t="n">
         <v>242.16</v>
@@ -1652,7 +1652,7 @@
         <v>260.91</v>
       </c>
       <c r="E44" t="n">
-        <v>264.62</v>
+        <v>265.62</v>
       </c>
       <c r="F44" t="n">
         <v>273.97</v>
@@ -1680,13 +1680,13 @@
         <v>274.57</v>
       </c>
       <c r="E45" t="n">
-        <v>277.35</v>
+        <v>276.38</v>
       </c>
       <c r="F45" t="n">
         <v>266.31</v>
       </c>
       <c r="G45" t="n">
-        <v>537.29</v>
+        <v>538.11</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1704,13 +1704,13 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>264.45</v>
+        <v>265.54</v>
       </c>
       <c r="F46" t="n">
         <v>267.39</v>
       </c>
       <c r="G46" t="n">
-        <v>508.52</v>
+        <v>507.6</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1734,13 +1734,13 @@
         <v>281.31</v>
       </c>
       <c r="E47" t="n">
-        <v>264.16</v>
+        <v>265.04</v>
       </c>
       <c r="F47" t="n">
         <v>258.77</v>
       </c>
       <c r="G47" t="n">
-        <v>267.01</v>
+        <v>266.26</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1764,13 +1764,13 @@
         <v>273.84</v>
       </c>
       <c r="E48" t="n">
-        <v>259.12</v>
+        <v>259.43</v>
       </c>
       <c r="F48" t="n">
         <v>264</v>
       </c>
       <c r="G48" t="n">
-        <v>290.48</v>
+        <v>290.23</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1794,13 +1794,13 @@
         <v>272.32</v>
       </c>
       <c r="E49" t="n">
-        <v>269.07</v>
+        <v>268.25</v>
       </c>
       <c r="F49" t="n">
         <v>271.98</v>
       </c>
       <c r="G49" t="n">
-        <v>287.18</v>
+        <v>287.87</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1870,13 +1870,13 @@
         <v>267.71</v>
       </c>
       <c r="E52" t="n">
-        <v>267.55</v>
+        <v>268.36</v>
       </c>
       <c r="F52" t="n">
         <v>266.27</v>
       </c>
       <c r="G52" t="n">
-        <v>289.1</v>
+        <v>288.42</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>254.71</v>
       </c>
       <c r="E53" t="n">
-        <v>255.17</v>
+        <v>254.84</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
         <v>275.55</v>
       </c>
       <c r="E54" t="n">
-        <v>260.87</v>
+        <v>261.04</v>
       </c>
       <c r="F54" t="n">
         <v>272.55</v>
@@ -1972,13 +1972,13 @@
         <v>268.22</v>
       </c>
       <c r="E56" t="n">
-        <v>268</v>
+        <v>268.12</v>
       </c>
       <c r="F56" t="n">
         <v>279.62</v>
       </c>
       <c r="G56" t="n">
-        <v>287.71</v>
+        <v>287.61</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2022,13 +2022,13 @@
         <v>278.29</v>
       </c>
       <c r="E58" t="n">
-        <v>272.76</v>
+        <v>272.93</v>
       </c>
       <c r="F58" t="n">
         <v>278.26</v>
       </c>
       <c r="G58" t="n">
-        <v>309.59</v>
+        <v>309.45</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2052,13 +2052,13 @@
         <v>282.36</v>
       </c>
       <c r="E59" t="n">
-        <v>268.06</v>
+        <v>268.89</v>
       </c>
       <c r="F59" t="n">
         <v>271.46</v>
       </c>
       <c r="G59" t="n">
-        <v>298.87</v>
+        <v>298.16</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>258.83</v>
       </c>
       <c r="G61" t="n">
-        <v>250.7</v>
+        <v>250.26</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2146,13 +2146,13 @@
         <v>281.75</v>
       </c>
       <c r="E63" t="n">
-        <v>278.89</v>
+        <v>279.45</v>
       </c>
       <c r="F63" t="n">
         <v>271.62</v>
       </c>
       <c r="G63" t="n">
-        <v>271.15</v>
+        <v>270.67</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2176,13 +2176,13 @@
         <v>272.33</v>
       </c>
       <c r="E64" t="n">
-        <v>276.08</v>
+        <v>274.5</v>
       </c>
       <c r="F64" t="n">
         <v>270.19</v>
       </c>
       <c r="G64" t="n">
-        <v>272.2</v>
+        <v>273.53</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2206,13 +2206,13 @@
         <v>285.08</v>
       </c>
       <c r="E65" t="n">
-        <v>273.55</v>
+        <v>274.05</v>
       </c>
       <c r="F65" t="n">
         <v>265.55</v>
       </c>
       <c r="G65" t="n">
-        <v>269.02</v>
+        <v>268.6</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>277.28</v>
       </c>
       <c r="E66" t="n">
-        <v>271.43</v>
+        <v>272.24</v>
       </c>
       <c r="F66" t="n">
         <v>268.11</v>
@@ -2264,13 +2264,13 @@
         <v>290.29</v>
       </c>
       <c r="E67" t="n">
-        <v>284.75</v>
+        <v>283.76</v>
       </c>
       <c r="F67" t="n">
         <v>281.04</v>
       </c>
       <c r="G67" t="n">
-        <v>290.13</v>
+        <v>290.96</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>280.35</v>
       </c>
       <c r="E69" t="n">
-        <v>271.01</v>
+        <v>270.91</v>
       </c>
       <c r="F69" t="n">
         <v>276.65</v>
@@ -2346,13 +2346,13 @@
         <v>277.43</v>
       </c>
       <c r="E70" t="n">
-        <v>269.87</v>
+        <v>269.32</v>
       </c>
       <c r="F70" t="n">
         <v>272.27</v>
       </c>
       <c r="G70" t="n">
-        <v>288.74</v>
+        <v>289.2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>271.49</v>
       </c>
       <c r="E72" t="n">
-        <v>277.23</v>
+        <v>275.54</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
         <v>261.16</v>
       </c>
       <c r="E73" t="n">
-        <v>262.18</v>
+        <v>261.12</v>
       </c>
       <c r="F73" t="n">
         <v>258.04</v>
@@ -2448,7 +2448,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>260.69</v>
+        <v>261.09</v>
       </c>
       <c r="F74" t="n">
         <v>293.72</v>
@@ -2470,13 +2470,13 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>258.21</v>
+        <v>258.09</v>
       </c>
       <c r="F75" t="n">
         <v>263.15</v>
       </c>
       <c r="G75" t="n">
-        <v>261.26</v>
+        <v>261.36</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2500,13 +2500,13 @@
         <v>293.72</v>
       </c>
       <c r="E76" t="n">
-        <v>284.1</v>
+        <v>283.91</v>
       </c>
       <c r="F76" t="n">
         <v>287.31</v>
       </c>
       <c r="G76" t="n">
-        <v>255.07</v>
+        <v>255.24</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>266.11</v>
       </c>
       <c r="G77" t="n">
-        <v>279.75</v>
+        <v>278.89</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>287.74</v>
       </c>
       <c r="E78" t="n">
-        <v>281.27</v>
+        <v>279.58</v>
       </c>
       <c r="F78" t="n">
         <v>277.61</v>
@@ -2580,7 +2580,7 @@
         <v>265.64</v>
       </c>
       <c r="E79" t="n">
-        <v>265.95</v>
+        <v>265.86</v>
       </c>
       <c r="F79" t="n">
         <v>273.28</v>
@@ -2608,13 +2608,13 @@
         <v>268.97</v>
       </c>
       <c r="E80" t="n">
-        <v>266.02</v>
+        <v>266.79</v>
       </c>
       <c r="F80" t="n">
         <v>268.8</v>
       </c>
       <c r="G80" t="n">
-        <v>280.22</v>
+        <v>279.57</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -2638,13 +2638,13 @@
         <v>274.83</v>
       </c>
       <c r="E81" t="n">
-        <v>276.75</v>
+        <v>276.22</v>
       </c>
       <c r="F81" t="n">
         <v>278.92</v>
       </c>
       <c r="G81" t="n">
-        <v>286.5</v>
+        <v>286.95</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>277.47</v>
       </c>
       <c r="E82" t="n">
-        <v>282.3</v>
+        <v>281.07</v>
       </c>
       <c r="F82" t="n">
         <v>283.04</v>
@@ -2696,7 +2696,7 @@
         <v>268.18</v>
       </c>
       <c r="E83" t="n">
-        <v>272.95</v>
+        <v>271.67</v>
       </c>
       <c r="F83" t="n">
         <v>274.87</v>
@@ -2724,13 +2724,13 @@
         <v>286.55</v>
       </c>
       <c r="E84" t="n">
-        <v>306.29</v>
+        <v>307.43</v>
       </c>
       <c r="F84" t="n">
         <v>317.27</v>
       </c>
       <c r="G84" t="n">
-        <v>493.64</v>
+        <v>492.68</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -2754,13 +2754,13 @@
         <v>273.41</v>
       </c>
       <c r="E85" t="n">
-        <v>287.3</v>
+        <v>288.06</v>
       </c>
       <c r="F85" t="n">
         <v>313.41</v>
       </c>
       <c r="G85" t="n">
-        <v>520.6900000000001</v>
+        <v>520.05</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -2784,13 +2784,13 @@
         <v>290.93</v>
       </c>
       <c r="E86" t="n">
-        <v>287.79</v>
+        <v>288.14</v>
       </c>
       <c r="F86" t="n">
         <v>309.91</v>
       </c>
       <c r="G86" t="n">
-        <v>524.6799999999999</v>
+        <v>524.39</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -2814,13 +2814,13 @@
         <v>289.46</v>
       </c>
       <c r="E87" t="n">
-        <v>288.66</v>
+        <v>287.98</v>
       </c>
       <c r="F87" t="n">
         <v>292.83</v>
       </c>
       <c r="G87" t="n">
-        <v>536.84</v>
+        <v>537.42</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>299.62</v>
       </c>
       <c r="E88" t="n">
-        <v>288.9</v>
+        <v>289.59</v>
       </c>
       <c r="F88" t="n">
         <v>299.27</v>
@@ -2868,7 +2868,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>522.99</v>
+        <v>524.12</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>278.9</v>
       </c>
       <c r="E90" t="n">
-        <v>277.21</v>
+        <v>276.29</v>
       </c>
       <c r="F90" t="n">
         <v>269.25</v>
@@ -2920,7 +2920,7 @@
         <v>271.42</v>
       </c>
       <c r="E91" t="n">
-        <v>279.5</v>
+        <v>278.28</v>
       </c>
       <c r="F91" t="n">
         <v>275.16</v>
@@ -2944,13 +2944,13 @@
         <v>288.71</v>
       </c>
       <c r="E92" t="n">
-        <v>285.63</v>
+        <v>286.25</v>
       </c>
       <c r="F92" t="n">
         <v>277.85</v>
       </c>
       <c r="G92" t="n">
-        <v>515.29</v>
+        <v>514.77</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>284.54</v>
+        <v>283.44</v>
       </c>
       <c r="F93" t="n">
         <v>278.81</v>
@@ -2996,7 +2996,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>501.96</v>
+        <v>501.42</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>305.38</v>
       </c>
       <c r="E96" t="n">
-        <v>305.48</v>
+        <v>304.89</v>
       </c>
       <c r="F96" t="n">
         <v>308.56</v>
@@ -3090,7 +3090,7 @@
         <v>274.73</v>
       </c>
       <c r="E98" t="n">
-        <v>276.26</v>
+        <v>276.76</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -3110,13 +3110,13 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>289.03</v>
+        <v>288.48</v>
       </c>
       <c r="F99" t="n">
         <v>283.05</v>
       </c>
       <c r="G99" t="n">
-        <v>543.83</v>
+        <v>544.29</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3162,13 +3162,13 @@
         <v>272.82</v>
       </c>
       <c r="E101" t="n">
-        <v>273.64</v>
+        <v>274.42</v>
       </c>
       <c r="F101" t="n">
         <v>280.29</v>
       </c>
       <c r="G101" t="n">
-        <v>510.21</v>
+        <v>509.54</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>302.08</v>
       </c>
       <c r="G102" t="n">
-        <v>531.33</v>
+        <v>532.25</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3234,13 +3234,13 @@
         <v>291.8</v>
       </c>
       <c r="E104" t="n">
-        <v>284.57</v>
+        <v>285.24</v>
       </c>
       <c r="F104" t="n">
         <v>280.52</v>
       </c>
       <c r="G104" t="n">
-        <v>541.87</v>
+        <v>541.3099999999999</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3262,13 +3262,13 @@
         <v>291.68</v>
       </c>
       <c r="E105" t="n">
-        <v>280.97</v>
+        <v>281.41</v>
       </c>
       <c r="F105" t="n">
         <v>274.66</v>
       </c>
       <c r="G105" t="n">
-        <v>531.5599999999999</v>
+        <v>531.1900000000001</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3292,13 +3292,13 @@
         <v>284.82</v>
       </c>
       <c r="E106" t="n">
-        <v>277.45</v>
+        <v>277</v>
       </c>
       <c r="F106" t="n">
         <v>276.15</v>
       </c>
       <c r="G106" t="n">
-        <v>534.61</v>
+        <v>534.99</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3322,13 +3322,13 @@
         <v>281.21</v>
       </c>
       <c r="E107" t="n">
-        <v>272.29</v>
+        <v>271.7</v>
       </c>
       <c r="F107" t="n">
         <v>282.58</v>
       </c>
       <c r="G107" t="n">
-        <v>290.36</v>
+        <v>290.86</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3352,13 +3352,13 @@
         <v>251.55</v>
       </c>
       <c r="E108" t="n">
-        <v>262.66</v>
+        <v>260.85</v>
       </c>
       <c r="F108" t="n">
         <v>262.31</v>
       </c>
       <c r="G108" t="n">
-        <v>272.33</v>
+        <v>273.85</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3378,13 +3378,13 @@
         <v>278.49</v>
       </c>
       <c r="E109" t="n">
-        <v>278.68</v>
+        <v>277.65</v>
       </c>
       <c r="F109" t="n">
         <v>280</v>
       </c>
       <c r="G109" t="n">
-        <v>303.13</v>
+        <v>304</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>276.14</v>
+        <v>275.87</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -3428,13 +3428,13 @@
         <v>267.13</v>
       </c>
       <c r="E111" t="n">
-        <v>257.43</v>
+        <v>258.42</v>
       </c>
       <c r="F111" t="n">
         <v>257.59</v>
       </c>
       <c r="G111" t="n">
-        <v>272.75</v>
+        <v>271.92</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>278.93</v>
       </c>
       <c r="G112" t="n">
-        <v>561.7</v>
+        <v>562.24</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>537.83</v>
+        <v>538.95</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -3500,13 +3500,13 @@
         <v>283.46</v>
       </c>
       <c r="E114" t="n">
-        <v>273.79</v>
+        <v>274.69</v>
       </c>
       <c r="F114" t="n">
         <v>278.33</v>
       </c>
       <c r="G114" t="n">
-        <v>512.47</v>
+        <v>511.72</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>535.65</v>
+        <v>536.79</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>290.45</v>
       </c>
       <c r="E116" t="n">
-        <v>289.06</v>
+        <v>289.59</v>
       </c>
       <c r="F116" t="n">
         <v>285.92</v>
@@ -3578,7 +3578,7 @@
         <v>276.4</v>
       </c>
       <c r="E117" t="n">
-        <v>274.92</v>
+        <v>273.16</v>
       </c>
       <c r="F117" t="n">
         <v>290.66</v>
@@ -3630,7 +3630,7 @@
         <v>284.4</v>
       </c>
       <c r="E119" t="n">
-        <v>274.75</v>
+        <v>275.1</v>
       </c>
       <c r="F119" t="n">
         <v>271.44</v>
@@ -3658,7 +3658,7 @@
         <v>273.33</v>
       </c>
       <c r="E120" t="n">
-        <v>271.62</v>
+        <v>269.94</v>
       </c>
       <c r="F120" t="n">
         <v>273.64</v>
@@ -3682,11 +3682,11 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>280.45</v>
+        <v>281.22</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>548.39</v>
+        <v>547.74</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>510.22</v>
+        <v>509.36</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>294.21</v>
+        <v>295.36</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -3820,13 +3820,13 @@
         <v>278.41</v>
       </c>
       <c r="E127" t="n">
-        <v>275.26</v>
+        <v>275.21</v>
       </c>
       <c r="F127" t="n">
         <v>281.1</v>
       </c>
       <c r="G127" t="n">
-        <v>280.37</v>
+        <v>280.41</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -3850,13 +3850,13 @@
         <v>278.26</v>
       </c>
       <c r="E128" t="n">
-        <v>271.22</v>
+        <v>271.34</v>
       </c>
       <c r="F128" t="n">
         <v>274.4</v>
       </c>
       <c r="G128" t="n">
-        <v>287.39</v>
+        <v>287.29</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -3880,13 +3880,13 @@
         <v>272.96</v>
       </c>
       <c r="E129" t="n">
-        <v>270.39</v>
+        <v>270.81</v>
       </c>
       <c r="F129" t="n">
         <v>271.23</v>
       </c>
       <c r="G129" t="n">
-        <v>287.25</v>
+        <v>286.89</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -3908,13 +3908,13 @@
         <v>269.1</v>
       </c>
       <c r="E130" t="n">
-        <v>267.28</v>
+        <v>267.54</v>
       </c>
       <c r="F130" t="n">
         <v>277.59</v>
       </c>
       <c r="G130" t="n">
-        <v>536.75</v>
+        <v>536.54</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -3938,13 +3938,13 @@
         <v>280.57</v>
       </c>
       <c r="E131" t="n">
-        <v>274.2</v>
+        <v>275.11</v>
       </c>
       <c r="F131" t="n">
         <v>269.07</v>
       </c>
       <c r="G131" t="n">
-        <v>512.48</v>
+        <v>511.71</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -3968,13 +3968,13 @@
         <v>283.03</v>
       </c>
       <c r="E132" t="n">
-        <v>277.59</v>
+        <v>276.35</v>
       </c>
       <c r="F132" t="n">
         <v>267.63</v>
       </c>
       <c r="G132" t="n">
-        <v>534.4400000000001</v>
+        <v>535.49</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -3994,13 +3994,13 @@
         <v>286.19</v>
       </c>
       <c r="E133" t="n">
-        <v>275.8</v>
+        <v>274.94</v>
       </c>
       <c r="F133" t="n">
         <v>267.42</v>
       </c>
       <c r="G133" t="n">
-        <v>545.1900000000001</v>
+        <v>545.92</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4020,13 +4020,13 @@
         <v>286.03</v>
       </c>
       <c r="E134" t="n">
-        <v>280.95</v>
+        <v>281.68</v>
       </c>
       <c r="F134" t="n">
         <v>276.73</v>
       </c>
       <c r="G134" t="n">
-        <v>549.16</v>
+        <v>548.54</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -4050,13 +4050,13 @@
         <v>283.53</v>
       </c>
       <c r="E135" t="n">
-        <v>279.36</v>
+        <v>279.94</v>
       </c>
       <c r="F135" t="n">
         <v>276.61</v>
       </c>
       <c r="G135" t="n">
-        <v>531.05</v>
+        <v>530.5700000000001</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -4080,13 +4080,13 @@
         <v>284.02</v>
       </c>
       <c r="E136" t="n">
-        <v>273.81</v>
+        <v>272.46</v>
       </c>
       <c r="F136" t="n">
         <v>272.43</v>
       </c>
       <c r="G136" t="n">
-        <v>535.02</v>
+        <v>536.16</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>273.64</v>
       </c>
       <c r="E137" t="n">
-        <v>270.87</v>
+        <v>270.51</v>
       </c>
       <c r="F137" t="n">
         <v>260.61</v>
@@ -4138,13 +4138,13 @@
         <v>274.96</v>
       </c>
       <c r="E138" t="n">
-        <v>280.2</v>
+        <v>279.88</v>
       </c>
       <c r="F138" t="n">
         <v>279.33</v>
       </c>
       <c r="G138" t="n">
-        <v>525.45</v>
+        <v>525.72</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>256.11</v>
       </c>
       <c r="E139" t="n">
-        <v>267.1</v>
+        <v>266.02</v>
       </c>
       <c r="F139" t="n">
         <v>269.97</v>
@@ -4196,13 +4196,13 @@
         <v>276</v>
       </c>
       <c r="E140" t="n">
-        <v>272.5</v>
+        <v>273.64</v>
       </c>
       <c r="F140" t="n">
         <v>297.44</v>
       </c>
       <c r="G140" t="n">
-        <v>494.43</v>
+        <v>493.47</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -4224,13 +4224,13 @@
         <v>281.5</v>
       </c>
       <c r="E141" t="n">
-        <v>271.18</v>
+        <v>272.09</v>
       </c>
       <c r="F141" t="n">
         <v>275.62</v>
       </c>
       <c r="G141" t="n">
-        <v>513.08</v>
+        <v>512.3099999999999</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -4254,13 +4254,13 @@
         <v>293.59</v>
       </c>
       <c r="E142" t="n">
-        <v>284.82</v>
+        <v>285.05</v>
       </c>
       <c r="F142" t="n">
         <v>284.24</v>
       </c>
       <c r="G142" t="n">
-        <v>295.41</v>
+        <v>295.22</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -4284,13 +4284,13 @@
         <v>294.91</v>
       </c>
       <c r="E143" t="n">
-        <v>289.8</v>
+        <v>289.25</v>
       </c>
       <c r="F143" t="n">
         <v>284.39</v>
       </c>
       <c r="G143" t="n">
-        <v>295.23</v>
+        <v>295.69</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -4314,13 +4314,13 @@
         <v>284.28</v>
       </c>
       <c r="E144" t="n">
-        <v>290.4</v>
+        <v>289.91</v>
       </c>
       <c r="F144" t="n">
         <v>286.21</v>
       </c>
       <c r="G144" t="n">
-        <v>297.1</v>
+        <v>297.51</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -4344,13 +4344,13 @@
         <v>289.02</v>
       </c>
       <c r="E145" t="n">
-        <v>286.03</v>
+        <v>285.13</v>
       </c>
       <c r="F145" t="n">
         <v>289.82</v>
       </c>
       <c r="G145" t="n">
-        <v>289.96</v>
+        <v>290.71</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>282.62</v>
       </c>
       <c r="E147" t="n">
-        <v>280.46</v>
+        <v>281.6</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         <v>285.41</v>
       </c>
       <c r="E148" t="n">
-        <v>271.59</v>
+        <v>272.53</v>
       </c>
       <c r="F148" t="n">
         <v>274.26</v>
       </c>
       <c r="G148" t="n">
-        <v>293.42</v>
+        <v>292.63</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -4450,13 +4450,13 @@
         <v>278.71</v>
       </c>
       <c r="E149" t="n">
-        <v>267.46</v>
+        <v>266.61</v>
       </c>
       <c r="F149" t="n">
         <v>261.9</v>
       </c>
       <c r="G149" t="n">
-        <v>265.1</v>
+        <v>265.81</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -4480,13 +4480,13 @@
         <v>262.08</v>
       </c>
       <c r="E150" t="n">
-        <v>262.57</v>
+        <v>262.76</v>
       </c>
       <c r="F150" t="n">
         <v>255.89</v>
       </c>
       <c r="G150" t="n">
-        <v>268.27</v>
+        <v>268.1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>269.73</v>
       </c>
       <c r="E151" t="n">
-        <v>274.03</v>
+        <v>273.04</v>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
@@ -4536,7 +4536,7 @@
         <v>268.58</v>
       </c>
       <c r="E152" t="n">
-        <v>261.15</v>
+        <v>259.79</v>
       </c>
       <c r="F152" t="n">
         <v>261.98</v>
@@ -4564,13 +4564,13 @@
         <v>277.51</v>
       </c>
       <c r="E153" t="n">
-        <v>275.78</v>
+        <v>274.16</v>
       </c>
       <c r="F153" t="n">
         <v>275.96</v>
       </c>
       <c r="G153" t="n">
-        <v>278.54</v>
+        <v>279.91</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>285.71</v>
       </c>
       <c r="E154" t="n">
-        <v>273.43</v>
+        <v>273.88</v>
       </c>
       <c r="F154" t="n">
         <v>284.32</v>
@@ -4622,7 +4622,7 @@
         <v>282.38</v>
       </c>
       <c r="E155" t="n">
-        <v>279.59</v>
+        <v>278.33</v>
       </c>
       <c r="F155" t="n">
         <v>274.77</v>
@@ -4650,7 +4650,7 @@
         <v>284.03</v>
       </c>
       <c r="E156" t="n">
-        <v>277.56</v>
+        <v>278.57</v>
       </c>
       <c r="F156" t="n">
         <v>278.15</v>
@@ -4678,13 +4678,13 @@
         <v>289.81</v>
       </c>
       <c r="E157" t="n">
-        <v>285.8</v>
+        <v>286.52</v>
       </c>
       <c r="F157" t="n">
         <v>279.69</v>
       </c>
       <c r="G157" t="n">
-        <v>297.61</v>
+        <v>297.01</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>311.85</v>
       </c>
       <c r="E158" t="n">
-        <v>307.82</v>
+        <v>309.01</v>
       </c>
       <c r="F158" t="n">
         <v>289.75</v>
@@ -4736,13 +4736,13 @@
         <v>293.52</v>
       </c>
       <c r="E159" t="n">
-        <v>284.48</v>
+        <v>285.38</v>
       </c>
       <c r="F159" t="n">
         <v>281.39</v>
       </c>
       <c r="G159" t="n">
-        <v>289.55</v>
+        <v>288.8</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -4762,13 +4762,13 @@
         <v>272.82</v>
       </c>
       <c r="E160" t="n">
-        <v>269.35</v>
+        <v>268.93</v>
       </c>
       <c r="F160" t="n">
         <v>265.95</v>
       </c>
       <c r="G160" t="n">
-        <v>271.61</v>
+        <v>271.97</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -4792,13 +4792,13 @@
         <v>276.71</v>
       </c>
       <c r="E161" t="n">
-        <v>268.63</v>
+        <v>268.94</v>
       </c>
       <c r="F161" t="n">
         <v>229.23</v>
       </c>
       <c r="G161" t="n">
-        <v>258.58</v>
+        <v>258.33</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>283.39</v>
       </c>
       <c r="E165" t="n">
-        <v>260.29</v>
+        <v>260.85</v>
       </c>
       <c r="F165" t="n">
         <v>191.51</v>
@@ -4940,11 +4940,11 @@
         <v>282.17</v>
       </c>
       <c r="E167" t="n">
-        <v>283.08</v>
+        <v>283.9</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
-        <v>270.12</v>
+        <v>269.43</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>277.56</v>
       </c>
       <c r="E168" t="n">
-        <v>273.37</v>
+        <v>274.09</v>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
@@ -4992,13 +4992,13 @@
         <v>266.57</v>
       </c>
       <c r="E169" t="n">
-        <v>267.84</v>
+        <v>266.83</v>
       </c>
       <c r="F169" t="n">
         <v>273.16</v>
       </c>
       <c r="G169" t="n">
-        <v>284.38</v>
+        <v>285.24</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -5022,13 +5022,13 @@
         <v>280.56</v>
       </c>
       <c r="E170" t="n">
-        <v>276.36</v>
+        <v>276.98</v>
       </c>
       <c r="F170" t="n">
         <v>267.67</v>
       </c>
       <c r="G170" t="n">
-        <v>315.75</v>
+        <v>315.23</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>283.88</v>
       </c>
       <c r="E171" t="n">
-        <v>279.48</v>
+        <v>279.81</v>
       </c>
       <c r="F171" t="n">
         <v>280</v>
@@ -5080,13 +5080,13 @@
         <v>276.27</v>
       </c>
       <c r="E172" t="n">
-        <v>276.85</v>
+        <v>275.73</v>
       </c>
       <c r="F172" t="n">
         <v>277.41</v>
       </c>
       <c r="G172" t="n">
-        <v>286.23</v>
+        <v>287.18</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>282.58</v>
       </c>
       <c r="E173" t="n">
-        <v>279.5</v>
+        <v>279</v>
       </c>
       <c r="F173" t="n">
         <v>280.21</v>
@@ -5138,7 +5138,7 @@
         <v>278.88</v>
       </c>
       <c r="E174" t="n">
-        <v>296.37</v>
+        <v>297.31</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
@@ -5164,13 +5164,13 @@
         <v>283.49</v>
       </c>
       <c r="E175" t="n">
-        <v>271.51</v>
+        <v>272.27</v>
       </c>
       <c r="F175" t="n">
         <v>278.01</v>
       </c>
       <c r="G175" t="n">
-        <v>320.84</v>
+        <v>320.2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -5194,11 +5194,11 @@
         <v>297.97</v>
       </c>
       <c r="E176" t="n">
-        <v>294.73</v>
+        <v>295.7</v>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>349.98</v>
+        <v>349.16</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>285.12</v>
       </c>
       <c r="E179" t="n">
-        <v>282.53</v>
+        <v>283.29</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
@@ -5288,13 +5288,13 @@
         <v>285.51</v>
       </c>
       <c r="E180" t="n">
-        <v>285.98</v>
+        <v>287.13</v>
       </c>
       <c r="F180" t="n">
         <v>249.2</v>
       </c>
       <c r="G180" t="n">
-        <v>266.23</v>
+        <v>265.25</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>234.39</v>
       </c>
       <c r="G181" t="n">
-        <v>228.45</v>
+        <v>227.68</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -5340,13 +5340,13 @@
         <v>278.28</v>
       </c>
       <c r="E182" t="n">
-        <v>270.61</v>
+        <v>271.33</v>
       </c>
       <c r="F182" t="n">
         <v>255.66</v>
       </c>
       <c r="G182" t="n">
-        <v>256.84</v>
+        <v>256.24</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -5370,13 +5370,13 @@
         <v>267.37</v>
       </c>
       <c r="E183" t="n">
-        <v>266.72</v>
+        <v>266.5</v>
       </c>
       <c r="F183" t="n">
         <v>259.63</v>
       </c>
       <c r="G183" t="n">
-        <v>271.1</v>
+        <v>271.28</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -5400,13 +5400,13 @@
         <v>271.48</v>
       </c>
       <c r="E184" t="n">
-        <v>264.22</v>
+        <v>264.46</v>
       </c>
       <c r="F184" t="n">
         <v>259.37</v>
       </c>
       <c r="G184" t="n">
-        <v>265.09</v>
+        <v>264.88</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>281.17</v>
       </c>
       <c r="E185" t="n">
-        <v>275.21</v>
+        <v>275.83</v>
       </c>
       <c r="F185" t="n">
         <v>274.4</v>
@@ -5458,13 +5458,13 @@
         <v>275.76</v>
       </c>
       <c r="E186" t="n">
-        <v>266.14</v>
+        <v>267.2</v>
       </c>
       <c r="F186" t="n">
         <v>265.51</v>
       </c>
       <c r="G186" t="n">
-        <v>284.97</v>
+        <v>284.07</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -5488,13 +5488,13 @@
         <v>265.94</v>
       </c>
       <c r="E187" t="n">
-        <v>259.08</v>
+        <v>257.91</v>
       </c>
       <c r="F187" t="n">
         <v>258.42</v>
       </c>
       <c r="G187" t="n">
-        <v>264.61</v>
+        <v>265.59</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>271.64</v>
       </c>
       <c r="E188" t="n">
-        <v>267.47</v>
+        <v>266.33</v>
       </c>
       <c r="F188" t="n">
         <v>266.61</v>
@@ -5544,7 +5544,7 @@
         <v>273.58</v>
       </c>
       <c r="E189" t="n">
-        <v>269.43</v>
+        <v>269.16</v>
       </c>
       <c r="F189" t="n">
         <v>273.92</v>
@@ -5572,13 +5572,13 @@
         <v>279.31</v>
       </c>
       <c r="E190" t="n">
-        <v>274.11</v>
+        <v>273.47</v>
       </c>
       <c r="F190" t="n">
         <v>276.34</v>
       </c>
       <c r="G190" t="n">
-        <v>289.56</v>
+        <v>290.1</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -5602,13 +5602,13 @@
         <v>286.04</v>
       </c>
       <c r="E191" t="n">
-        <v>286.82</v>
+        <v>285.63</v>
       </c>
       <c r="F191" t="n">
         <v>283.62</v>
       </c>
       <c r="G191" t="n">
-        <v>301.08</v>
+        <v>302.1</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>273.68</v>
       </c>
       <c r="E192" t="n">
-        <v>276.8</v>
+        <v>275.35</v>
       </c>
       <c r="F192" t="n">
         <v>279.31</v>
@@ -5660,7 +5660,7 @@
         <v>291.85</v>
       </c>
       <c r="E193" t="n">
-        <v>307.02</v>
+        <v>307.71</v>
       </c>
       <c r="F193" t="n">
         <v>302.5</v>
@@ -5688,7 +5688,7 @@
         <v>285.7</v>
       </c>
       <c r="E194" t="n">
-        <v>289.06</v>
+        <v>287.48</v>
       </c>
       <c r="F194" t="n">
         <v>287.06</v>
@@ -5716,13 +5716,13 @@
         <v>271.21</v>
       </c>
       <c r="E195" t="n">
-        <v>271.12</v>
+        <v>272.35</v>
       </c>
       <c r="F195" t="n">
         <v>270.41</v>
       </c>
       <c r="G195" t="n">
-        <v>312.04</v>
+        <v>311</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -5788,13 +5788,13 @@
         <v>290.25</v>
       </c>
       <c r="E198" t="n">
-        <v>280.28</v>
+        <v>279.95</v>
       </c>
       <c r="F198" t="n">
         <v>275.97</v>
       </c>
       <c r="G198" t="n">
-        <v>289.51</v>
+        <v>289.8</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -5818,13 +5818,13 @@
         <v>283.31</v>
       </c>
       <c r="E199" t="n">
-        <v>279.19</v>
+        <v>278.42</v>
       </c>
       <c r="F199" t="n">
         <v>275.49</v>
       </c>
       <c r="G199" t="n">
-        <v>289.68</v>
+        <v>290.33</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -5848,13 +5848,13 @@
         <v>269.76</v>
       </c>
       <c r="E200" t="n">
-        <v>264.05</v>
+        <v>264.24</v>
       </c>
       <c r="F200" t="n">
         <v>259.04</v>
       </c>
       <c r="G200" t="n">
-        <v>268.82</v>
+        <v>268.65</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -5900,13 +5900,13 @@
         <v>282.24</v>
       </c>
       <c r="E202" t="n">
-        <v>275.42</v>
+        <v>273.89</v>
       </c>
       <c r="F202" t="n">
         <v>267.74</v>
       </c>
       <c r="G202" t="n">
-        <v>278.57</v>
+        <v>279.86</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -5948,13 +5948,13 @@
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
-        <v>274.37</v>
+        <v>275.14</v>
       </c>
       <c r="F204" t="n">
         <v>256.32</v>
       </c>
       <c r="G204" t="n">
-        <v>271.82</v>
+        <v>271.17</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -5978,13 +5978,13 @@
         <v>280.6</v>
       </c>
       <c r="E205" t="n">
-        <v>269.59</v>
+        <v>268.06</v>
       </c>
       <c r="F205" t="n">
         <v>265.05</v>
       </c>
       <c r="G205" t="n">
-        <v>270.94</v>
+        <v>272.23</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -6008,13 +6008,13 @@
         <v>291.14</v>
       </c>
       <c r="E206" t="n">
-        <v>282.87</v>
+        <v>283.99</v>
       </c>
       <c r="F206" t="n">
         <v>304.21</v>
       </c>
       <c r="G206" t="n">
-        <v>283.46</v>
+        <v>282.51</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -6038,13 +6038,13 @@
         <v>283.64</v>
       </c>
       <c r="E207" t="n">
-        <v>276.71</v>
+        <v>275.63</v>
       </c>
       <c r="F207" t="n">
         <v>274.26</v>
       </c>
       <c r="G207" t="n">
-        <v>271.01</v>
+        <v>271.92</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>297.01</v>
       </c>
       <c r="E208" t="n">
-        <v>302.3</v>
+        <v>302.94</v>
       </c>
       <c r="F208" t="n">
         <v>304.52</v>
@@ -6096,13 +6096,13 @@
         <v>278.27</v>
       </c>
       <c r="E209" t="n">
-        <v>272.15</v>
+        <v>271.18</v>
       </c>
       <c r="F209" t="n">
         <v>264.67</v>
       </c>
       <c r="G209" t="n">
-        <v>257.28</v>
+        <v>258.1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>294.22</v>
       </c>
       <c r="E210" t="n">
-        <v>287.36</v>
+        <v>287.51</v>
       </c>
       <c r="F210" t="n">
         <v>281.36</v>
@@ -6154,7 +6154,7 @@
         <v>281.38</v>
       </c>
       <c r="E211" t="n">
-        <v>267.97</v>
+        <v>267.59</v>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
         <v>299.29</v>
       </c>
       <c r="E212" t="n">
-        <v>295.05</v>
+        <v>295.23</v>
       </c>
       <c r="F212" t="n">
         <v>283.97</v>
@@ -6208,13 +6208,13 @@
         <v>295.69</v>
       </c>
       <c r="E213" t="n">
-        <v>290.08</v>
+        <v>289.76</v>
       </c>
       <c r="F213" t="n">
         <v>281.83</v>
       </c>
       <c r="G213" t="n">
-        <v>277.76</v>
+        <v>278.03</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>285.16</v>
       </c>
       <c r="E214" t="n">
-        <v>277.01</v>
+        <v>277.33</v>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
@@ -6262,7 +6262,7 @@
         <v>279.87</v>
       </c>
       <c r="G215" t="n">
-        <v>282.72</v>
+        <v>283.49</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -6286,13 +6286,13 @@
         <v>283.54</v>
       </c>
       <c r="E216" t="n">
-        <v>280.39</v>
+        <v>280.17</v>
       </c>
       <c r="F216" t="n">
         <v>279.97</v>
       </c>
       <c r="G216" t="n">
-        <v>302.43</v>
+        <v>302.61</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -6316,13 +6316,13 @@
         <v>294.92</v>
       </c>
       <c r="E217" t="n">
-        <v>286.05</v>
+        <v>286.11</v>
       </c>
       <c r="F217" t="n">
         <v>282.52</v>
       </c>
       <c r="G217" t="n">
-        <v>288.32</v>
+        <v>288.27</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>288.1</v>
       </c>
       <c r="E219" t="n">
-        <v>285.54</v>
+        <v>286.73</v>
       </c>
       <c r="F219" t="n">
         <v>282.04</v>
@@ -6466,13 +6466,13 @@
         <v>287.47</v>
       </c>
       <c r="E223" t="n">
-        <v>271.17</v>
+        <v>270.89</v>
       </c>
       <c r="F223" t="n">
         <v>281.6</v>
       </c>
       <c r="G223" t="n">
-        <v>293.84</v>
+        <v>294.09</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -6496,13 +6496,13 @@
         <v>268.96</v>
       </c>
       <c r="E224" t="n">
-        <v>275.64</v>
+        <v>275.05</v>
       </c>
       <c r="F224" t="n">
         <v>274.16</v>
       </c>
       <c r="G224" t="n">
-        <v>276.34</v>
+        <v>276.84</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -6574,13 +6574,13 @@
         <v>280.51</v>
       </c>
       <c r="E227" t="n">
-        <v>279.27</v>
+        <v>278.22</v>
       </c>
       <c r="F227" t="n">
         <v>282.27</v>
       </c>
       <c r="G227" t="n">
-        <v>283.57</v>
+        <v>284.45</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>283.02</v>
       </c>
       <c r="E229" t="n">
-        <v>273.01</v>
+        <v>273.25</v>
       </c>
       <c r="F229" t="n">
         <v>282.67</v>
@@ -6656,7 +6656,7 @@
         <v>292.62</v>
       </c>
       <c r="E230" t="n">
-        <v>285.72</v>
+        <v>285.99</v>
       </c>
       <c r="F230" t="n">
         <v>276.6</v>
@@ -6684,12 +6684,14 @@
         <v>302.76</v>
       </c>
       <c r="E231" t="n">
-        <v>290.56</v>
+        <v>291.29</v>
       </c>
       <c r="F231" t="n">
         <v>282.13</v>
       </c>
-      <c r="G231" t="inlineStr"/>
+      <c r="G231" t="n">
+        <v>330.72</v>
+      </c>
       <c r="H231" t="inlineStr">
         <is>
           <t>L8</t>
@@ -6712,13 +6714,13 @@
         <v>285.23</v>
       </c>
       <c r="E232" t="n">
-        <v>274.46</v>
+        <v>272.93</v>
       </c>
       <c r="F232" t="n">
         <v>280.69</v>
       </c>
       <c r="G232" t="n">
-        <v>290.16</v>
+        <v>291.45</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -6742,7 +6744,7 @@
         <v>304.98</v>
       </c>
       <c r="E233" t="n">
-        <v>292.25</v>
+        <v>292.19</v>
       </c>
       <c r="F233" t="n">
         <v>291.82</v>
@@ -6770,13 +6772,13 @@
         <v>281.54</v>
       </c>
       <c r="E234" t="n">
-        <v>278.19</v>
+        <v>277.45</v>
       </c>
       <c r="F234" t="n">
         <v>278.55</v>
       </c>
       <c r="G234" t="n">
-        <v>298.64</v>
+        <v>299.27</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -6820,13 +6822,13 @@
         <v>301.02</v>
       </c>
       <c r="E236" t="n">
-        <v>298.52</v>
+        <v>298.34</v>
       </c>
       <c r="F236" t="n">
         <v>293.12</v>
       </c>
       <c r="G236" t="n">
-        <v>308.13</v>
+        <v>308.28</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -6850,13 +6852,13 @@
         <v>279.21</v>
       </c>
       <c r="E237" t="n">
-        <v>277.12</v>
+        <v>276.2</v>
       </c>
       <c r="F237" t="n">
         <v>274.71</v>
       </c>
       <c r="G237" t="n">
-        <v>296.65</v>
+        <v>297.44</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -6880,13 +6882,13 @@
         <v>300.96</v>
       </c>
       <c r="E238" t="n">
-        <v>300.31</v>
+        <v>298.63</v>
       </c>
       <c r="F238" t="n">
         <v>297.82</v>
       </c>
       <c r="G238" t="n">
-        <v>265.63</v>
+        <v>267.05</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -6930,13 +6932,13 @@
         <v>305.56</v>
       </c>
       <c r="E240" t="n">
-        <v>294.47</v>
+        <v>295.28</v>
       </c>
       <c r="F240" t="n">
         <v>279.27</v>
       </c>
       <c r="G240" t="n">
-        <v>300.32</v>
+        <v>299.64</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -6960,13 +6962,13 @@
         <v>294.41</v>
       </c>
       <c r="E241" t="n">
-        <v>280.3</v>
+        <v>280.49</v>
       </c>
       <c r="F241" t="n">
         <v>273.8</v>
       </c>
       <c r="G241" t="n">
-        <v>274.14</v>
+        <v>273.97</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -6990,13 +6992,13 @@
         <v>278.77</v>
       </c>
       <c r="E242" t="n">
-        <v>274</v>
+        <v>273.82</v>
       </c>
       <c r="F242" t="n">
         <v>267.79</v>
       </c>
       <c r="G242" t="n">
-        <v>269.34</v>
+        <v>269.49</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
@@ -7020,13 +7022,13 @@
         <v>267.01</v>
       </c>
       <c r="E243" t="n">
-        <v>252.47</v>
+        <v>251.75</v>
       </c>
       <c r="F243" t="n">
         <v>248.63</v>
       </c>
       <c r="G243" t="n">
-        <v>280.42</v>
+        <v>281.02</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -7050,7 +7052,7 @@
         <v>289.17</v>
       </c>
       <c r="E244" t="n">
-        <v>291.76</v>
+        <v>292.62</v>
       </c>
       <c r="F244" t="n">
         <v>283.47</v>
@@ -7078,13 +7080,13 @@
         <v>273.42</v>
       </c>
       <c r="E245" t="n">
-        <v>269.15</v>
+        <v>267.88</v>
       </c>
       <c r="F245" t="n">
         <v>262.92</v>
       </c>
       <c r="G245" t="n">
-        <v>268.6</v>
+        <v>269.68</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
@@ -7108,7 +7110,7 @@
         <v>297.14</v>
       </c>
       <c r="E246" t="n">
-        <v>295.88</v>
+        <v>296.15</v>
       </c>
       <c r="F246" t="n">
         <v>303.27</v>
@@ -7134,7 +7136,7 @@
         <v>300.72</v>
       </c>
       <c r="E247" t="n">
-        <v>295.63</v>
+        <v>296.1</v>
       </c>
       <c r="F247" t="n">
         <v>298.49</v>
@@ -7158,7 +7160,7 @@
         <v>313.02</v>
       </c>
       <c r="E248" t="n">
-        <v>304.18</v>
+        <v>304.99</v>
       </c>
       <c r="F248" t="n">
         <v>312.27</v>
@@ -7186,13 +7188,13 @@
         <v>285.34</v>
       </c>
       <c r="E249" t="n">
-        <v>283.69</v>
+        <v>282.61</v>
       </c>
       <c r="F249" t="n">
         <v>283.64</v>
       </c>
       <c r="G249" t="n">
-        <v>285.29</v>
+        <v>286.2</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -7236,13 +7238,13 @@
         <v>281.54</v>
       </c>
       <c r="E251" t="n">
-        <v>282.63</v>
+        <v>281.44</v>
       </c>
       <c r="F251" t="n">
         <v>276.87</v>
       </c>
       <c r="G251" t="n">
-        <v>279.69</v>
+        <v>280.71</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -7266,7 +7268,7 @@
         <v>274.01</v>
       </c>
       <c r="E252" t="n">
-        <v>272.4</v>
+        <v>271.76</v>
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
@@ -7292,13 +7294,13 @@
         <v>297.88</v>
       </c>
       <c r="E253" t="n">
-        <v>290.29</v>
+        <v>290.3</v>
       </c>
       <c r="F253" t="n">
         <v>285.67</v>
       </c>
       <c r="G253" t="n">
-        <v>260.49</v>
+        <v>260.47</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
@@ -7346,13 +7348,13 @@
         <v>284.34</v>
       </c>
       <c r="E255" t="n">
-        <v>281.6</v>
+        <v>280.34</v>
       </c>
       <c r="F255" t="n">
         <v>285.94</v>
       </c>
       <c r="G255" t="n">
-        <v>289.88</v>
+        <v>290.94</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -7376,13 +7378,13 @@
         <v>290.61</v>
       </c>
       <c r="E256" t="n">
-        <v>288.38</v>
+        <v>288.97</v>
       </c>
       <c r="F256" t="n">
         <v>285.77</v>
       </c>
       <c r="G256" t="n">
-        <v>303.83</v>
+        <v>303.33</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
@@ -7430,13 +7432,13 @@
         <v>276.83</v>
       </c>
       <c r="E258" t="n">
-        <v>270.63</v>
+        <v>270.66</v>
       </c>
       <c r="F258" t="n">
         <v>270.32</v>
       </c>
       <c r="G258" t="n">
-        <v>293.73</v>
+        <v>293.71</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -7460,7 +7462,7 @@
         <v>286.55</v>
       </c>
       <c r="E259" t="n">
-        <v>283.06</v>
+        <v>282.06</v>
       </c>
       <c r="F259" t="n">
         <v>280.31</v>
@@ -7508,13 +7510,13 @@
         <v>277.24</v>
       </c>
       <c r="E261" t="n">
-        <v>274.73</v>
+        <v>275.28</v>
       </c>
       <c r="F261" t="n">
         <v>278.41</v>
       </c>
       <c r="G261" t="n">
-        <v>293.4</v>
+        <v>292.94</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
@@ -7532,7 +7534,7 @@
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="n">
-        <v>295.72</v>
+        <v>295.19</v>
       </c>
       <c r="F262" t="n">
         <v>295.34</v>
@@ -7560,7 +7562,7 @@
         <v>282.33</v>
       </c>
       <c r="E263" t="n">
-        <v>271.74</v>
+        <v>272.71</v>
       </c>
       <c r="F263" t="n">
         <v>283.62</v>
@@ -7588,7 +7590,7 @@
         <v>289.85</v>
       </c>
       <c r="E264" t="n">
-        <v>276.73</v>
+        <v>277.56</v>
       </c>
       <c r="F264" t="n">
         <v>283.16</v>
@@ -7616,13 +7618,13 @@
         <v>280.82</v>
       </c>
       <c r="E265" t="n">
-        <v>276.76</v>
+        <v>277.34</v>
       </c>
       <c r="F265" t="n">
         <v>277.8</v>
       </c>
       <c r="G265" t="n">
-        <v>288.62</v>
+        <v>288.14</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
@@ -7646,13 +7648,13 @@
         <v>273.3</v>
       </c>
       <c r="E266" t="n">
-        <v>273.32</v>
+        <v>273.08</v>
       </c>
       <c r="F266" t="n">
         <v>276.11</v>
       </c>
       <c r="G266" t="n">
-        <v>294.25</v>
+        <v>294.46</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -7676,13 +7678,13 @@
         <v>271.61</v>
       </c>
       <c r="E267" t="n">
-        <v>267.85</v>
+        <v>267.26</v>
       </c>
       <c r="F267" t="n">
         <v>271.45</v>
       </c>
       <c r="G267" t="n">
-        <v>280.61</v>
+        <v>281.11</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -7706,13 +7708,13 @@
         <v>281.2</v>
       </c>
       <c r="E268" t="n">
-        <v>278.63</v>
+        <v>278.12</v>
       </c>
       <c r="F268" t="n">
         <v>274.2</v>
       </c>
       <c r="G268" t="n">
-        <v>291.63</v>
+        <v>292.07</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -7758,7 +7760,7 @@
         <v>280.24</v>
       </c>
       <c r="E270" t="n">
-        <v>267.98</v>
+        <v>266.89</v>
       </c>
       <c r="F270" t="n">
         <v>246.17</v>
@@ -7782,7 +7784,7 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>281.31</v>
+        <v>280.33</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -7806,13 +7808,13 @@
         <v>270.24</v>
       </c>
       <c r="E272" t="n">
-        <v>265.13</v>
+        <v>266.12</v>
       </c>
       <c r="F272" t="n">
         <v>269.3</v>
       </c>
       <c r="G272" t="n">
-        <v>273.54</v>
+        <v>272.71</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
@@ -7836,13 +7838,13 @@
         <v>261.54</v>
       </c>
       <c r="E273" t="n">
-        <v>253.12</v>
+        <v>252.54</v>
       </c>
       <c r="F273" t="n">
         <v>257.89</v>
       </c>
       <c r="G273" t="n">
-        <v>269.42</v>
+        <v>269.9</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
@@ -7866,7 +7868,7 @@
         <v>287.87</v>
       </c>
       <c r="E274" t="n">
-        <v>284.65</v>
+        <v>282.98</v>
       </c>
       <c r="F274" t="n">
         <v>284.62</v>
@@ -7894,7 +7896,7 @@
         <v>278.1</v>
       </c>
       <c r="E275" t="n">
-        <v>272.11</v>
+        <v>272.38</v>
       </c>
       <c r="F275" t="n">
         <v>277.54</v>
@@ -7922,13 +7924,13 @@
         <v>270.4</v>
       </c>
       <c r="E276" t="n">
-        <v>265.37</v>
+        <v>266.32</v>
       </c>
       <c r="F276" t="n">
         <v>280.22</v>
       </c>
       <c r="G276" t="n">
-        <v>290.14</v>
+        <v>289.33</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -7952,13 +7954,13 @@
         <v>288.62</v>
       </c>
       <c r="E277" t="n">
-        <v>287.37</v>
+        <v>288.01</v>
       </c>
       <c r="F277" t="n">
         <v>286.4</v>
       </c>
       <c r="G277" t="n">
-        <v>499.22</v>
+        <v>498.68</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
@@ -7982,13 +7984,13 @@
         <v>291.79</v>
       </c>
       <c r="E278" t="n">
-        <v>288.01</v>
+        <v>287.39</v>
       </c>
       <c r="F278" t="n">
         <v>298.49</v>
       </c>
       <c r="G278" t="n">
-        <v>527.5</v>
+        <v>528.02</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -8012,13 +8014,13 @@
         <v>294</v>
       </c>
       <c r="E279" t="n">
-        <v>288.51</v>
+        <v>288.57</v>
       </c>
       <c r="F279" t="n">
         <v>291.68</v>
       </c>
       <c r="G279" t="n">
-        <v>521.37</v>
+        <v>521.3200000000001</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -8042,13 +8044,13 @@
         <v>280.6</v>
       </c>
       <c r="E280" t="n">
-        <v>284.69</v>
+        <v>285.2</v>
       </c>
       <c r="F280" t="n">
         <v>285.32</v>
       </c>
       <c r="G280" t="n">
-        <v>516.5700000000001</v>
+        <v>516.13</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -8072,13 +8074,13 @@
         <v>270.33</v>
       </c>
       <c r="E281" t="n">
-        <v>271.73</v>
+        <v>271.41</v>
       </c>
       <c r="F281" t="n">
         <v>285.18</v>
       </c>
       <c r="G281" t="n">
-        <v>291.67</v>
+        <v>291.94</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
@@ -8124,13 +8126,13 @@
         <v>274.18</v>
       </c>
       <c r="E283" t="n">
-        <v>272.33</v>
+        <v>272.38</v>
       </c>
       <c r="F283" t="n">
         <v>280.87</v>
       </c>
       <c r="G283" t="n">
-        <v>293.15</v>
+        <v>293.11</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
@@ -8152,7 +8154,7 @@
         <v>281</v>
       </c>
       <c r="G284" t="n">
-        <v>299.01</v>
+        <v>299.95</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
@@ -8176,13 +8178,13 @@
         <v>287.38</v>
       </c>
       <c r="E285" t="n">
-        <v>283.33</v>
+        <v>284.39</v>
       </c>
       <c r="F285" t="n">
         <v>280.47</v>
       </c>
       <c r="G285" t="n">
-        <v>304.42</v>
+        <v>303.52</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
@@ -8206,13 +8208,13 @@
         <v>289.69</v>
       </c>
       <c r="E286" t="n">
-        <v>316.36</v>
+        <v>315.22</v>
       </c>
       <c r="F286" t="n">
         <v>309.27</v>
       </c>
       <c r="G286" t="n">
-        <v>308.87</v>
+        <v>309.83</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
@@ -8236,13 +8238,13 @@
         <v>298.25</v>
       </c>
       <c r="E287" t="n">
-        <v>292.74</v>
+        <v>293.36</v>
       </c>
       <c r="F287" t="n">
         <v>287.6</v>
       </c>
       <c r="G287" t="n">
-        <v>305.35</v>
+        <v>304.83</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
@@ -8266,13 +8268,13 @@
         <v>281.49</v>
       </c>
       <c r="E288" t="n">
-        <v>280.24</v>
+        <v>278.75</v>
       </c>
       <c r="F288" t="n">
         <v>273.85</v>
       </c>
       <c r="G288" t="n">
-        <v>281.11</v>
+        <v>282.36</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
@@ -8296,7 +8298,7 @@
         <v>298.29</v>
       </c>
       <c r="E289" t="n">
-        <v>280.14</v>
+        <v>280.47</v>
       </c>
       <c r="F289" t="n">
         <v>261.82</v>
@@ -8392,13 +8394,13 @@
         <v>282.45</v>
       </c>
       <c r="E293" t="n">
-        <v>275.91</v>
+        <v>274.77</v>
       </c>
       <c r="F293" t="n">
         <v>269.1</v>
       </c>
       <c r="G293" t="n">
-        <v>286.78</v>
+        <v>287.74</v>
       </c>
       <c r="H293" t="inlineStr">
         <is>
@@ -8422,13 +8424,13 @@
         <v>285.85</v>
       </c>
       <c r="E294" t="n">
-        <v>282.36</v>
+        <v>280.85</v>
       </c>
       <c r="F294" t="n">
         <v>280.78</v>
       </c>
       <c r="G294" t="n">
-        <v>292.25</v>
+        <v>293.54</v>
       </c>
       <c r="H294" t="inlineStr">
         <is>
@@ -8452,13 +8454,13 @@
         <v>268.75</v>
       </c>
       <c r="E295" t="n">
-        <v>266.72</v>
+        <v>265.53</v>
       </c>
       <c r="F295" t="n">
         <v>271.16</v>
       </c>
       <c r="G295" t="n">
-        <v>280.63</v>
+        <v>281.65</v>
       </c>
       <c r="H295" t="inlineStr">
         <is>
@@ -8502,13 +8504,13 @@
         <v>272.26</v>
       </c>
       <c r="E297" t="n">
-        <v>260.05</v>
+        <v>260.97</v>
       </c>
       <c r="F297" t="n">
         <v>263.26</v>
       </c>
       <c r="G297" t="n">
-        <v>288.21</v>
+        <v>287.42</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
@@ -8532,13 +8534,13 @@
         <v>273.22</v>
       </c>
       <c r="E298" t="n">
-        <v>266.56</v>
+        <v>267.09</v>
       </c>
       <c r="F298" t="n">
         <v>275.43</v>
       </c>
       <c r="G298" t="n">
-        <v>287.29</v>
+        <v>286.84</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -8562,7 +8564,7 @@
         <v>276.72</v>
       </c>
       <c r="E299" t="n">
-        <v>275.87</v>
+        <v>275.38</v>
       </c>
       <c r="F299" t="n">
         <v>278.76</v>
@@ -8590,7 +8592,7 @@
         <v>271.48</v>
       </c>
       <c r="E300" t="n">
-        <v>266.89</v>
+        <v>266.86</v>
       </c>
       <c r="F300" t="n">
         <v>264.57</v>
@@ -8614,7 +8616,7 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="n">
-        <v>264.57</v>
+        <v>263.82</v>
       </c>
       <c r="H301" t="inlineStr">
         <is>
@@ -8638,7 +8640,7 @@
         <v>275.68</v>
       </c>
       <c r="E302" t="n">
-        <v>273.81</v>
+        <v>272.89</v>
       </c>
       <c r="F302" t="n">
         <v>276.17</v>
@@ -8666,7 +8668,7 @@
         <v>276.21</v>
       </c>
       <c r="E303" t="n">
-        <v>280.78</v>
+        <v>279.42</v>
       </c>
       <c r="F303" t="n">
         <v>287.31</v>
@@ -8694,7 +8696,7 @@
         <v>269.43</v>
       </c>
       <c r="E304" t="n">
-        <v>267.08</v>
+        <v>268.18</v>
       </c>
       <c r="F304" t="n">
         <v>306.91</v>
@@ -8722,7 +8724,7 @@
         <v>276.35</v>
       </c>
       <c r="E305" t="n">
-        <v>277.41</v>
+        <v>276.41</v>
       </c>
       <c r="F305" t="n">
         <v>292.78</v>
@@ -8750,7 +8752,7 @@
         <v>262.08</v>
       </c>
       <c r="E306" t="n">
-        <v>269.55</v>
+        <v>270.41</v>
       </c>
       <c r="F306" t="n">
         <v>272.49</v>
@@ -8778,7 +8780,7 @@
         <v>276.72</v>
       </c>
       <c r="E307" t="n">
-        <v>286.88</v>
+        <v>285.8</v>
       </c>
       <c r="F307" t="n">
         <v>296.29</v>
@@ -8806,7 +8808,7 @@
         <v>270.91</v>
       </c>
       <c r="E308" t="n">
-        <v>269.02</v>
+        <v>269.64</v>
       </c>
       <c r="F308" t="n">
         <v>282.96</v>
@@ -8834,13 +8836,13 @@
         <v>268.06</v>
       </c>
       <c r="E309" t="n">
-        <v>262.35</v>
+        <v>263.71</v>
       </c>
       <c r="F309" t="n">
         <v>261.22</v>
       </c>
       <c r="G309" t="n">
-        <v>238.19</v>
+        <v>237.04</v>
       </c>
       <c r="H309" t="inlineStr">
         <is>
@@ -8864,7 +8866,7 @@
         <v>279.71</v>
       </c>
       <c r="E310" t="n">
-        <v>275.86</v>
+        <v>276.41</v>
       </c>
       <c r="F310" t="n">
         <v>316.34</v>
@@ -8892,13 +8894,13 @@
         <v>271.61</v>
       </c>
       <c r="E311" t="n">
-        <v>273.52</v>
+        <v>272.71</v>
       </c>
       <c r="F311" t="n">
         <v>287.64</v>
       </c>
       <c r="G311" t="n">
-        <v>292.23</v>
+        <v>292.91</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -8922,13 +8924,13 @@
         <v>283.25</v>
       </c>
       <c r="E312" t="n">
-        <v>286.4</v>
+        <v>287.25</v>
       </c>
       <c r="F312" t="n">
         <v>284.34</v>
       </c>
       <c r="G312" t="n">
-        <v>298.36</v>
+        <v>297.65</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
@@ -8952,13 +8954,13 @@
         <v>281.98</v>
       </c>
       <c r="E313" t="n">
-        <v>272.88</v>
+        <v>273.89</v>
       </c>
       <c r="F313" t="n">
         <v>292.99</v>
       </c>
       <c r="G313" t="n">
-        <v>313.37</v>
+        <v>312.51</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
@@ -9000,7 +9002,7 @@
         <v>270.62</v>
       </c>
       <c r="G315" t="n">
-        <v>266.91</v>
+        <v>266.33</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -9044,13 +9046,13 @@
         <v>281.1</v>
       </c>
       <c r="E317" t="n">
-        <v>270.17</v>
+        <v>270.14</v>
       </c>
       <c r="F317" t="n">
         <v>273.14</v>
       </c>
       <c r="G317" t="n">
-        <v>248.22</v>
+        <v>248.24</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -9074,13 +9076,13 @@
         <v>273.64</v>
       </c>
       <c r="E318" t="n">
-        <v>266.11</v>
+        <v>266.05</v>
       </c>
       <c r="F318" t="n">
         <v>267.04</v>
       </c>
       <c r="G318" t="n">
-        <v>280.79</v>
+        <v>280.84</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -9104,13 +9106,13 @@
         <v>281.11</v>
       </c>
       <c r="E319" t="n">
-        <v>272.13</v>
+        <v>272.66</v>
       </c>
       <c r="F319" t="n">
         <v>273.82</v>
       </c>
       <c r="G319" t="n">
-        <v>287.28</v>
+        <v>286.83</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
@@ -9134,13 +9136,13 @@
         <v>266.78</v>
       </c>
       <c r="E320" t="n">
-        <v>269.95</v>
+        <v>268.8</v>
       </c>
       <c r="F320" t="n">
         <v>264.64</v>
       </c>
       <c r="G320" t="n">
-        <v>278.13</v>
+        <v>279.11</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
@@ -9162,13 +9164,13 @@
         <v>267.46</v>
       </c>
       <c r="E321" t="n">
-        <v>272.31</v>
+        <v>273.12</v>
       </c>
       <c r="F321" t="n">
         <v>271.87</v>
       </c>
       <c r="G321" t="n">
-        <v>266.23</v>
+        <v>265.55</v>
       </c>
       <c r="H321" t="inlineStr">
         <is>
@@ -9192,7 +9194,7 @@
         <v>276.46</v>
       </c>
       <c r="E322" t="n">
-        <v>282.53</v>
+        <v>283.39</v>
       </c>
       <c r="F322" t="n">
         <v>277.3</v>
@@ -9220,13 +9222,13 @@
         <v>270.69</v>
       </c>
       <c r="E323" t="n">
-        <v>258.65</v>
+        <v>257.07</v>
       </c>
       <c r="F323" t="n">
         <v>255.05</v>
       </c>
       <c r="G323" t="n">
-        <v>261.92</v>
+        <v>263.25</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
@@ -9250,13 +9252,13 @@
         <v>280.76</v>
       </c>
       <c r="E324" t="n">
-        <v>279.17</v>
+        <v>277.94</v>
       </c>
       <c r="F324" t="n">
         <v>273.78</v>
       </c>
       <c r="G324" t="n">
-        <v>535.25</v>
+        <v>536.29</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
@@ -9280,13 +9282,13 @@
         <v>271.86</v>
       </c>
       <c r="E325" t="n">
-        <v>272.67</v>
+        <v>273.18</v>
       </c>
       <c r="F325" t="n">
         <v>265.92</v>
       </c>
       <c r="G325" t="n">
-        <v>499.92</v>
+        <v>499.48</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
@@ -9310,13 +9312,13 @@
         <v>278.99</v>
       </c>
       <c r="E326" t="n">
-        <v>278.72</v>
+        <v>278.96</v>
       </c>
       <c r="F326" t="n">
         <v>269.67</v>
       </c>
       <c r="G326" t="n">
-        <v>519.67</v>
+        <v>519.46</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
@@ -9340,13 +9342,13 @@
         <v>285.07</v>
       </c>
       <c r="E327" t="n">
-        <v>279.96</v>
+        <v>280.06</v>
       </c>
       <c r="F327" t="n">
         <v>276</v>
       </c>
       <c r="G327" t="n">
-        <v>535.01</v>
+        <v>534.92</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
@@ -9370,13 +9372,13 @@
         <v>269.96</v>
       </c>
       <c r="E328" t="n">
-        <v>274.09</v>
+        <v>272.97</v>
       </c>
       <c r="F328" t="n">
         <v>266.95</v>
       </c>
       <c r="G328" t="n">
-        <v>532.33</v>
+        <v>533.28</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
@@ -9400,13 +9402,13 @@
         <v>280.59</v>
       </c>
       <c r="E329" t="n">
-        <v>278.32</v>
+        <v>279.08</v>
       </c>
       <c r="F329" t="n">
         <v>272.02</v>
       </c>
       <c r="G329" t="n">
-        <v>513.54</v>
+        <v>512.9</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
@@ -9430,7 +9432,7 @@
         <v>282.28</v>
       </c>
       <c r="E330" t="n">
-        <v>288.71</v>
+        <v>288.48</v>
       </c>
       <c r="F330" t="n">
         <v>283.9</v>
@@ -9458,13 +9460,13 @@
         <v>267.84</v>
       </c>
       <c r="E331" t="n">
-        <v>272.14</v>
+        <v>270.99</v>
       </c>
       <c r="F331" t="n">
         <v>275.38</v>
       </c>
       <c r="G331" t="n">
-        <v>280.72</v>
+        <v>281.7</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -9488,13 +9490,13 @@
         <v>284.16</v>
       </c>
       <c r="E332" t="n">
-        <v>279.09</v>
+        <v>279.14</v>
       </c>
       <c r="F332" t="n">
         <v>289.1</v>
       </c>
       <c r="G332" t="n">
-        <v>306.71</v>
+        <v>306.67</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -9518,13 +9520,13 @@
         <v>279.06</v>
       </c>
       <c r="E333" t="n">
-        <v>276.9</v>
+        <v>276.75</v>
       </c>
       <c r="F333" t="n">
         <v>295.05</v>
       </c>
       <c r="G333" t="n">
-        <v>305.98</v>
+        <v>306.11</v>
       </c>
       <c r="H333" t="inlineStr">
         <is>
@@ -9548,7 +9550,7 @@
         <v>275.16</v>
       </c>
       <c r="E334" t="n">
-        <v>275.59</v>
+        <v>274.65</v>
       </c>
       <c r="F334" t="n">
         <v>272.96</v>
@@ -9606,13 +9608,13 @@
         <v>291.44</v>
       </c>
       <c r="E336" t="n">
-        <v>285.63</v>
+        <v>285.96</v>
       </c>
       <c r="F336" t="n">
         <v>292.09</v>
       </c>
       <c r="G336" t="n">
-        <v>326.17</v>
+        <v>325.88</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
@@ -9636,13 +9638,13 @@
         <v>288.15</v>
       </c>
       <c r="E337" t="n">
-        <v>291.48</v>
+        <v>290.4</v>
       </c>
       <c r="F337" t="n">
         <v>290.12</v>
       </c>
       <c r="G337" t="n">
-        <v>303.63</v>
+        <v>304.54</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
@@ -9666,13 +9668,13 @@
         <v>281.53</v>
       </c>
       <c r="E338" t="n">
-        <v>276.71</v>
+        <v>277.62</v>
       </c>
       <c r="F338" t="n">
         <v>280.37</v>
       </c>
       <c r="G338" t="n">
-        <v>282.48</v>
+        <v>281.71</v>
       </c>
       <c r="H338" t="inlineStr">
         <is>
@@ -9696,7 +9698,7 @@
         <v>277.28</v>
       </c>
       <c r="E339" t="n">
-        <v>278.72</v>
+        <v>277.54</v>
       </c>
       <c r="F339" t="n">
         <v>274.99</v>
@@ -9786,7 +9788,7 @@
         <v>289.24</v>
       </c>
       <c r="E343" t="n">
-        <v>294.67</v>
+        <v>293.16</v>
       </c>
       <c r="F343" t="n">
         <v>279.31</v>
@@ -9812,13 +9814,13 @@
         <v>264.09</v>
       </c>
       <c r="E344" t="n">
-        <v>263.49</v>
+        <v>263.9</v>
       </c>
       <c r="F344" t="n">
         <v>272.17</v>
       </c>
       <c r="G344" t="n">
-        <v>278.57</v>
+        <v>278.22</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
@@ -9842,13 +9844,13 @@
         <v>290.87</v>
       </c>
       <c r="E345" t="n">
-        <v>288.74</v>
+        <v>289.06</v>
       </c>
       <c r="F345" t="n">
         <v>273</v>
       </c>
       <c r="G345" t="n">
-        <v>282.35</v>
+        <v>282.08</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
@@ -9872,13 +9874,13 @@
         <v>295.17</v>
       </c>
       <c r="E346" t="n">
-        <v>297.28</v>
+        <v>297.16</v>
       </c>
       <c r="F346" t="n">
         <v>279.69</v>
       </c>
       <c r="G346" t="n">
-        <v>284.73</v>
+        <v>284.83</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
@@ -9902,7 +9904,7 @@
         <v>286.46</v>
       </c>
       <c r="E347" t="n">
-        <v>275.13</v>
+        <v>274.05</v>
       </c>
       <c r="F347" t="n">
         <v>265.26</v>
@@ -9930,13 +9932,13 @@
         <v>287.58</v>
       </c>
       <c r="E348" t="n">
-        <v>281.4</v>
+        <v>279.84</v>
       </c>
       <c r="F348" t="n">
         <v>275.72</v>
       </c>
       <c r="G348" t="n">
-        <v>294.68</v>
+        <v>296</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
@@ -9960,13 +9962,13 @@
         <v>280.92</v>
       </c>
       <c r="E349" t="n">
-        <v>260.83</v>
+        <v>261.69</v>
       </c>
       <c r="F349" t="n">
         <v>273.33</v>
       </c>
       <c r="G349" t="n">
-        <v>302.98</v>
+        <v>302.25</v>
       </c>
       <c r="H349" t="inlineStr">
         <is>
@@ -9990,13 +9992,13 @@
         <v>290.14</v>
       </c>
       <c r="E350" t="n">
-        <v>274.21</v>
+        <v>272.97</v>
       </c>
       <c r="F350" t="n">
         <v>287.81</v>
       </c>
       <c r="G350" t="n">
-        <v>297.43</v>
+        <v>298.48</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
@@ -10020,7 +10022,7 @@
         <v>278.98</v>
       </c>
       <c r="E351" t="n">
-        <v>272.13</v>
+        <v>272.28</v>
       </c>
       <c r="F351" t="n">
         <v>277.32</v>
@@ -10046,7 +10048,7 @@
         <v>276.45</v>
       </c>
       <c r="E352" t="n">
-        <v>269.59</v>
+        <v>269.33</v>
       </c>
       <c r="F352" t="n">
         <v>269.88</v>
@@ -10074,13 +10076,13 @@
         <v>279.48</v>
       </c>
       <c r="E353" t="n">
-        <v>268.95</v>
+        <v>269.21</v>
       </c>
       <c r="F353" t="n">
         <v>273.6</v>
       </c>
       <c r="G353" t="n">
-        <v>293.3</v>
+        <v>293.09</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
@@ -10104,13 +10106,13 @@
         <v>274.33</v>
       </c>
       <c r="E354" t="n">
-        <v>270.21</v>
+        <v>270.12</v>
       </c>
       <c r="F354" t="n">
         <v>284.71</v>
       </c>
       <c r="G354" t="n">
-        <v>290.63</v>
+        <v>290.71</v>
       </c>
       <c r="H354" t="inlineStr">
         <is>
@@ -10134,7 +10136,7 @@
         <v>283.96</v>
       </c>
       <c r="E355" t="n">
-        <v>281.35</v>
+        <v>280.93</v>
       </c>
       <c r="F355" t="n">
         <v>288.57</v>
@@ -10162,13 +10164,13 @@
         <v>279.87</v>
       </c>
       <c r="E356" t="n">
-        <v>273.5</v>
+        <v>273.99</v>
       </c>
       <c r="F356" t="n">
         <v>281.73</v>
       </c>
       <c r="G356" t="n">
-        <v>323.13</v>
+        <v>322.72</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
@@ -10192,7 +10194,7 @@
         <v>279.24</v>
       </c>
       <c r="E357" t="n">
-        <v>276.62</v>
+        <v>275.85</v>
       </c>
       <c r="F357" t="n">
         <v>279.79</v>
@@ -10220,7 +10222,7 @@
         <v>290.68</v>
       </c>
       <c r="E358" t="n">
-        <v>290.53</v>
+        <v>289.36</v>
       </c>
       <c r="F358" t="n">
         <v>291.04</v>
@@ -10248,7 +10250,7 @@
         <v>287.11</v>
       </c>
       <c r="E359" t="n">
-        <v>285.44</v>
+        <v>286.16</v>
       </c>
       <c r="F359" t="n">
         <v>285.1</v>
@@ -10276,13 +10278,13 @@
         <v>281.83</v>
       </c>
       <c r="E360" t="n">
-        <v>278.42</v>
+        <v>277.57</v>
       </c>
       <c r="F360" t="n">
         <v>274.79</v>
       </c>
       <c r="G360" t="n">
-        <v>293.37</v>
+        <v>294.08</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -10306,7 +10308,7 @@
         <v>292.65</v>
       </c>
       <c r="E361" t="n">
-        <v>287.47</v>
+        <v>288.64</v>
       </c>
       <c r="F361" t="n">
         <v>281.95</v>
@@ -10338,7 +10340,7 @@
         <v>321.5</v>
       </c>
       <c r="G362" t="n">
-        <v>302.66</v>
+        <v>303.95</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -10362,13 +10364,13 @@
         <v>302.53</v>
       </c>
       <c r="E363" t="n">
-        <v>294.58</v>
+        <v>294.57</v>
       </c>
       <c r="F363" t="n">
         <v>290.3</v>
       </c>
       <c r="G363" t="n">
-        <v>310.2</v>
+        <v>310.22</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -10392,13 +10394,13 @@
         <v>290.59</v>
       </c>
       <c r="E364" t="n">
-        <v>284.45</v>
+        <v>284.8</v>
       </c>
       <c r="F364" t="n">
         <v>277.14</v>
       </c>
       <c r="G364" t="n">
-        <v>290.21</v>
+        <v>289.92</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
@@ -10422,13 +10424,13 @@
         <v>300.89</v>
       </c>
       <c r="E365" t="n">
-        <v>298.47</v>
+        <v>298.41</v>
       </c>
       <c r="F365" t="n">
         <v>283.44</v>
       </c>
       <c r="G365" t="n">
-        <v>304.79</v>
+        <v>304.84</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -10448,7 +10450,7 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>285.8</v>
+        <v>286.7</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -10540,15 +10542,43 @@
         <v>268.25</v>
       </c>
       <c r="E370" t="n">
-        <v>264.38</v>
+        <v>265.05</v>
       </c>
       <c r="F370" t="n">
         <v>282.5</v>
       </c>
       <c r="G370" t="n">
-        <v>287.29</v>
+        <v>286.73</v>
       </c>
       <c r="H370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-11 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>285.62</v>
+      </c>
+      <c r="C371" t="n">
+        <v>279.75</v>
+      </c>
+      <c r="D371" t="n">
+        <v>267.59</v>
+      </c>
+      <c r="E371" t="n">
+        <v>266.86</v>
+      </c>
+      <c r="F371" t="n">
+        <v>281.77</v>
+      </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10565,7 +10595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15603,6 +15633,16 @@
       </c>
       <c r="B503" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-11-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -15770,34 +15810,34 @@
         <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0485</v>
+        <v>0.0487</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0674</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3188712344265917</v>
+        <v>0.3050895286279889</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05572762436847012</v>
+        <v>0.05060835763471316</v>
       </c>
       <c r="M2" t="n">
-        <v>7.922763702793458</v>
+        <v>7.977495345687329</v>
       </c>
       <c r="N2" t="n">
-        <v>99.30509121151299</v>
+        <v>100.9034589678391</v>
       </c>
       <c r="O2" t="n">
-        <v>9.965193987650867</v>
+        <v>10.04507137694099</v>
       </c>
       <c r="P2" t="n">
-        <v>301.9863592283226</v>
+        <v>302.1289695956287</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15848,34 +15888,34 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0594</v>
+        <v>0.0595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0761</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2506392051683709</v>
+        <v>0.2438808504126518</v>
       </c>
       <c r="J3" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K3" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03493390181622469</v>
+        <v>0.03317988359313262</v>
       </c>
       <c r="M3" t="n">
-        <v>7.837866562843245</v>
+        <v>7.849780432077211</v>
       </c>
       <c r="N3" t="n">
-        <v>100.3295017523195</v>
+        <v>100.4595551086866</v>
       </c>
       <c r="O3" t="n">
-        <v>10.01646153850348</v>
+        <v>10.02295141705708</v>
       </c>
       <c r="P3" t="n">
-        <v>285.1030843993705</v>
+        <v>285.1727798699988</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15926,34 +15966,34 @@
         <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0503</v>
+        <v>0.0511</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0828</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3381780351189709</v>
+        <v>0.3285364549803128</v>
       </c>
       <c r="J4" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0538829553422554</v>
+        <v>0.05093920460995105</v>
       </c>
       <c r="M4" t="n">
-        <v>8.515872016330817</v>
+        <v>8.535439103046842</v>
       </c>
       <c r="N4" t="n">
-        <v>116.9147218118639</v>
+        <v>117.4168103278934</v>
       </c>
       <c r="O4" t="n">
-        <v>10.81271112218688</v>
+        <v>10.83590376147248</v>
       </c>
       <c r="P4" t="n">
-        <v>275.2497188371699</v>
+        <v>275.3479906064121</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16001,37 +16041,37 @@
         <v>0.3999999999954118</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0437</v>
+        <v>0.0442</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0824</v>
+        <v>0.0853</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3157094056023179</v>
+        <v>0.306305491002814</v>
       </c>
       <c r="J5" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04910519010421643</v>
+        <v>0.04605247198646878</v>
       </c>
       <c r="M5" t="n">
-        <v>8.284744422254844</v>
+        <v>8.291226412585884</v>
       </c>
       <c r="N5" t="n">
-        <v>113.6854866155613</v>
+        <v>114.8225088657582</v>
       </c>
       <c r="O5" t="n">
-        <v>10.66233964078998</v>
+        <v>10.7155265323622</v>
       </c>
       <c r="P5" t="n">
-        <v>271.7889839068187</v>
+        <v>271.7727025045494</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16082,34 +16122,34 @@
         <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0449</v>
+        <v>0.0451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0953</v>
+        <v>0.0968</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2530749390975975</v>
+        <v>0.2546699821506834</v>
       </c>
       <c r="J6" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K6" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01869229163101815</v>
+        <v>0.01903920265713288</v>
       </c>
       <c r="M6" t="n">
-        <v>9.789957027296934</v>
+        <v>9.764800069183869</v>
       </c>
       <c r="N6" t="n">
-        <v>203.7047621411573</v>
+        <v>203.029215163692</v>
       </c>
       <c r="O6" t="n">
-        <v>14.27251772257289</v>
+        <v>14.2488320631444</v>
       </c>
       <c r="P6" t="n">
-        <v>272.4534973003836</v>
+        <v>272.4376687733694</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16157,37 +16197,37 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0335</v>
+        <v>0.0332</v>
       </c>
       <c r="H7" t="n">
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.186326437939638</v>
+        <v>-7.180368592246077</v>
       </c>
       <c r="J7" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K7" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2371023219540669</v>
+        <v>0.2370398609941781</v>
       </c>
       <c r="M7" t="n">
-        <v>77.76729964009265</v>
+        <v>77.37066177127471</v>
       </c>
       <c r="N7" t="n">
-        <v>9434.976647979251</v>
+        <v>9387.326274658524</v>
       </c>
       <c r="O7" t="n">
-        <v>97.13380795572287</v>
+        <v>96.88821535490538</v>
       </c>
       <c r="P7" t="n">
-        <v>472.0274087904937</v>
+        <v>472.0096135875581</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16229,7 +16269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16324,7 +16364,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-44.81495271411222,167.3942068953142</t>
+          <t>-44.814949413597496,167.3942043303834</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -16334,7 +16374,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-44.81217407362333,167.39409678064783</t>
+          <t>-44.81217690264289,167.39409897903735</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -16366,7 +16406,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-44.81493456128069,167.39419278819835</t>
+          <t>-44.81493896196724,167.39419620810446</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -16376,7 +16416,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-44.81208433081942,167.39402704295549</t>
+          <t>-44.81208055879191,167.39402411177858</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -16408,7 +16448,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-44.81498996277532,167.39423584240967</t>
+          <t>-44.81498076848558,167.39422869723722</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -16418,7 +16458,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-44.81235536656077,167.3942376611911</t>
+          <t>-44.81236306777491,167.39424364573233</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -16450,7 +16490,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-44.81499954998306,167.3942432929337</t>
+          <t>-44.815008822855745,167.39425049918054</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -16488,7 +16528,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-44.81506925368706,167.39429746197905</t>
+          <t>-44.81506595317389,167.39429489703832</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -16498,7 +16538,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-44.812294149758095,167.39419009024962</t>
+          <t>-44.812296978776274,167.39419228864787</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -16530,7 +16570,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-44.81503114061572,167.39426784303794</t>
+          <t>-44.81503483404764,167.39427071332545</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -16568,7 +16608,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-44.81487963127581,167.39415010048407</t>
+          <t>-44.814888589818224,167.39415706242357</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -16578,7 +16618,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-44.81217690264289,167.39409897903735</t>
+          <t>-44.812169358590666,167.39409311666586</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -16610,7 +16650,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-44.81489967012022,167.39416567324636</t>
+          <t>-44.814902263382315,167.39416768854574</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -16638,7 +16678,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-44.81243064984792,167.39429616320044</t>
+          <t>-44.81243426470245,167.39429897227762</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -16660,7 +16700,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-44.8125834952817,167.39441493860667</t>
+          <t>-44.81257972326186,167.39441200738116</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -16692,7 +16732,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-44.81478540939337,167.39407687810547</t>
+          <t>-44.81479515377656,167.39408445071783</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -16722,7 +16762,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-44.81495129960592,167.39420579605812</t>
+          <t>-44.814950828103804,167.39420542963944</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -16760,7 +16800,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-44.81492387389872,167.39418448271422</t>
+          <t>-44.81492874608762,167.3941882690375</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -16798,13 +16838,13 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-44.814852598479206,167.39412909253883</t>
+          <t>-44.8148428540983,167.39412151991203</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-44.81236448228361,167.39424474493393</t>
+          <t>-44.81237273358416,167.3942511569444</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -16836,7 +16876,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-44.81488709672784,167.39415590210018</t>
+          <t>-44.814880417112875,167.39415071118043</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -16846,7 +16886,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-44.812321025429426,167.3942109750413</t>
+          <t>-44.81232660488131,167.39421531077522</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -16878,7 +16918,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-44.814856370497516,167.39413202387888</t>
+          <t>-44.81485291281407,167.39412933681714</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -16916,7 +16956,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-44.814759476758844,167.39405672519743</t>
+          <t>-44.81476419178351,167.39406038936124</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -16926,7 +16966,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-44.812217059000304,167.39413018397693</t>
+          <t>-44.81221297263937,167.39412700852128</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -16958,7 +16998,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-44.8148125207811,167.39409794707333</t>
+          <t>-44.81481369953702,167.39409886311583</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -16996,7 +17036,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-44.814823994005145,167.39410686322196</t>
+          <t>-44.81483617448214,167.39411632899993</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -17068,7 +17108,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-44.81490320638671,167.39416842138195</t>
+          <t>-44.81489644818848,167.39416316938974</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -17102,7 +17142,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-44.81483106654026,167.39411235947966</t>
+          <t>-44.814825408512185,167.3941079624734</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -17112,7 +17152,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-44.81229493559647,167.39419070091577</t>
+          <t>-44.81229965062674,167.39419436491306</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -17144,7 +17184,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-44.814931025014644,167.3941900400599</t>
+          <t>-44.81493888338355,167.3941961470347</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -17182,7 +17222,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-44.814869729728564,167.39414240571125</t>
+          <t>-44.81486603629417,167.39413953543948</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -17220,7 +17260,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-44.81474619610556,167.39404640447248</t>
+          <t>-44.81475263997293,167.39405141216093</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -17230,7 +17270,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-44.81217855290428,167.39410026143128</t>
+          <t>-44.81217313061681,167.3940960478514</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -17262,7 +17302,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-44.8147869810681,167.39407809949438</t>
+          <t>-44.814792717680795,167.3940825575645</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -17272,7 +17312,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-44.81221124379435,167.39412566505942</t>
+          <t>-44.81220637159466,167.39412187894</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -17304,7 +17344,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-44.814791146006094,167.39408133617533</t>
+          <t>-44.81478399488611,167.39407577885547</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -17314,7 +17354,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-44.81231544597744,167.39420663930815</t>
+          <t>-44.81232149693242,167.3942113414413</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -17346,7 +17386,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-44.81484945513058,167.39412664975572</t>
+          <t>-44.81485919951121,167.3941342223842</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -17356,7 +17396,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-44.812183739440016,167.39410429181274</t>
+          <t>-44.81217548813312,167.39409787984258</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -17388,7 +17428,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-44.814873580330314,167.3941453981226</t>
+          <t>-44.81486690071499,167.39414020720517</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -17426,7 +17466,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-44.81486320728056,167.39413733693368</t>
+          <t>-44.81486619346158,167.39413965757868</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -17436,7 +17476,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-44.81221375847802,167.3941276191858</t>
+          <t>-44.81221124379435,167.39412566505942</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -17468,7 +17508,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-44.81485982818092,167.39413471094093</t>
+          <t>-44.81486493612221,167.39413868046498</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -17478,7 +17518,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-44.812189633230496,167.39410887179253</t>
+          <t>-44.81218531111749,167.3941055131406</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -17510,7 +17550,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-44.81488992574118,167.3941581006077</t>
+          <t>-44.81488599655597,167.39415504712508</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -17520,7 +17560,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-44.81229792178232,167.39419302144734</t>
+          <t>-44.81230122230347,167.39419558624562</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -17552,7 +17592,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-44.81488576080486,167.39415486391613</t>
+          <t>-44.814892519003365,167.39416011590646</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -17606,7 +17646,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-44.812257844021964,167.39416187749046</t>
+          <t>-44.812258001189655,167.39416199962355</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -17638,7 +17678,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-44.8151208045535,167.3943375239467</t>
+          <t>-44.81511711112289,167.394334653651</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -17648,7 +17688,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-44.81237807728343,167.3942553094854</t>
+          <t>-44.81238122063588,167.39425775215693</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -17674,7 +17714,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-44.812119300654956,167.3940542174256</t>
+          <t>-44.81210853466117,167.39404585134943</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -17706,7 +17746,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-44.81501078744739,167.39425202592804</t>
+          <t>-44.81500795843542,167.3942498274117</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -17744,7 +17784,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-44.81485762783694,167.39413300099233</t>
+          <t>-44.81486485753851,167.3941386193954</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -17754,7 +17794,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-44.8119865724213,167.39395107673906</t>
+          <t>-44.8119803642902,167.39394625252623</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -17786,7 +17826,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-44.81476356311356,167.394059900806</t>
+          <t>-44.814756647744005,167.39405452669945</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -17824,7 +17864,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-44.81509416470161,167.3943168211835</t>
+          <t>-44.815101551563494,167.39432256177088</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -17862,7 +17902,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-44.81494540582956,167.39420121582498</t>
+          <t>-44.81493754746086,167.39419510884886</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -17900,7 +17940,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-44.8148453687773,167.39412347413807</t>
+          <t>-44.81485299139778,167.39412939788673</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -17910,7 +17950,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-44.812134703097804,167.3940661864157</t>
+          <t>-44.812128259218774,167.39406117898034</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -17930,7 +17970,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-44.814946741752216,167.39420225401108</t>
+          <t>-44.81493817613037,167.39419559740688</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -17940,7 +17980,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-44.81236078884422,167.3942418747965</t>
+          <t>-44.812368018555304,167.39424749293818</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -17972,7 +18012,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-44.81494902067907,167.39420402503453</t>
+          <t>-44.81494210531474,167.39419865089482</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -17982,7 +18022,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-44.81425865929177,167.39571674436473</t>
+          <t>-44.81426455303251,167.39572132466014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -18014,7 +18054,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-44.81498862685291,167.3942348042221</t>
+          <t>-44.81498619075906,167.3942329110566</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -18024,7 +18064,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-44.81407422442705,167.3955734121062</t>
+          <t>-44.81407618900877,167.39557493886187</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -18056,7 +18096,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-44.814910436086926,167.3941740397935</t>
+          <t>-44.81491687994998,167.3941790475093</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -18066,7 +18106,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-44.814100156904665,167.39559356528932</t>
+          <t>-44.814094734659584,167.39558935144052</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -18154,7 +18194,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-44.81492238080857,167.39418332238947</t>
+          <t>-44.81491601552934,167.39417837574248</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -18164,7 +18204,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-44.81408506891801,167.39558183979884</t>
+          <t>-44.814090412580065,167.39558599257606</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -18192,7 +18232,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-44.81501966740135,167.39425892682794</t>
+          <t>-44.815022260662175,167.39426094213542</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -18226,7 +18266,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-44.81497487470994,167.3942241169996</t>
+          <t>-44.81497353878744,167.39422307881253</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -18286,7 +18326,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-44.814918844542355,167.39418057425215</t>
+          <t>-44.814917901538024,167.39417984141554</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -18296,7 +18336,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-44.814095991991785,167.3955903285648</t>
+          <t>-44.81409677782441,167.3955909392675</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -18350,7 +18390,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-44.81488143870106,167.39415150508574</t>
+          <t>-44.81488010277805,167.3941504669019</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -18360,7 +18400,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-44.81392405175283,167.39545670719613</t>
+          <t>-44.81392515191927,167.395457562175</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -18392,7 +18432,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-44.814918373040186,167.39418020783384</t>
+          <t>-44.81491185059347,167.3941751390481</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -18402,7 +18442,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-44.81400829305494,167.395522174243</t>
+          <t>-44.81401387246853,167.39552651021995</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -18454,7 +18494,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-44.81438682847503,167.39581635072489</t>
+          <t>-44.814390286134476,167.39581903784287</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -18508,7 +18548,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-44.81483326688446,167.39411406942676</t>
+          <t>-44.814828866196024,167.39411064953268</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -18518,7 +18558,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-44.81422612584039,167.3956914611501</t>
+          <t>-44.81422989783498,167.39569439253592</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -18550,7 +18590,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-44.81485534890923,167.39413122997425</t>
+          <t>-44.81486776513581,167.3941408789709</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -18560,7 +18600,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-44.81421787460203,167.39568504874492</t>
+          <t>-44.814207423033054,167.3956769263676</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -18592,7 +18632,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-44.81487523058819,167.39414668058473</t>
+          <t>-44.81487130140277,167.3941436271036</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -18602,7 +18642,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-44.81424286406592,167.3957044691774</t>
+          <t>-44.81424616456096,167.3957070341414</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -18634,7 +18674,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-44.814891890333755,167.39415962734918</t>
+          <t>-44.81488552505375,167.3941546807072</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -18672,7 +18712,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-44.81478721681932,167.39407828270274</t>
+          <t>-44.81479499660909,167.39408432857888</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -18682,7 +18722,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-44.81407697484147,167.39557554956417</t>
+          <t>-44.814070452430066,167.39557048073556</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -18744,7 +18784,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-44.81489519084925,167.39416219227505</t>
+          <t>-44.81489597668627,167.39416280297172</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -18782,7 +18822,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-44.81490414939109,167.39416915421816</t>
+          <t>-44.8149084714945,167.3941725130511</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -18792,7 +18832,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-44.81408789791558,167.39558403832785</t>
+          <t>-44.81408428308536,167.39558122909636</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -18854,7 +18894,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-44.814846311781906,167.39412420697286</t>
+          <t>-44.81485959242978,167.39413452773218</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -18888,7 +18928,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-44.81496458024813,167.39421611685339</t>
+          <t>-44.81497291011802,167.39422259025392</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -18914,7 +18954,7 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-44.814976289216105,167.39422521625653</t>
+          <t>-44.81497314586905,167.39422277346338</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -18940,7 +18980,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-44.81499577796694,167.39424036157973</t>
+          <t>-44.81499672097098,167.39424109441816</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -18950,7 +18990,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-44.814303844633784,167.39575185998592</t>
+          <t>-44.814303058801826,167.39575124927902</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -18982,7 +19022,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-44.81479232476212,167.3940822522172</t>
+          <t>-44.81479381785308,167.39408341253696</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -18992,7 +19032,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-44.81435248762746,167.39578966277443</t>
+          <t>-44.81435115171338,167.395788624571</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -19018,7 +19058,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-44.81415854426094,167.39563894055004</t>
+          <t>-44.814165302419724,167.39564419260475</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -19050,7 +19090,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-44.81481456395801,167.39409953488035</t>
+          <t>-44.81482784460763,167.39410985562876</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -19088,7 +19128,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-44.81493495419914,167.3941930935471</t>
+          <t>-44.81493566145234,167.39419364317484</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -19126,7 +19166,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-44.81493440411331,167.39419266605887</t>
+          <t>-44.814928353169165,167.39418796368884</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -19136,7 +19176,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-44.81415485084851,167.39563607024158</t>
+          <t>-44.814159958759305,167.39564003981718</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -19168,7 +19208,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-44.814850083800295,167.3941271383123</t>
+          <t>-44.814854248737234,167.39413037500006</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -19178,7 +19218,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-44.81410550056638,167.39559771806861</t>
+          <t>-44.814101964319676,167.39559496990577</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -19210,7 +19250,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-44.81480646983395,167.39409324472234</t>
+          <t>-44.81481613563257,167.3941007562705</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -19248,7 +19288,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-44.81487994561065,167.3941503447626</t>
+          <t>-44.81489000432489,167.39415816167735</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -19286,7 +19326,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-44.8146179473931,167.39394673948104</t>
+          <t>-44.81460898884083,167.39393977760412</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -19296,7 +19336,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-44.81247772153662,167.39433274229725</t>
+          <t>-44.81248526557937,167.3943386047288</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -19328,7 +19368,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-44.814767177965756,167.3940627099986</t>
+          <t>-44.814761205601236,167.39405806872412</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -19338,7 +19378,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-44.812265152319924,167.39416755667952</t>
+          <t>-44.81227018168613,167.39417146493943</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -19370,7 +19410,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-44.81476332736232,167.39405971759783</t>
+          <t>-44.81476057693128,167.39405758016895</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -19380,7 +19420,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-44.81223379736261,167.39414319113624</t>
+          <t>-44.81223607629448,167.39414496206462</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -19412,7 +19452,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-44.81475649057651,167.39405440456068</t>
+          <t>-44.81476183427119,167.39405855727927</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19422,7 +19462,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-44.8121382393728,167.394068934399</t>
+          <t>-44.812133681507234,167.39406539255396</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -19454,7 +19494,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-44.814754604566595,167.39405293889544</t>
+          <t>-44.81474918228801,167.39404872510846</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -19482,7 +19522,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-44.81224707803424,167.3941535113758</t>
+          <t>-44.81223819805861,167.39414661086008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -19514,7 +19554,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-44.814846468949334,167.394124329112</t>
+          <t>-44.81485369865122,167.39412994751297</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -19552,7 +19592,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-44.8148284732774,167.394110344185</t>
+          <t>-44.81483806049144,167.3941177946691</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -19582,7 +19622,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-44.81478030145042,167.3940729085919</t>
+          <t>-44.814775429258596,167.3940691222873</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -19592,7 +19632,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-44.81230758759413,167.39420053264314</t>
+          <t>-44.81231167395348,167.39420370810873</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -19612,7 +19652,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-44.81478886707778,167.39407956516118</t>
+          <t>-44.81479751128856,167.39408628280182</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -19648,7 +19688,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-44.81241233982299,167.39428193461896</t>
+          <t>-44.8124165833482,167.39428523222935</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -19702,7 +19742,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-44.814624312680046,167.39395168607908</t>
+          <t>-44.8146289491235,167.39395528915728</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -19766,7 +19806,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-44.81485393440237,167.39413013072172</t>
+          <t>-44.81485000521659,167.39412707724276</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -19788,7 +19828,7 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-44.81475358297789,167.39405214499348</t>
+          <t>-44.81475790508393,167.39405550380962</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -19798,7 +19838,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-44.81208330922863,167.39402624909505</t>
+          <t>-44.81207969436893,167.39402344005057</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -19856,7 +19896,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-44.814874523334815,167.3941461309581</t>
+          <t>-44.8148683938055,167.3941413675278</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -19866,7 +19906,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-44.81234750817873,167.39423155451797</t>
+          <t>-44.81235277329472,167.3942356459888</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -19892,7 +19932,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-44.81218153909154,167.39410258195386</t>
+          <t>-44.81217430937496,167.39409696384698</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -19946,7 +19986,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-44.814788631326564,167.39407938195282</t>
+          <t>-44.81478336621621,167.39407529029995</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -19956,7 +19996,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-44.812098711673734,167.39403821807085</t>
+          <t>-44.81210311237217,167.39404163777934</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -19984,7 +20024,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-44.814816921469834,167.39410136696554</t>
+          <t>-44.814813463785825,167.39409867990733</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -19994,7 +20034,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-44.81217973166241,167.39410117742702</t>
+          <t>-44.81218263926577,167.39410343688328</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -20026,7 +20066,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-44.814844582940104,167.39412286344242</t>
+          <t>-44.814848119207404,167.39412561157297</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -20036,7 +20076,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-44.812155763579305,167.3940825521876</t>
+          <t>-44.81215277739175,167.394080231667</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -20068,7 +20108,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-44.814885132135224,167.39415437535897</t>
+          <t>-44.81488976857377,167.3941579784684</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -20078,7 +20118,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-44.81407516742628,167.3955741449489</t>
+          <t>-44.81407123826277,167.39557109143772</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -20110,7 +20150,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-44.81496080823148,167.3942131855028</t>
+          <t>-44.81497503187728,167.39422423913925</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -20120,7 +20160,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-44.81421685302012,167.39568425482824</t>
+          <t>-44.81420490836977,167.3956749721118</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -20144,7 +20184,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-44.81483491714262,167.39411535188717</t>
+          <t>-44.814843011265744,167.39412164205115</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -20154,7 +20194,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-44.81397481657081,167.39549615839834</t>
+          <t>-44.813967979823495,167.39549084530685</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -20176,7 +20216,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-44.81418691280993,167.3956609869736</t>
+          <t>-44.81418903455723,167.39566263587594</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -20208,7 +20248,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-44.8150019074931,167.39424512503015</t>
+          <t>-44.81499412770988,167.39423907911248</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -20218,7 +20258,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-44.81421355252469,167.39568168986673</t>
+          <t>-44.81422007493229,167.39568675871948</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -20244,7 +20284,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-44.8119428797485,167.39391712407254</t>
+          <t>-44.81193863621511,167.39391382651402</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -20266,7 +20306,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-44.812130459567726,167.3940628888362</t>
+          <t>-44.81212165817178,167.39405604941348</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -20298,7 +20338,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-44.81487334457919,167.39414521491372</t>
+          <t>-44.81486627204531,167.39413971864832</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -20308,7 +20348,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-44.81232974823442,167.3942177534426</t>
+          <t>-44.81233564202139,167.3942223334446</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -20330,7 +20370,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-44.81214759085535,167.3940762012897</t>
+          <t>-44.812138632292246,167.3940692397305</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -20362,7 +20402,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-44.81475334722664,167.39405196178535</t>
+          <t>-44.81474918228801,167.39404872510846</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -20400,7 +20440,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-44.81486446461994,167.39413831404735</t>
+          <t>-44.81487829535279,167.39414906230027</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -20468,7 +20508,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-44.81486580054304,167.39413935223067</t>
+          <t>-44.81486305011313,167.3941372147945</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -20506,7 +20546,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>-44.8148903972434,167.39415846702565</t>
+          <t>-44.8149035993052,167.39416872673038</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -20536,13 +20576,13 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-44.81482100782361,167.3941045425802</t>
+          <t>-44.81481495687665,167.39409984022788</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-44.812047474964885,167.39399840293012</t>
+          <t>-44.81205258291946,167.39400237222793</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -20598,7 +20638,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-44.812347429594915,167.39423149345126</t>
+          <t>-44.81235418780347,167.39423674519006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -20672,7 +20712,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>-44.81404491286571,167.39555063292315</t>
+          <t>-44.81403587578846,167.39554360985508</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -20704,7 +20744,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-44.81486179277374,167.39413623768087</t>
+          <t>-44.814862185692306,167.39413654302888</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -20714,7 +20754,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-44.81415367209984,167.39563515418575</t>
+          <t>-44.81415335776686,167.3956349099042</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -20746,7 +20786,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-44.814893540591505,167.3941609098121</t>
+          <t>-44.81489259758708,167.39416017697613</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -20756,7 +20796,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-44.81409850665618,167.3955922828135</t>
+          <t>-44.81409929248879,167.39559289351627</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -20788,7 +20828,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-44.81490006303873,167.39416597859474</t>
+          <t>-44.81489676252328,167.39416341366842</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -20798,7 +20838,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-44.81409960682184,167.3955931377974</t>
+          <t>-44.81410243581924,167.39559533632746</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -20826,7 +20866,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>-44.814924502568275,167.39418497127204</t>
+          <t>-44.81492245939226,167.3941833834592</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -20836,7 +20876,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-44.812138946627805,167.3940694839957</t>
+          <t>-44.81214059688945,167.39407076638804</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -20868,7 +20908,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-44.814870122647115,167.39414271105932</t>
+          <t>-44.814862971529415,167.39413715372487</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -20878,7 +20918,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-44.81232966965058,167.39421769237592</t>
+          <t>-44.81233572060521,167.3942223945113</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -20910,7 +20950,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>-44.814843482768055,167.3941220084685</t>
+          <t>-44.81485322714893,167.39412958109546</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -20920,7 +20960,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-44.81215709950532,167.39408359031532</t>
+          <t>-44.81214884819752,167.3940771783508</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -20944,7 +20984,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>-44.81485754925323,167.39413293992274</t>
+          <t>-44.814864307452524,167.39413819190816</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -20954,7 +20994,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>-44.812072621817194,167.39401794409503</t>
+          <t>-44.81206688519173,167.39401348626535</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -20978,7 +21018,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>-44.81481707863729,167.39410148910454</t>
+          <t>-44.814811342025166,167.39409703103084</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -20988,7 +21028,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-44.812041424003155,167.39399370083976</t>
+          <t>-44.812046296206105,167.39399748693845</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -21020,7 +21060,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>-44.81482957344953,167.3941111991585</t>
+          <t>-44.81482501559356,167.39410765712577</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -21030,7 +21070,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-44.812183739440016,167.39410429181274</t>
+          <t>-44.81218751146594,167.3941072229997</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -21062,7 +21102,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>-44.81487318741178,167.3941450927745</t>
+          <t>-44.81488379621224,167.39415333717497</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -21072,7 +21112,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-44.81215254164009,167.39408004846803</t>
+          <t>-44.812143583077166,167.3940730869077</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -21104,7 +21144,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>-44.81489629102109,167.3941630472504</t>
+          <t>-44.81489912003431,167.39416524575864</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -21142,7 +21182,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>-44.814822972416714,167.39410606931818</t>
+          <t>-44.81482548709591,167.39410802354294</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -21152,7 +21192,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>-44.81222774640548,167.3941384890168</t>
+          <t>-44.81222562464124,167.39413684022188</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -21184,7 +21224,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>-44.81492591707473,167.39418607052713</t>
+          <t>-44.81493440411331,167.39419266605887</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -21222,7 +21262,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>-44.81488348187741,167.3941530928964</t>
+          <t>-44.814874523334815,167.3941461309581</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -21232,7 +21272,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>-44.81247151341791,167.39432791800576</t>
+          <t>-44.81247905746087,167.39433378043609</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -21260,7 +21300,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>-44.814893854926325,167.39416115409074</t>
+          <t>-44.81488670380931,167.39415559675192</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -21270,7 +21310,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-44.812324954620905,167.39421402837496</t>
+          <t>-44.81233100557564,167.3942187305096</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -21302,7 +21342,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-44.81478666673317,167.39407785521658</t>
+          <t>-44.81478485930722,167.39407645061937</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -21312,7 +21352,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-44.81403548287204,167.39554330450434</t>
+          <t>-44.81403697595439,167.39554446483717</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -21344,7 +21384,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>-44.814747532029294,167.3940474426517</t>
+          <t>-44.81475185413545,167.39405080146716</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -21354,7 +21394,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-44.8140368973711,167.39554440376702</t>
+          <t>-44.81403328254013,167.3955415945403</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -21386,7 +21426,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-44.814742817004316,167.39404377848993</t>
+          <t>-44.81474666760805,167.39404677088865</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -21396,7 +21436,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-44.81402220229702,167.39553298365175</t>
+          <t>-44.81401898038225,167.395530479777</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -21428,7 +21468,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-44.814777158100874,167.39407046581465</t>
+          <t>-44.81478423063732,167.39407596206382</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -21438,7 +21478,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-44.81407831075703,167.39557658775814</t>
+          <t>-44.814072417011836,167.39557200749104</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -21492,7 +21532,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-44.81482092923987,167.3941044815107</t>
+          <t>-44.81481197069501,167.39409751958684</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -21526,7 +21566,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>-44.81489063299451,167.39415865023463</t>
+          <t>-44.8148832461263,167.3941529096875</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -21536,7 +21576,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-44.81405112094468,167.39555545746677</t>
+          <t>-44.81405732902349,167.3955602820114</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -21568,7 +21608,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>-44.814923088061796,167.39418387201698</t>
+          <t>-44.81492976767559,167.3941890629441</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -21578,7 +21618,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-44.814273668684564,167.3957284088522</t>
+          <t>-44.81426808927687,167.39572407283785</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -21610,7 +21650,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>-44.814961515484605,167.394213735131</t>
+          <t>-44.81496002239466,167.39421257480478</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -21620,7 +21660,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-44.81424875780703,167.3957090494704</t>
+          <t>-44.814250093721654,167.3957100876703</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -21652,7 +21692,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>-44.814871458570174,167.39414374924283</t>
+          <t>-44.81487923835728,167.3941497951359</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -21686,7 +21726,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>-44.81497267436699,167.39422240704445</t>
+          <t>-44.81498336174683,167.39423071254205</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -21724,7 +21764,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-44.81485770642065,167.3941330620619</t>
+          <t>-44.814870436981955,167.39414295533777</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -21734,7 +21774,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-44.81416805283313,167.39564633006918</t>
+          <t>-44.81415728692905,167.3956379634237</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -21766,7 +21806,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-44.81487617359269,167.39414741342026</t>
+          <t>-44.81487263732581,167.39414466528712</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -21804,7 +21844,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>-44.814827766023896,167.39410979455923</t>
+          <t>-44.81483766757283,167.39411748932136</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -21842,7 +21882,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-44.814843718519214,167.3941221916772</t>
+          <t>-44.814835781563545,167.39411602365217</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -21880,7 +21920,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-44.81477896552688,167.39407187041155</t>
+          <t>-44.814773307497596,167.3940674734129</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -21890,7 +21930,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-44.814018194549384,167.39552986907586</t>
+          <t>-44.81402290954659,167.39553353328284</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -21922,7 +21962,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-44.814605924072886,167.39393739590986</t>
+          <t>-44.81459657260118,167.3939301286904</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -21960,7 +22000,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-44.81478933858019,167.3940799315779</t>
+          <t>-44.814782266043885,167.3940744353278</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -21970,7 +22010,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-44.814081532671004,167.39557909163784</t>
+          <t>-44.814087426416,167.39558367190634</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -21994,7 +22034,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>-44.814908235743395,167.39417232984204</t>
+          <t>-44.81491153625868,167.3941748947693</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -22004,7 +22044,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-44.814222511012204,167.39568865190572</t>
+          <t>-44.81421968201618,167.39568645336686</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -22036,7 +22076,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>-44.814913893769564,167.39417672686037</t>
+          <t>-44.81491145767498,167.3941748336996</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -22046,7 +22086,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-44.81432490492948,167.39576822693692</t>
+          <t>-44.8143268695092,167.39576975370534</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -22156,7 +22196,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>-44.81497943256311,167.39422765904996</t>
+          <t>-44.81497503187728,167.39422423913925</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -22224,13 +22264,13 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>-44.814800340302945,167.39408848130282</t>
+          <t>-44.814793896436804,167.3940834736064</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-44.81423421991203,167.39569775141592</t>
+          <t>-44.81423964215404,167.39570196528425</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -22258,7 +22298,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-44.81487664509494,167.39414777983802</t>
+          <t>-44.81487098706791,167.39414338282512</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -22292,7 +22332,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>-44.814920101881455,167.39418155136758</t>
+          <t>-44.81492803883441,167.3941877194099</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -22302,7 +22342,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-44.81412216021687,167.39561066497347</t>
+          <t>-44.81411540205691,167.3956054129263</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -22334,7 +22374,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-44.81485314856522,167.3941295200259</t>
+          <t>-44.814848276374825,167.39412573371212</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -22344,7 +22384,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-44.81387564442438,167.39541908815502</t>
+          <t>-44.81387973075767,167.39542226378603</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -22376,7 +22416,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-44.81482863044485,167.3941104663241</t>
+          <t>-44.81482603718197,167.3941084510296</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -22414,7 +22454,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>-44.814849297963136,167.39412652761658</t>
+          <t>-44.814858099339226,167.39413336740986</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -22424,7 +22464,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-44.81410762231438,167.39559936696648</t>
+          <t>-44.814100156904665,167.39559356528932</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -22456,7 +22496,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-44.8148284732774,167.394110344185</t>
+          <t>-44.814832402463516,167.3941133976618</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -22494,7 +22534,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-44.814695902500794,167.3940073201115</t>
+          <t>-44.81468851562674,167.3940015796015</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -22528,7 +22568,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>-44.81489126166414,167.3941591387919</t>
+          <t>-44.81488528930264,167.39415449749825</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -22538,7 +22578,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-44.81383564550455,167.39538800363587</t>
+          <t>-44.81384067483864,167.39539191209965</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -22570,13 +22610,13 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>-44.814708790238,167.3940173354728</t>
+          <t>-44.81470116761302,167.3940114117525</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-44.81360665352783,167.3952100470854</t>
+          <t>-44.81361309736813,167.39521505476668</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -22652,7 +22692,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>-44.814804662408164,167.39409184012416</t>
+          <t>-44.814798690044555,167.39408719884386</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -22686,7 +22726,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>-44.81477755101957,167.3940707711618</t>
+          <t>-44.81476851388937,167.39406374817858</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -22696,7 +22736,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-44.81426478878214,167.395721507872</t>
+          <t>-44.81427248993647,167.39572749279276</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -22722,7 +22762,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-44.81456167596553,167.39595223378234</t>
+          <t>-44.81456772686523,167.39595693626632</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -22754,7 +22794,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>-44.814898334197295,167.39416463506188</t>
+          <t>-44.8148926761708,167.3941602380458</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -22764,7 +22804,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>-44.81433857840408,167.39577885324707</t>
+          <t>-44.81434329339514,167.39578251749307</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -22796,7 +22836,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>-44.814928903255,167.39418839117698</t>
+          <t>-44.8149306320962,167.3941897347112</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -22806,7 +22846,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-44.814226518756485,167.39569176650278</t>
+          <t>-44.814225104258504,167.39569066723317</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -22838,7 +22878,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>-44.81494854917697,167.39420365861588</t>
+          <t>-44.81494666316853,167.3942021929413</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -22848,7 +22888,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>-44.81427374726776,167.3957284699228</t>
+          <t>-44.8142753975151,167.39572975240608</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -22880,7 +22920,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>-44.814862185692306,167.39413654302888</t>
+          <t>-44.814857313502095,167.39413275671396</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -22918,7 +22958,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>-44.81493346110904,167.39419193322192</t>
+          <t>-44.81492513123781,167.39418545982983</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -22928,7 +22968,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-44.814117523804825,167.3956070618247</t>
+          <t>-44.81412459629774,167.39561255815354</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -22960,7 +23000,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>-44.81498894118759,167.3942350485015</t>
+          <t>-44.81499813547702,167.39424219367592</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -22970,7 +23010,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>-44.814277519261616,167.39573140131324</t>
+          <t>-44.81426981810745,167.39572541639149</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -22998,7 +23038,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>-44.8149230094781,167.39418381094725</t>
+          <t>-44.81493196801893,167.3941907728968</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -23036,7 +23076,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>-44.81490760707381,167.39417184128448</t>
+          <t>-44.814909728833655,167.39417349016622</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -23074,7 +23114,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>-44.81487082990051,167.3941432606859</t>
+          <t>-44.81487585925786,167.39414716914175</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -23084,7 +23124,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-44.81408145408774,167.39557903056763</t>
+          <t>-44.81407721059127,167.3955757327749</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -23116,7 +23156,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>-44.81477094998537,167.39406564133037</t>
+          <t>-44.81478030145042,167.3940729085919</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -23126,7 +23166,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-44.813990926147085,167.3955086777566</t>
+          <t>-44.813982910650715,167.39550244861167</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -23158,7 +23198,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>-44.814849690881715,167.39412683296445</t>
+          <t>-44.81486108552033,167.3941356880545</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -23196,7 +23236,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>-44.81461221077634,167.3939422814368</t>
+          <t>-44.814606788494615,167.39393806766975</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -23234,7 +23274,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>-44.81475334722664,167.39405196178535</t>
+          <t>-44.814765763458375,167.3940616107493</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -23272,7 +23312,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>-44.814894326428536,167.39416152050873</t>
+          <t>-44.81488466063299,167.3941540089411</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -23282,7 +23322,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-44.81390479883925,167.39544174507026</t>
+          <t>-44.813912971504784,167.39544809633887</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -23362,7 +23402,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-44.814822343746926,167.39410558076202</t>
+          <t>-44.81482493700983,167.39410759605624</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -23372,7 +23412,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-44.8140818470041,167.39557933591882</t>
+          <t>-44.81407956808932,167.3955775648819</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -23404,7 +23444,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>-44.8148309093728,167.39411223734058</t>
+          <t>-44.814836960319354,167.3941169396954</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -23414,7 +23454,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-44.81408051108854,167.39557829772474</t>
+          <t>-44.81407540317608,167.3955743281596</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -23446,7 +23486,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>-44.8149498850996,167.3942046968021</t>
+          <t>-44.8149483920096,167.3942035364763</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -23456,7 +23496,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-44.814244435730224,167.39570569058878</t>
+          <t>-44.81424577164488,167.39570672878853</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -23514,7 +23554,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>-44.814860535434335,167.3941352605673</t>
+          <t>-44.8148725587421,167.3941446042175</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -23524,7 +23564,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-44.8141678170834,167.39564614685796</t>
+          <t>-44.81415767984527,167.39563826877568</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -23574,7 +23614,7 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>-44.81486878672405,167.39414167287586</t>
+          <t>-44.814862735778284,167.39413697051606</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -23584,7 +23624,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>-44.814220860764514,167.3956873694247</t>
+          <t>-44.814225968673945,167.395691339009</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -23616,7 +23656,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-44.81490634973466,167.3941708641694</t>
+          <t>-44.814918373040186,167.39418020783384</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -23626,7 +23666,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-44.81422777608802,167.39569274363132</t>
+          <t>-44.81421763885236,167.39568486553338</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -23658,7 +23698,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>-44.8148019905613,167.39408976376183</t>
+          <t>-44.81479318918321,167.39408292398127</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -23668,7 +23708,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-44.814129389876165,167.39561628344384</t>
+          <t>-44.814136855284985,167.3956220851266</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -23700,7 +23740,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-44.814850398135164,167.39412738259063</t>
+          <t>-44.81485888517636,167.3941339781058</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -23710,7 +23750,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>-44.81422722600547,167.39569231613757</t>
+          <t>-44.81422007493229,167.39568675871948</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -23742,7 +23782,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>-44.81464930232346,167.39397110606657</t>
+          <t>-44.81464427296146,167.39396719764014</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -23780,7 +23820,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>-44.81488623230709,167.39415523033404</t>
+          <t>-44.814893854926325,167.39416115409074</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -23790,7 +23830,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-44.81433512074391,167.39577616613371</t>
+          <t>-44.81432867692255,167.39577115833237</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -23822,7 +23862,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>-44.8147667064633,167.39406234358216</t>
+          <t>-44.81476552770714,167.3940614275411</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -23860,7 +23900,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>-44.814919080293436,167.39418075746127</t>
+          <t>-44.814922066473784,167.3941830781106</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -23894,7 +23934,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>-44.814706275557626,167.39401538125563</t>
+          <t>-44.8147048610499,167.39401428200853</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -23932,7 +23972,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>-44.81474533168431,167.3940457327095</t>
+          <t>-44.81474784636429,167.39404768692916</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -23942,7 +23982,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>-44.81417418232575,167.39565109356212</t>
+          <t>-44.81417206057832,167.39564944466062</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -23974,7 +24014,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>-44.81484804062367,167.3941255505034</t>
+          <t>-44.81484552594472,167.3941235962772</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -24002,7 +24042,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-44.814135205036756,167.39562080264926</t>
+          <t>-44.814129154126405,167.39561610023281</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -24034,7 +24074,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>-44.81482147932595,167.3941049089973</t>
+          <t>-44.81482320816791,167.3941062525267</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -24044,7 +24084,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-44.81398031740184,167.3955004333004</t>
+          <t>-44.81397890290245,167.3954993340398</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -24076,7 +24116,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-44.81477700093338,167.39407034367582</t>
+          <t>-44.81477652943096,167.39406997725925</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -24086,7 +24126,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>-44.814091198412704,167.39558660327864</t>
+          <t>-44.814091591329024,167.39558690862995</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -24148,7 +24188,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>-44.814781008704074,167.39407345821684</t>
+          <t>-44.81477165723904,167.3940661909551</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -24268,7 +24308,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>-44.81489393351002,167.3941612151604</t>
+          <t>-44.81489613385367,167.3941629251111</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -24278,7 +24318,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-44.81404782044701,167.3955528925194</t>
+          <t>-44.81404585586505,167.39555136576516</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -24310,7 +24350,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>-44.81485880659264,167.3941339170362</t>
+          <t>-44.81486344303168,167.39413752014252</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -24320,7 +24360,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-44.81418534114525,167.39565976556455</t>
+          <t>-44.81418141198352,167.39565671204218</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -24412,7 +24452,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>-44.81483028070303,167.3941117487843</t>
+          <t>-44.81483853199375,167.39411816108642</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -24422,7 +24462,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-44.81412852546039,167.39561561167014</t>
+          <t>-44.81412161013408,167.3956102374812</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -24484,7 +24524,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>-44.814879474108416,167.39414997834479</t>
+          <t>-44.81487758809942,167.39414851267358</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -24522,7 +24562,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>-44.81477959419678,167.394072358967</t>
+          <t>-44.81477747243582,167.39407071009236</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -24560,7 +24600,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>-44.8147415596643,167.3940428013802</t>
+          <t>-44.81473582305041,167.39403834331767</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -24568,7 +24608,11 @@
           <t>-44.81447382457007,167.3948593443519</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>-44.8137580051465,167.3953276668089</t>
+        </is>
+      </c>
       <c r="H231" t="inlineStr">
         <is>
           <t>L8</t>
@@ -24598,7 +24642,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-44.814868079470656,167.39414112324934</t>
+          <t>-44.81488010277805,167.3941504669019</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -24608,7 +24652,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-44.81407673909167,167.39557536635348</t>
+          <t>-44.81406660184977,167.39556748829506</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -24640,7 +24684,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>-44.81472827901004,167.3940324806614</t>
+          <t>-44.81472875051257,167.39403284707737</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -24678,7 +24722,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>-44.8148387677449,167.39411834429507</t>
+          <t>-44.814844582940104,167.39412286344242</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -24688,7 +24732,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-44.81401010047062,167.39552357885518</t>
+          <t>-44.8140051497233,167.39551973143946</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -24742,7 +24786,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>-44.81467900699064,167.39399419022365</t>
+          <t>-44.81468042149851,167.3939952894698</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -24752,7 +24796,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-44.81393552491695,167.39546562340627</t>
+          <t>-44.81393434616724,167.39546470735715</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -24784,7 +24828,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>-44.814847176202775,167.39412487873813</t>
+          <t>-44.814854405904654,167.39413049713923</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -24794,7 +24838,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-44.81402573854486,167.39553573180734</t>
+          <t>-44.81401953046527,167.39553090726778</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -24826,7 +24870,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-44.81466494049527,167.39398325883428</t>
+          <t>-44.81467814256917,167.39399351846214</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -24836,7 +24880,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-44.814269503774625,167.395725172109</t>
+          <t>-44.81425834495894,167.39571650008233</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -24890,7 +24934,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>-44.81471083341579,167.39401892327436</t>
+          <t>-44.81470446813109,167.3940139766621</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -24900,7 +24944,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-44.81399689847753,167.39551331908137</t>
+          <t>-44.814002242141484,167.3955174718464</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -24932,7 +24976,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>-44.81482218657947,167.394105458623</t>
+          <t>-44.81482069348869,167.39410429830215</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -24942,7 +24986,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-44.81420262945616,167.39567320106764</t>
+          <t>-44.81420396537103,167.39567423926593</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -24974,7 +25018,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-44.8148716943213,167.39414393245167</t>
+          <t>-44.81487310882808,167.39414503170485</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -24984,7 +25028,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-44.814240349403,167.3957025149193</t>
+          <t>-44.81423917065474,167.39570159886088</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -25016,7 +25060,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>-44.815040884989166,167.3942754157121</t>
+          <t>-44.81504654301228,167.39427981274983</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -25026,7 +25070,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-44.81415327918362,167.39563484883382</t>
+          <t>-44.81414856418892,167.39563118461095</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -25058,7 +25102,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>-44.814732129614015,167.3940354730587</t>
+          <t>-44.81472537141109,167.39403022109633</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -25096,7 +25140,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>-44.81490980741735,167.39417355123592</t>
+          <t>-44.81491978754668,167.39418130708873</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -25106,7 +25150,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-44.81424616456096,167.3957070341414</t>
+          <t>-44.814237677573615,167.39570043852027</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -25138,7 +25182,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>-44.81469975310529,167.39401031250557</t>
+          <t>-44.81469763134364,167.39400866363533</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -25172,7 +25216,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>-44.81470171769938,167.3940118392374</t>
+          <t>-44.814698024262455,167.39400896898167</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -25202,7 +25246,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>-44.814634528572306,167.39395962506575</t>
+          <t>-44.81462816328564,167.39395467846603</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -25240,7 +25284,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>-44.81479554669522,167.39408475606513</t>
+          <t>-44.81480403373831,167.3940913515683</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -25250,7 +25294,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-44.814115009140615,167.39560510757474</t>
+          <t>-44.81410785806416,167.39559955017737</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -25304,7 +25348,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>-44.81480387657085,167.39409122942934</t>
+          <t>-44.81481322803465,167.39409849669883</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -25314,7 +25358,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-44.814159015760396,167.3956393069724</t>
+          <t>-44.81415100026952,167.3956330777927</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -25346,7 +25390,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>-44.81488426771447,167.39415370359285</t>
+          <t>-44.814889297071545,167.39415761205046</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -25380,7 +25424,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>-44.81474368142557,167.3940444502529</t>
+          <t>-44.814743602841816,167.3940443891835</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -25390,7 +25434,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-44.814309895539814,167.39575656242963</t>
+          <t>-44.81431005270622,167.395756684571</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -25452,7 +25496,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>-44.81481197069501,167.39409751958684</t>
+          <t>-44.81482187224457,167.3941052143449</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -25462,7 +25506,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-44.81407893942317,167.39557707632002</t>
+          <t>-44.81407060959661,167.39557060287598</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -25494,7 +25538,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>-44.814758690921394,167.39405611450354</t>
+          <t>-44.81475405448037,167.39405251140977</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -25504,7 +25548,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>-44.81396931573965,167.39549188349704</t>
+          <t>-44.81397324490477,167.3954949369979</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -25566,7 +25610,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>-44.81489817702991,167.39416451292252</t>
+          <t>-44.81489794127881,167.39416432971353</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -25576,7 +25620,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>-44.81404868486307,167.39555356429128</t>
+          <t>-44.81404884202963,167.39555368643164</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -25608,7 +25652,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>-44.81480049747039,167.39408860344176</t>
+          <t>-44.81480835584346,167.39409471039008</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -25668,7 +25712,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>-44.81486595771046,167.3941394743699</t>
+          <t>-44.81486163560631,167.39413611554167</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -25678,7 +25722,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>-44.81405127811122,167.3955555796071</t>
+          <t>-44.81405489294194,167.39555838883552</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -25698,7 +25742,7 @@
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>-44.81470101044551,167.39401128961393</t>
+          <t>-44.81470517538495,167.39401452628567</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -25736,7 +25780,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>-44.814889454238966,167.39415773418978</t>
+          <t>-44.814881831619594,167.39415181043393</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -25774,7 +25818,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>-44.814850240967736,167.39412726045148</t>
+          <t>-44.814843718519214,167.3941221916772</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -25812,7 +25856,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>-44.81485000521659,167.39412707724276</t>
+          <t>-44.814845447361,167.39412353520763</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -25822,7 +25866,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-44.81408884091476,167.39558477117092</t>
+          <t>-44.814092612911466,167.39558770254337</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -25854,7 +25898,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>-44.814877038013485,167.39414808518617</t>
+          <t>-44.81487892402245,167.39414955085735</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -25864,7 +25908,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>-44.81404459853259,167.39555038864248</t>
+          <t>-44.81404294828373,167.39554910616903</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -25896,7 +25940,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>-44.81492002329777,167.39418149029785</t>
+          <t>-44.81492465973564,167.3941850934115</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -25906,7 +25950,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-44.814151786101974,167.3956336884965</t>
+          <t>-44.814147856939705,167.39563063497755</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -25938,7 +25982,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>-44.81483531006121,167.3941156572349</t>
+          <t>-44.81483931783096,167.39411877178193</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -25948,7 +25992,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-44.81406518735087,167.3955663890313</t>
+          <t>-44.81406172968685,167.39556370194234</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -26006,7 +26050,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>-44.81491900170974,167.39418069639157</t>
+          <t>-44.814927567332255,167.3941873529915</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -26034,7 +26078,7 @@
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-44.81414628527478,167.39562941357008</t>
+          <t>-44.81415398643283,167.3956353984673</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -26066,7 +26110,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>-44.814941398061556,167.39419810126697</t>
+          <t>-44.81493361827641,167.3941920553614</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -26076,7 +26120,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-44.81420734444983,167.39567686529708</t>
+          <t>-44.814213866857585,167.39568193414877</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -26108,7 +26152,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>-44.81503577705153,167.39427144616485</t>
+          <t>-44.81504033490358,167.39427498822235</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -26118,7 +26162,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-44.81423972073726,167.3957020263548</t>
+          <t>-44.814235948742834,167.39569909496805</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -26150,7 +26194,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>-44.814788002656684,167.39407889339722</t>
+          <t>-44.81480112614025,167.39408909199759</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -26188,7 +26232,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>-44.814886546641915,167.39415547461263</t>
+          <t>-44.81488442488188,167.39415382573216</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -26226,7 +26270,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>-44.81493951205305,167.39419663559272</t>
+          <t>-44.81493204660262,167.39419083396652</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -26236,7 +26280,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>-44.81407689625819,167.39557548849396</t>
+          <t>-44.81408326150289,167.39558043518318</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -26268,7 +26312,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>-44.81476662787956,167.39406228251278</t>
+          <t>-44.814761598519965,167.39405837407108</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -26278,7 +26322,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>-44.812433871783476,167.39429866694311</t>
+          <t>-44.81243811530832,167.3943019645559</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -26310,7 +26354,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>-44.814761598519965,167.39405837407108</t>
+          <t>-44.814766470712065,167.39406216037395</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -26320,7 +26364,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-44.81221163671368,167.39412597039166</t>
+          <t>-44.81220755035266,167.3941227949366</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -26352,7 +26396,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>-44.81475766933271,167.39405532060147</t>
+          <t>-44.814757197830225,167.39405495418515</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -26362,7 +26406,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-44.812259808618215,167.39416340415406</t>
+          <t>-44.812260201537455,167.39416370948678</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -26394,7 +26438,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>-44.81478768832174,167.39407864911942</t>
+          <t>-44.81478368055115,167.39407553457772</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -26404,7 +26448,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-44.812297528863134,167.39419271611422</t>
+          <t>-44.81230098655195,167.39419540304573</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -26436,7 +26480,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>-44.81488953282267,167.39415779525942</t>
+          <t>-44.81489204750116,167.3941597494885</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -26446,7 +26490,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-44.81406487301777,167.39556614475046</t>
+          <t>-44.8140627512694,167.39556449585496</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -26504,7 +26548,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>-44.8148848178004,167.3941541310804</t>
+          <t>-44.81488442488188,167.39415382573216</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -26514,7 +26558,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>-44.81405324269314,167.39555710636165</t>
+          <t>-44.81405355702625,167.39555735064238</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -26540,7 +26584,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>-44.81400719288887,167.39552131926172</t>
+          <t>-44.81399980605939,167.39551557867404</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -26572,7 +26616,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>-44.814798375709614,167.39408695456598</t>
+          <t>-44.8147900458338,167.394080481203</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -26582,7 +26626,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-44.81396467932471,167.39548828036658</t>
+          <t>-44.81397175182204,167.3954937766675</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -26614,7 +26658,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>-44.81453881350345,167.39388524297328</t>
+          <t>-44.81454777205827,167.39389220483395</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -26624,7 +26668,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>-44.813929709751626,167.39546110423086</t>
+          <t>-44.813922165753205,167.39545524151805</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -26656,7 +26700,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>-44.814724428406016,167.39402948826447</t>
+          <t>-44.81471955621308,167.3940257019669</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -26666,7 +26710,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-44.813957371077265,167.39548260085695</t>
+          <t>-44.8139614574092,167.39548577649657</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -26698,7 +26742,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>-44.81482265808183,167.3941058250401</t>
+          <t>-44.81483436705657,167.39411492440036</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -26708,7 +26752,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-44.814147856939705,167.39563063497755</t>
+          <t>-44.81413803403373,167.39562300118195</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -26740,7 +26784,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>-44.81482344391908,167.3941064357353</t>
+          <t>-44.81482085065614,167.39410442044118</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -26860,7 +26904,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>-44.81485668483237,167.39413226815725</t>
+          <t>-44.81486564337561,167.39413923009144</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -26870,7 +26914,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-44.814103300235104,167.39559600810057</t>
+          <t>-44.814095756241976,167.39559014535402</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -26902,7 +26946,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>-44.81480599833157,167.3940928783054</t>
+          <t>-44.81481786447456,167.39410209979965</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -26912,7 +26956,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-44.814060315187916,167.39556260267875</t>
+          <t>-44.81405017794535,167.39555472462462</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -26944,7 +26988,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>-44.814928903255,167.39418839117698</t>
+          <t>-44.81493825471406,167.39419565847663</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -26954,7 +26998,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-44.814151628935484,167.39563356635574</t>
+          <t>-44.814143613444365,167.39562733717756</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -27008,7 +27052,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>-44.81498131857131,167.3942291247261</t>
+          <t>-44.81497408887317,167.3942235063013</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -27018,7 +27062,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-44.8140920628286,167.39558727505153</t>
+          <t>-44.81409827090639,167.3955920996027</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -27050,7 +27094,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>-44.81493016059406,167.39418936829279</t>
+          <t>-44.81492599565841,167.39418613159685</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -27060,7 +27104,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>-44.81409929248879,167.39559289351627</t>
+          <t>-44.81410282873555,167.39559564167888</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -27092,7 +27136,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>-44.814856999167226,167.3941325124356</t>
+          <t>-44.81486084976919,167.39413550484568</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -27130,7 +27174,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>-44.814927567332255,167.3941873529915</t>
+          <t>-44.81492780308332,167.3941875362007</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -27158,7 +27202,7 @@
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-44.81427783359444,167.3957316455958</t>
+          <t>-44.814283727334725,167.39573622589415</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -27190,7 +27234,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>-44.81487318741178,167.3941450927745</t>
+          <t>-44.814880417112875,167.39415071118043</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -27228,7 +27272,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>-44.81481841456065,167.39410252728624</t>
+          <t>-44.81482910194718,167.3941108327413</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -27266,7 +27310,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>-44.814926074242116,167.3941861926666</t>
+          <t>-44.814917430035855,167.39417947499726</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -27304,7 +27348,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>-44.81484489727498,167.39412310772067</t>
+          <t>-44.81485275564664,167.39412921467797</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -27342,7 +27386,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>-44.81490666406945,167.39417110844818</t>
+          <t>-44.814899905871314,167.3941658564554</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -27380,7 +27424,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>-44.81477047848292,167.39406527491388</t>
+          <t>-44.81477896552688,167.39407187041155</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -27418,7 +27462,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>-44.81491082900542,167.394174345142</t>
+          <t>-44.81490595681616,167.39417055882097</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -27456,7 +27500,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>-44.814963244325575,167.39421507866666</t>
+          <t>-44.81495255694485,167.39420677317463</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -27466,7 +27510,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>-44.81448513600073,167.3958927504951</t>
+          <t>-44.81449417306147,167.395899773668</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -27498,7 +27542,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>-44.814857077750936,167.3941325735052</t>
+          <t>-44.81485275564664,167.39412921467797</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -27536,7 +27580,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>-44.81487546633932,167.3941468637936</t>
+          <t>-44.814881831619594,167.39415181043393</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -27546,7 +27590,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-44.81406047235447,167.39556272481914</t>
+          <t>-44.81405512869177,167.39555857204607</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -27578,7 +27622,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>-44.814774250502495,167.39406820624595</t>
+          <t>-44.814767570884456,167.39406301534564</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -27588,7 +27632,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-44.814012300802744,167.3955252888179</t>
+          <t>-44.81401788021623,167.39552962479542</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -27620,7 +27664,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>-44.814880495696585,167.39415077225007</t>
+          <t>-44.8148725587421,167.3941446042175</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -27630,7 +27674,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-44.813894347256955,167.39543362277738</t>
+          <t>-44.813901105423,167.39543887478598</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -27678,7 +27722,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>-44.814259445123874,167.39571735507073</t>
+          <t>-44.81426400295003,167.39572089716586</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -27732,7 +27776,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>-44.814901791880125,167.3941673221277</t>
+          <t>-44.814902027631206,167.39416750533672</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -27742,7 +27786,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-44.81440631710037,167.395831496303</t>
+          <t>-44.81440615993403,167.39583137416122</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -27774,7 +27818,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>-44.814933696860095,167.39419211643116</t>
+          <t>-44.814934168362235,167.39419248284963</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -27784,7 +27828,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-44.814150371603574,167.39563258922965</t>
+          <t>-44.81414997868733,167.39563228387775</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -27816,7 +27860,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>-44.8148863894745,167.39415535247332</t>
+          <t>-44.814882224538124,167.39415211578213</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -27826,7 +27870,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-44.81409937107205,167.39559295458656</t>
+          <t>-44.81410290731881,167.39559570274915</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -27858,7 +27902,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>-44.8149035207215,167.3941686656607</t>
+          <t>-44.81491255784673,167.39417568867543</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -27868,7 +27912,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-44.814171274745924,167.3956488339564</t>
+          <t>-44.814163573588424,167.39564284905575</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -27896,7 +27940,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>-44.81488497496781,167.39415425321965</t>
+          <t>-44.81487860968763,167.3941493065788</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -27906,7 +27950,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>-44.81426478878214,167.395721507872</t>
+          <t>-44.81427013244027,167.39572566067397</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -27938,7 +27982,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>-44.814804662408164,167.39409184012416</t>
+          <t>-44.814797904207225,167.39408658814915</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -27976,7 +28020,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>-44.814992320285455,167.39423767450552</t>
+          <t>-44.81500473650512,167.3942473235461</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -27986,7 +28030,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-44.81429865814277,167.3957478293206</t>
+          <t>-44.81428820657723,167.39573970692146</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -28018,7 +28062,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>-44.81483106654026,167.39411235947966</t>
+          <t>-44.8148407323379,167.39411987103392</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -28028,7 +28072,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>-44.81215073421077,167.39407864394255</t>
+          <t>-44.81214256148663,167.3940722930457</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -28060,7 +28104,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>-44.81488214595442,167.3941520547125</t>
+          <t>-44.81487813818538,167.39414894016105</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -28070,7 +28114,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-44.81242837091784,167.39429439226063</t>
+          <t>-44.81243182860483,167.39429707920382</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -28102,7 +28146,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>-44.81483460280773,167.394115107609</t>
+          <t>-44.81483271679842,167.39411364193998</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -28112,7 +28156,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-44.812273167872284,167.3941737854691</t>
+          <t>-44.81227481813303,167.3941750678671</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -28144,7 +28188,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>-44.814824858426114,167.39410753498672</t>
+          <t>-44.81482407258887,167.39410692429146</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -28154,7 +28198,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-44.812152620223976,167.39408010953434</t>
+          <t>-44.81215332747893,167.39408065913133</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -28186,7 +28230,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>-44.81487098706791,167.39414338282512</t>
+          <t>-44.81487978844323,167.39415022262335</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -28196,7 +28240,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>-44.81217368070395,167.394096475316</t>
+          <t>-44.8121662152355,167.3940906740115</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -28228,7 +28272,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>-44.81483774615655,167.39411755039092</t>
+          <t>-44.81483177379374,167.3941129091055</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -28238,7 +28282,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-44.81232133976476,167.39421121930798</t>
+          <t>-44.81232636912982,167.3942151275752</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -28270,7 +28314,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>-44.81475609765778,167.39405409921375</t>
+          <t>-44.81475790508393,167.39405550380962</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -28308,7 +28352,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>-44.8148863108908,167.39415529140368</t>
+          <t>-44.81489534801666,167.39416231441442</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -28318,7 +28362,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-44.81415092168628,167.39563301672231</t>
+          <t>-44.81414322052812,167.3956270318257</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -28350,7 +28394,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>-44.81483169521003,167.39411284803597</t>
+          <t>-44.81483130229142,167.39411254268828</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -28360,7 +28404,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-44.813946683747275,167.39547429534</t>
+          <t>-44.813946998080525,167.39547453961984</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -28392,7 +28436,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>-44.81484890504456,167.3941262222687</t>
+          <t>-44.814850083800295,167.3941271383123</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -28402,7 +28446,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-44.813952420328874,167.39547875344797</t>
+          <t>-44.813951398745864,167.39547795953828</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -28434,7 +28478,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>-44.81485919951121,167.3941342223842</t>
+          <t>-44.81486658638014,167.39413996292674</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -28514,7 +28558,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>-44.81478030145042,167.3940729085919</t>
+          <t>-44.814777708187044,167.39407089330066</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -28524,7 +28568,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>-44.813793760577596,167.39535545348622</t>
+          <t>-44.81379603949501,167.39535722450634</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -28556,7 +28600,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>-44.81473432995911,167.39403718300017</t>
+          <t>-44.814742817004316,167.39404377848993</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -28566,7 +28610,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-44.81397088740571,167.39549310489735</t>
+          <t>-44.81396373632506,167.39548754752656</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -28598,7 +28642,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>-44.814850398135164,167.39412738259063</t>
+          <t>-44.81484324701691,167.39412182525982</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -28608,7 +28652,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>-44.814137091034745,167.3956222683377</t>
+          <t>-44.81414314194488,167.39562697075533</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -28640,7 +28684,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>-44.81483460280773,167.394115107609</t>
+          <t>-44.81484387568665,167.39412231381633</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -28748,7 +28792,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>-44.81470926174058,167.39401770188852</t>
+          <t>-44.81472112788822,167.39402692335315</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -28782,7 +28826,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>-44.81495428578589,167.3942081167099</t>
+          <t>-44.81495106385486,167.39420561284876</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -28792,7 +28836,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>-44.8141678170834,167.39564614685796</t>
+          <t>-44.814170567496774,167.3956482843226</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -28824,7 +28868,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>-44.81475586190654,167.3940539160056</t>
+          <t>-44.81475334722664,167.39405196178535</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -28834,7 +28878,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>-44.81413811261699,167.3956230622523</t>
+          <t>-44.81414023436471,167.39562471115195</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -28866,7 +28910,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>-44.81468875137804,167.39400176280924</t>
+          <t>-44.81468969438325,167.39400249564022</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -28876,7 +28920,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>-44.814119409802956,167.39560852751228</t>
+          <t>-44.81411862397041,167.39560791680913</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -28908,7 +28952,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>-44.814862814361994,167.39413703158567</t>
+          <t>-44.81487130140277,167.3941436271036</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -28946,7 +28990,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>-44.81481354236957,167.39409874097683</t>
+          <t>-44.81482580143081,167.39410826782103</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -28956,7 +29000,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>-44.81404121945158,167.3955477626255</t>
+          <t>-44.81403084645836,167.39553970136592</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -28988,7 +29032,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>-44.814975189044645,167.3942243612789</t>
+          <t>-44.81496843084839,167.3942191092742</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -28998,7 +29042,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>-44.81397599532033,167.3954970744487</t>
+          <t>-44.81398173190123,167.39550153256107</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -29030,7 +29074,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>-44.814870044063404,167.3941426499897</t>
+          <t>-44.81487978844323,167.39415022262335</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -29040,7 +29084,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>-44.814019609048565,167.39553096833788</t>
+          <t>-44.81401135780326,167.39552455597672</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -29072,7 +29116,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>-44.8148863894745,167.39415535247332</t>
+          <t>-44.81488521071893,167.3941544364286</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -29106,7 +29150,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>-44.81490634973466,167.3941708641694</t>
+          <t>-44.8149083929108,167.3941724519814</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -29144,7 +29188,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>-44.814911379091285,167.3941747726299</t>
+          <t>-44.81490933591516,167.39417318481773</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -29154,7 +29198,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>-44.814052063944004,167.3955561903089</t>
+          <t>-44.8140537141928,167.39555747278274</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -29186,7 +29230,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>-44.81490147754531,167.39416707784895</t>
+          <t>-44.81490218479862,167.39416762747607</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -29196,7 +29240,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>-44.81407304567799,167.39557249605284</t>
+          <t>-44.814072417011836,167.39557200749104</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -29228,7 +29272,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>-44.8148139352882,167.39409904632433</t>
+          <t>-44.814817235804746,167.39410161124357</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -29266,7 +29310,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>-44.81487562350673,167.39414698593288</t>
+          <t>-44.814871772905015,167.3941439935213</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -29276,7 +29320,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>-44.81381764991767,167.39537401866923</t>
+          <t>-44.81382087183507,167.39537652252724</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -29308,7 +29352,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>-44.81485110538861,167.3941279322168</t>
+          <t>-44.81485715633465,167.3941326345748</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -29346,7 +29390,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>-44.81474179541555,167.39404298458828</t>
+          <t>-44.814750989714234,167.39405012970406</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -29384,7 +29428,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>-44.81478179454146,167.39407406891118</t>
+          <t>-44.81477613651225,167.39406967191212</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -29422,7 +29466,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>-44.814836960319354,167.3941169396954</t>
+          <t>-44.814843639935496,167.39412213060766</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -29432,7 +29476,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>-44.81405151386105,167.39555576281765</t>
+          <t>-44.81404593444834,167.3955514268353</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -29464,7 +29508,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>-44.81476584204212,167.39406167181872</t>
+          <t>-44.814756647744005,167.39405452669945</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -29508,7 +29552,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>-44.813978509985944,167.39549902868964</t>
+          <t>-44.81396837274001,167.39549115065694</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -29540,7 +29584,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>-44.81470996899442,167.39401825151214</t>
+          <t>-44.81471004757818,167.39401831258144</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -29550,7 +29594,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>-44.81391925817041,167.39545298193124</t>
+          <t>-44.81391910100376,167.39545285979142</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -29582,7 +29626,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>-44.81478957433139,167.39408011478625</t>
+          <t>-44.81478682390063,167.3940779773555</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -29592,7 +29636,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>-44.81407634617532,167.39557506100232</t>
+          <t>-44.81407862509011,167.39557683203907</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -29624,7 +29668,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>-44.81467939990951,167.39399449556979</t>
+          <t>-44.814679871412125,167.39399486198516</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -29634,7 +29678,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>-44.81396177174241,167.39548602077656</t>
+          <t>-44.81396137882589,167.39548571542656</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -29656,7 +29700,7 @@
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr">
         <is>
-          <t>-44.8141110013945,167.3956019929892</t>
+          <t>-44.81410392890118,167.39559649666285</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -29770,7 +29814,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>-44.81494729183801,167.39420268149948</t>
+          <t>-44.814942026731046,167.39419858982504</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -29780,10 +29824,48 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>-44.81409929248879,167.39559289351627</t>
+          <t>-44.81410369315141,167.395596313452</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-11 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-44.81578231173832,167.39177778577144</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-44.815494465370406,167.39257869434346</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-44.81525604607645,167.3934180160307</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-44.81492780308332,167.3941875362007</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-44.81447665357567,167.39486154286928</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
